--- a/Data/Quality_A549_15_.xlsx
+++ b/Data/Quality_A549_15_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9909865052596891</v>
       </c>
       <c r="D2">
-        <v>0.2050155354717786</v>
+        <v>-3.202429222751857</v>
       </c>
       <c r="E2">
         <v>0.08863089763202353</v>
@@ -459,7 +459,7 @@
         <v>0.95690589125309</v>
       </c>
       <c r="D3">
-        <v>0.4622419134546255</v>
+        <v>0.3432029902302274</v>
       </c>
       <c r="E3">
         <v>0.1937971984508551</v>
@@ -482,7 +482,7 @@
         <v>0.947797346038958</v>
       </c>
       <c r="D4">
-        <v>0.4857211386981138</v>
+        <v>0.3945026712940184</v>
       </c>
       <c r="E4">
         <v>0.2132970428287956</v>
@@ -505,7 +505,7 @@
         <v>0.9308855621058094</v>
       </c>
       <c r="D5">
-        <v>0.5929099106378235</v>
+        <v>0.5677373492388411</v>
       </c>
       <c r="E5">
         <v>0.2454273358445442</v>
@@ -528,7 +528,7 @@
         <v>0.9098059965392872</v>
       </c>
       <c r="D6">
-        <v>0.3827072744646836</v>
+        <v>0.4999931589918373</v>
       </c>
       <c r="E6">
         <v>0.280367310244371</v>
@@ -551,7 +551,7 @@
         <v>0.8659032637963292</v>
       </c>
       <c r="D7">
-        <v>0.5350615040097483</v>
+        <v>0.6644433772085948</v>
       </c>
       <c r="E7">
         <v>0.3418594950043395</v>
@@ -574,7 +574,7 @@
         <v>0.7713560941475496</v>
       </c>
       <c r="D8">
-        <v>0.6376736780972954</v>
+        <v>0.7496437341135844</v>
       </c>
       <c r="E8">
         <v>0.4463940098140318</v>
@@ -597,7 +597,7 @@
         <v>0.6667201491088737</v>
       </c>
       <c r="D9">
-        <v>0.5105473860446765</v>
+        <v>0.5778092133772423</v>
       </c>
       <c r="E9">
         <v>0.5389432935762366</v>
@@ -620,7 +620,7 @@
         <v>0.6605003905162321</v>
       </c>
       <c r="D10">
-        <v>0.5392648756462781</v>
+        <v>0.6488431883432415</v>
       </c>
       <c r="E10">
         <v>0.5439489997267337</v>
@@ -643,7 +643,7 @@
         <v>0.6033011464733071</v>
       </c>
       <c r="D11">
-        <v>0.489648308925702</v>
+        <v>0.652729917400686</v>
       </c>
       <c r="E11">
         <v>0.5879887483986765</v>
@@ -666,7 +666,7 @@
         <v>0.5954780893810193</v>
       </c>
       <c r="D12">
-        <v>0.4333404013523044</v>
+        <v>0.6384703349280474</v>
       </c>
       <c r="E12">
         <v>0.5937581281038837</v>
@@ -689,7 +689,7 @@
         <v>0.5790650458745589</v>
       </c>
       <c r="D13">
-        <v>0.4414433893752991</v>
+        <v>0.6470243532246196</v>
       </c>
       <c r="E13">
         <v>0.6056839121235558</v>
@@ -712,7 +712,7 @@
         <v>0.5790650458745589</v>
       </c>
       <c r="D14">
-        <v>0.4414433893752991</v>
+        <v>0.6470243532246196</v>
       </c>
       <c r="E14">
         <v>0.6056839121235558</v>
@@ -735,7 +735,7 @@
         <v>0.5554966758056838</v>
       </c>
       <c r="D15">
-        <v>0.4385734797100336</v>
+        <v>0.6368149620644405</v>
       </c>
       <c r="E15">
         <v>0.6224092660141782</v>
@@ -758,7 +758,7 @@
         <v>0.5320030599462424</v>
       </c>
       <c r="D16">
-        <v>0.374095510289931</v>
+        <v>0.6365132578509616</v>
       </c>
       <c r="E16">
         <v>0.6386457842086866</v>
@@ -781,7 +781,7 @@
         <v>0.5038109070906509</v>
       </c>
       <c r="D17">
-        <v>0.297984380455995</v>
+        <v>0.5911470182674052</v>
       </c>
       <c r="E17">
         <v>0.6576005226217621</v>
@@ -804,7 +804,7 @@
         <v>0.465449223828434</v>
       </c>
       <c r="D18">
-        <v>0.1123274042220587</v>
+        <v>0.6033403631215002</v>
       </c>
       <c r="E18">
         <v>0.6825477277122203</v>
@@ -827,7 +827,7 @@
         <v>0.4520736074035497</v>
       </c>
       <c r="D19">
-        <v>0.1534310354796766</v>
+        <v>0.607684302836734</v>
       </c>
       <c r="E19">
         <v>0.6910343772412224</v>
@@ -850,7 +850,7 @@
         <v>0.4520736074035497</v>
       </c>
       <c r="D20">
-        <v>0.1534310354796766</v>
+        <v>0.607684302836734</v>
       </c>
       <c r="E20">
         <v>0.6910343772412224</v>
@@ -873,7 +873,7 @@
         <v>0.4520730304542361</v>
       </c>
       <c r="D21">
-        <v>0.1527081005993669</v>
+        <v>0.6075361063469693</v>
       </c>
       <c r="E21">
         <v>0.691034741059894</v>
@@ -896,7 +896,7 @@
         <v>0.4280888527210002</v>
       </c>
       <c r="D22">
-        <v>0.2965468278665014</v>
+        <v>0.6266334128725354</v>
       </c>
       <c r="E22">
         <v>0.7059969481770844</v>
@@ -955,7 +955,7 @@
         <v>0.7105150680699899</v>
       </c>
       <c r="D2">
-        <v>0.6153703682566574</v>
+        <v>0.6470198674939538</v>
       </c>
       <c r="E2">
         <v>0.5022865216468898</v>
@@ -981,7 +981,7 @@
         <v>0.8021456812698995</v>
       </c>
       <c r="D3">
-        <v>0.6151272178854197</v>
+        <v>0.6636571886443021</v>
       </c>
       <c r="E3">
         <v>0.4152515958294397</v>
@@ -1007,7 +1007,7 @@
         <v>0.8686880308304369</v>
       </c>
       <c r="D4">
-        <v>0.6831240850016668</v>
+        <v>0.7253705242288648</v>
       </c>
       <c r="E4">
         <v>0.3382911995299773</v>
@@ -1033,7 +1033,7 @@
         <v>0.9108898894077231</v>
       </c>
       <c r="D5">
-        <v>0.7652043765734722</v>
+        <v>0.7830023240395202</v>
       </c>
       <c r="E5">
         <v>0.2786775824007512</v>
@@ -1059,7 +1059,7 @@
         <v>0.9505833186840691</v>
       </c>
       <c r="D6">
-        <v>0.7215851597169219</v>
+        <v>0.7561819877677887</v>
       </c>
       <c r="E6">
         <v>0.207527345477348</v>
@@ -1085,7 +1085,7 @@
         <v>0.9728694963592512</v>
       </c>
       <c r="D7">
-        <v>0.7715242454223525</v>
+        <v>0.7874998213382232</v>
       </c>
       <c r="E7">
         <v>0.1537685329343615</v>
@@ -1111,7 +1111,7 @@
         <v>0.9854887115172973</v>
       </c>
       <c r="D8">
-        <v>0.719891906898787</v>
+        <v>0.7278119937649015</v>
       </c>
       <c r="E8">
         <v>0.112458304343637</v>
@@ -1137,7 +1137,7 @@
         <v>0.9943592370175287</v>
       </c>
       <c r="D9">
-        <v>0.7551991085775536</v>
+        <v>0.7761521050659708</v>
       </c>
       <c r="E9">
         <v>0.07011443984548586</v>
@@ -1163,7 +1163,7 @@
         <v>0.9980178014298624</v>
       </c>
       <c r="D10">
-        <v>0.7344603979740754</v>
+        <v>0.7363210561515134</v>
       </c>
       <c r="E10">
         <v>0.04156350100319954</v>
@@ -1189,7 +1189,7 @@
         <v>0.9989515113505113</v>
       </c>
       <c r="D11">
-        <v>0.7343300611651523</v>
+        <v>0.764464140760025</v>
       </c>
       <c r="E11">
         <v>0.03022876536295147</v>
@@ -1215,7 +1215,7 @@
         <v>0.9990953961742226</v>
       </c>
       <c r="D12">
-        <v>0.6853033139873344</v>
+        <v>0.6949160798905474</v>
       </c>
       <c r="E12">
         <v>0.02807810236399634</v>
@@ -1241,7 +1241,7 @@
         <v>0.9991073302342234</v>
       </c>
       <c r="D13">
-        <v>0.6566334465304335</v>
+        <v>0.6765686209213853</v>
       </c>
       <c r="E13">
         <v>0.02789227611555988</v>
@@ -1267,7 +1267,7 @@
         <v>0.999109185817003</v>
       </c>
       <c r="D14">
-        <v>0.69933633237354</v>
+        <v>0.7059543423224103</v>
       </c>
       <c r="E14">
         <v>0.02786327135164884</v>
@@ -1293,7 +1293,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D15">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E15">
         <v>0.02786137343906938</v>
@@ -1319,7 +1319,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D16">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E16">
         <v>0.02786137343906938</v>
@@ -1345,7 +1345,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D17">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E17">
         <v>0.02786137343906938</v>
@@ -1371,7 +1371,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D18">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E18">
         <v>0.02786137343906938</v>
@@ -1397,7 +1397,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D19">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E19">
         <v>0.02786137343906938</v>
@@ -1423,7 +1423,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D20">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E20">
         <v>0.02786137343906938</v>
@@ -1449,7 +1449,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D21">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E21">
         <v>0.02786137343906938</v>
@@ -1475,7 +1475,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D22">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E22">
         <v>0.02786137343906938</v>
@@ -1501,7 +1501,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D23">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E23">
         <v>0.02786137343906938</v>
@@ -1527,7 +1527,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D24">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E24">
         <v>0.02786137343906938</v>
@@ -1553,7 +1553,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D25">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E25">
         <v>0.02786137343906938</v>
@@ -1579,7 +1579,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D26">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E26">
         <v>0.02786137343906938</v>
@@ -1605,7 +1605,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D27">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E27">
         <v>0.02786137343906938</v>
@@ -1631,7 +1631,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D28">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E28">
         <v>0.02786137343906938</v>
@@ -1657,7 +1657,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D29">
-        <v>0.6942148923446397</v>
+        <v>0.7064087529154581</v>
       </c>
       <c r="E29">
         <v>0.02786137343906938</v>
@@ -1683,7 +1683,7 @@
         <v>0.7049300351272523</v>
       </c>
       <c r="D30">
-        <v>0.6067363242567317</v>
+        <v>0.6415682334684768</v>
       </c>
       <c r="E30">
         <v>0.5071086813387988</v>
@@ -1709,7 +1709,7 @@
         <v>0.7974919618448565</v>
       </c>
       <c r="D31">
-        <v>0.6518317043317301</v>
+        <v>0.6766384470329923</v>
       </c>
       <c r="E31">
         <v>0.4201067660148549</v>
@@ -1735,7 +1735,7 @@
         <v>0.8800246468594661</v>
       </c>
       <c r="D32">
-        <v>0.7150856945544541</v>
+        <v>0.7127734639574758</v>
       </c>
       <c r="E32">
         <v>0.3233587083521374</v>
@@ -1761,7 +1761,7 @@
         <v>0.9416279684268056</v>
       </c>
       <c r="D33">
-        <v>0.7828974617832528</v>
+        <v>0.7841621938325305</v>
       </c>
       <c r="E33">
         <v>0.2255490214738516</v>
@@ -1787,7 +1787,7 @@
         <v>0.9687695999090665</v>
       </c>
       <c r="D34">
-        <v>0.7921964282835742</v>
+        <v>0.7902105797449747</v>
       </c>
       <c r="E34">
         <v>0.1649784871935333</v>
@@ -1813,7 +1813,7 @@
         <v>0.9896076393095613</v>
       </c>
       <c r="D35">
-        <v>0.7970971395803822</v>
+        <v>0.784880798650978</v>
       </c>
       <c r="E35">
         <v>0.09516903128174892</v>
@@ -1839,7 +1839,7 @@
         <v>0.9960341417517943</v>
       </c>
       <c r="D36">
-        <v>0.7912103447193751</v>
+        <v>0.7774155950679146</v>
       </c>
       <c r="E36">
         <v>0.05879049766137327</v>
@@ -1865,7 +1865,7 @@
         <v>0.9981303400251338</v>
       </c>
       <c r="D37">
-        <v>0.7961836994766472</v>
+        <v>0.773724087408999</v>
       </c>
       <c r="E37">
         <v>0.04036638503177796</v>
@@ -1891,7 +1891,7 @@
         <v>0.9990480102445707</v>
       </c>
       <c r="D38">
-        <v>0.8023173056617003</v>
+        <v>0.7814759283862501</v>
       </c>
       <c r="E38">
         <v>0.02880412456406832</v>
@@ -1917,7 +1917,7 @@
         <v>0.9991039165312362</v>
       </c>
       <c r="D39">
-        <v>0.801250329955331</v>
+        <v>0.7894709484142859</v>
       </c>
       <c r="E39">
         <v>0.02794555734764182</v>
@@ -1943,7 +1943,7 @@
         <v>0.9991086331526836</v>
       </c>
       <c r="D40">
-        <v>0.79599712309412</v>
+        <v>0.7781867678494327</v>
       </c>
       <c r="E40">
         <v>0.02787191324831398</v>
@@ -1969,7 +1969,7 @@
         <v>0.9991091831789449</v>
       </c>
       <c r="D41">
-        <v>0.7904458831687464</v>
+        <v>0.7749932075142372</v>
       </c>
       <c r="E41">
         <v>0.0278633126087804</v>
@@ -1995,7 +1995,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D42">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E42">
         <v>0.02786137343906938</v>
@@ -2021,7 +2021,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D43">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E43">
         <v>0.02786137343906938</v>
@@ -2047,7 +2047,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D44">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E44">
         <v>0.02786137343906938</v>
@@ -2073,7 +2073,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D45">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E45">
         <v>0.02786137343906938</v>
@@ -2099,7 +2099,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D46">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E46">
         <v>0.02786137343906938</v>
@@ -2125,7 +2125,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D47">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E47">
         <v>0.02786137343906938</v>
@@ -2151,7 +2151,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D48">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E48">
         <v>0.02786137343906938</v>
@@ -2177,7 +2177,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D49">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E49">
         <v>0.02786137343906938</v>
@@ -2203,7 +2203,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D50">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E50">
         <v>0.02786137343906938</v>
@@ -2229,7 +2229,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D51">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E51">
         <v>0.02786137343906938</v>
@@ -2255,7 +2255,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D52">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E52">
         <v>0.02786137343906938</v>
@@ -2281,7 +2281,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D53">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E53">
         <v>0.02786137343906938</v>
@@ -2307,7 +2307,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D54">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E54">
         <v>0.02786137343906938</v>
@@ -2333,7 +2333,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D55">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E55">
         <v>0.02786137343906938</v>
@@ -2359,7 +2359,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D56">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E56">
         <v>0.02786137343906938</v>
@@ -2385,7 +2385,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D57">
-        <v>0.8165462430614758</v>
+        <v>0.8081348578862543</v>
       </c>
       <c r="E57">
         <v>0.02786137343906938</v>
@@ -2411,7 +2411,7 @@
         <v>0.6956743520823987</v>
       </c>
       <c r="D58">
-        <v>0.4794502818494714</v>
+        <v>0.6117733156346772</v>
       </c>
       <c r="E58">
         <v>0.5150007014783411</v>
@@ -2437,7 +2437,7 @@
         <v>0.7908842788016984</v>
       </c>
       <c r="D59">
-        <v>0.6173648252181863</v>
+        <v>0.6578678129710299</v>
       </c>
       <c r="E59">
         <v>0.4269056326282136</v>
@@ -2463,7 +2463,7 @@
         <v>0.8816075548818745</v>
       </c>
       <c r="D60">
-        <v>0.550418601875804</v>
+        <v>0.6302342515668102</v>
       </c>
       <c r="E60">
         <v>0.3212184912667381</v>
@@ -2489,7 +2489,7 @@
         <v>0.9198608368986583</v>
       </c>
       <c r="D61">
-        <v>0.5843565509357505</v>
+        <v>0.6443234699755283</v>
       </c>
       <c r="E61">
         <v>0.2642779591135362</v>
@@ -2515,7 +2515,7 @@
         <v>0.9436750895476858</v>
       </c>
       <c r="D62">
-        <v>0.6694600279190335</v>
+        <v>0.7022106992676629</v>
       </c>
       <c r="E62">
         <v>0.221558694720363</v>
@@ -2541,7 +2541,7 @@
         <v>0.9755349562621911</v>
       </c>
       <c r="D63">
-        <v>0.6928993948133617</v>
+        <v>0.7247364267484931</v>
       </c>
       <c r="E63">
         <v>0.1460197300415703</v>
@@ -2567,7 +2567,7 @@
         <v>0.9875118596714525</v>
       </c>
       <c r="D64">
-        <v>0.6935460900486741</v>
+        <v>0.7169451634495517</v>
       </c>
       <c r="E64">
         <v>0.1043247681094808</v>
@@ -2593,7 +2593,7 @@
         <v>0.9941316775610257</v>
       </c>
       <c r="D65">
-        <v>0.6774227839486539</v>
+        <v>0.7043370152938579</v>
       </c>
       <c r="E65">
         <v>0.07151473392343113</v>
@@ -2619,7 +2619,7 @@
         <v>0.9971918310070821</v>
       </c>
       <c r="D66">
-        <v>0.7371712608857366</v>
+        <v>0.7567953327866441</v>
       </c>
       <c r="E66">
         <v>0.0494709400310608</v>
@@ -2645,7 +2645,7 @@
         <v>0.9982416937712918</v>
       </c>
       <c r="D67">
-        <v>0.6147856301223804</v>
+        <v>0.6397850513123285</v>
       </c>
       <c r="E67">
         <v>0.03914585654289558</v>
@@ -2671,7 +2671,7 @@
         <v>0.9988740405872363</v>
       </c>
       <c r="D68">
-        <v>0.5896272145088073</v>
+        <v>0.6197000932254452</v>
       </c>
       <c r="E68">
         <v>0.03132563698764646</v>
@@ -2697,7 +2697,7 @@
         <v>0.9990819733114303</v>
       </c>
       <c r="D69">
-        <v>0.6297809887291954</v>
+        <v>0.6569475275715787</v>
       </c>
       <c r="E69">
         <v>0.02828565216528362</v>
@@ -2723,7 +2723,7 @@
         <v>0.9991054081130271</v>
       </c>
       <c r="D70">
-        <v>0.6487082146352811</v>
+        <v>0.6672179292672908</v>
       </c>
       <c r="E70">
         <v>0.02792228917768539</v>
@@ -2749,7 +2749,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D71">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E71">
         <v>0.02786137343906938</v>
@@ -2775,7 +2775,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D72">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E72">
         <v>0.02786137343906938</v>
@@ -2801,7 +2801,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D73">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E73">
         <v>0.02786137343906938</v>
@@ -2827,7 +2827,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D74">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E74">
         <v>0.02786137343906938</v>
@@ -2853,7 +2853,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D75">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E75">
         <v>0.02786137343906938</v>
@@ -2879,7 +2879,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D76">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E76">
         <v>0.02786137343906938</v>
@@ -2905,7 +2905,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D77">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E77">
         <v>0.02786137343906938</v>
@@ -2931,7 +2931,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D78">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E78">
         <v>0.02786137343906938</v>
@@ -2957,7 +2957,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D79">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E79">
         <v>0.02786137343906938</v>
@@ -2983,7 +2983,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D80">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E80">
         <v>0.02786137343906938</v>
@@ -3009,7 +3009,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D81">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E81">
         <v>0.02786137343906938</v>
@@ -3035,7 +3035,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D82">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E82">
         <v>0.02786137343906938</v>
@@ -3061,7 +3061,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D83">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E83">
         <v>0.02786137343906938</v>
@@ -3087,7 +3087,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D84">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E84">
         <v>0.02786137343906938</v>
@@ -3113,7 +3113,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D85">
-        <v>0.6525792022650868</v>
+        <v>0.6683127428785798</v>
       </c>
       <c r="E85">
         <v>0.02786137343906938</v>
@@ -3139,7 +3139,7 @@
         <v>0.6956743520823988</v>
       </c>
       <c r="D86">
-        <v>-0.007592758102461739</v>
+        <v>0.4856457825118553</v>
       </c>
       <c r="E86">
         <v>0.515000701478341</v>
@@ -3165,7 +3165,7 @@
         <v>0.7908842788016984</v>
       </c>
       <c r="D87">
-        <v>-0.2021237101051501</v>
+        <v>0.3269141425328788</v>
       </c>
       <c r="E87">
         <v>0.4269056326282136</v>
@@ -3191,7 +3191,7 @@
         <v>0.8816075548818745</v>
       </c>
       <c r="D88">
-        <v>-0.1628201933660687</v>
+        <v>0.3742164209409192</v>
       </c>
       <c r="E88">
         <v>0.3212184912667381</v>
@@ -3217,7 +3217,7 @@
         <v>0.9198608368986583</v>
       </c>
       <c r="D89">
-        <v>-0.09552992384394754</v>
+        <v>0.3918548394876157</v>
       </c>
       <c r="E89">
         <v>0.2642779591135363</v>
@@ -3243,7 +3243,7 @@
         <v>0.9436750895476858</v>
       </c>
       <c r="D90">
-        <v>0.007151696344344316</v>
+        <v>0.4502925584891038</v>
       </c>
       <c r="E90">
         <v>0.221558694720363</v>
@@ -3269,7 +3269,7 @@
         <v>0.9755349562621911</v>
       </c>
       <c r="D91">
-        <v>0.1151501767968408</v>
+        <v>0.4772837715494451</v>
       </c>
       <c r="E91">
         <v>0.1460197300415703</v>
@@ -3295,7 +3295,7 @@
         <v>0.9875118596714525</v>
       </c>
       <c r="D92">
-        <v>-0.0135204188344098</v>
+        <v>0.4038398416909165</v>
       </c>
       <c r="E92">
         <v>0.1043247681094808</v>
@@ -3321,7 +3321,7 @@
         <v>0.9935357529792228</v>
       </c>
       <c r="D93">
-        <v>0.02895134424062673</v>
+        <v>0.3951281563580267</v>
       </c>
       <c r="E93">
         <v>0.07505809106499008</v>
@@ -3347,7 +3347,7 @@
         <v>0.997169439467673</v>
       </c>
       <c r="D94">
-        <v>0.06501479852900571</v>
+        <v>0.4429486561153828</v>
       </c>
       <c r="E94">
         <v>0.04966778200964536</v>
@@ -3373,7 +3373,7 @@
         <v>0.9984495287823638</v>
       </c>
       <c r="D95">
-        <v>0.1049365132982855</v>
+        <v>0.4334529957463519</v>
       </c>
       <c r="E95">
         <v>0.0367595678578691</v>
@@ -3399,7 +3399,7 @@
         <v>0.9989532020031638</v>
       </c>
       <c r="D96">
-        <v>0.08434228095441543</v>
+        <v>0.4509763831045179</v>
       </c>
       <c r="E96">
         <v>0.03020438409720866</v>
@@ -3425,7 +3425,7 @@
         <v>0.9990729127657078</v>
       </c>
       <c r="D97">
-        <v>0.08856638113301296</v>
+        <v>0.4534013960497509</v>
       </c>
       <c r="E97">
         <v>0.02842489332041202</v>
@@ -3451,7 +3451,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D98">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E98">
         <v>0.02786137343906938</v>
@@ -3477,7 +3477,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D99">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E99">
         <v>0.02786137343906938</v>
@@ -3503,7 +3503,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D100">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E100">
         <v>0.02786137343906938</v>
@@ -3529,7 +3529,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D101">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E101">
         <v>0.02786137343906938</v>
@@ -3555,7 +3555,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D102">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E102">
         <v>0.02786137343906938</v>
@@ -3581,7 +3581,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D103">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E103">
         <v>0.02786137343906938</v>
@@ -3607,7 +3607,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D104">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E104">
         <v>0.02786137343906938</v>
@@ -3633,7 +3633,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D105">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E105">
         <v>0.02786137343906938</v>
@@ -3659,7 +3659,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D106">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E106">
         <v>0.02786137343906938</v>
@@ -3685,7 +3685,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D107">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E107">
         <v>0.02786137343906938</v>
@@ -3711,7 +3711,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D108">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E108">
         <v>0.02786137343906938</v>
@@ -3737,7 +3737,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D109">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E109">
         <v>0.02786137343906938</v>
@@ -3763,7 +3763,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D110">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E110">
         <v>0.02786137343906938</v>
@@ -3789,7 +3789,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D111">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E111">
         <v>0.02786137343906938</v>
@@ -3815,7 +3815,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D112">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E112">
         <v>0.02786137343906938</v>
@@ -3841,7 +3841,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D113">
-        <v>0.08372001254298622</v>
+        <v>0.4506116469210473</v>
       </c>
       <c r="E113">
         <v>0.02786137343906938</v>
@@ -3867,7 +3867,7 @@
         <v>0.6956743520823987</v>
       </c>
       <c r="D114">
-        <v>-0.007592758102460406</v>
+        <v>0.4856457825118556</v>
       </c>
       <c r="E114">
         <v>0.515000701478341</v>
@@ -3893,7 +3893,7 @@
         <v>0.7908842788016985</v>
       </c>
       <c r="D115">
-        <v>-0.2021237101051492</v>
+        <v>0.326914142532879</v>
       </c>
       <c r="E115">
         <v>0.4269056326282136</v>
@@ -3919,7 +3919,7 @@
         <v>0.8816075548818745</v>
       </c>
       <c r="D116">
-        <v>-0.1628201933660702</v>
+        <v>0.374216420940919</v>
       </c>
       <c r="E116">
         <v>0.3212184912667382</v>
@@ -3945,7 +3945,7 @@
         <v>0.9198608368986583</v>
       </c>
       <c r="D117">
-        <v>-0.5443541752685697</v>
+        <v>0.1336377284755612</v>
       </c>
       <c r="E117">
         <v>0.2642779591135363</v>
@@ -3971,7 +3971,7 @@
         <v>0.9436750895476858</v>
       </c>
       <c r="D118">
-        <v>0.01838680640978829</v>
+        <v>0.4490799446689446</v>
       </c>
       <c r="E118">
         <v>0.221558694720363</v>
@@ -3997,7 +3997,7 @@
         <v>0.9755349562621911</v>
       </c>
       <c r="D119">
-        <v>0.08906226017599761</v>
+        <v>0.4643235719798142</v>
       </c>
       <c r="E119">
         <v>0.1460197300415703</v>
@@ -4023,7 +4023,7 @@
         <v>0.9875118596714525</v>
       </c>
       <c r="D120">
-        <v>0.08729814169510119</v>
+        <v>0.451396615886644</v>
       </c>
       <c r="E120">
         <v>0.1043247681094808</v>
@@ -4049,7 +4049,7 @@
         <v>0.9929419239539443</v>
       </c>
       <c r="D121">
-        <v>-0.2257602793353626</v>
+        <v>0.2329672592132334</v>
       </c>
       <c r="E121">
         <v>0.07842990872252423</v>
@@ -4075,7 +4075,7 @@
         <v>0.9959542355165041</v>
       </c>
       <c r="D122">
-        <v>-0.2426372966397059</v>
+        <v>0.2089222887871133</v>
       </c>
       <c r="E122">
         <v>0.05937981520539101</v>
@@ -4101,7 +4101,7 @@
         <v>0.9980509622392904</v>
       </c>
       <c r="D123">
-        <v>-0.3138706938224134</v>
+        <v>0.1673360012932068</v>
       </c>
       <c r="E123">
         <v>0.04121437037144741</v>
@@ -4127,7 +4127,7 @@
         <v>0.9989377638438837</v>
       </c>
       <c r="D124">
-        <v>-0.276049225010166</v>
+        <v>0.2136957357289863</v>
       </c>
       <c r="E124">
         <v>0.03042629577912691</v>
@@ -4153,7 +4153,7 @@
         <v>0.9990723096273078</v>
       </c>
       <c r="D125">
-        <v>-0.2298925203867563</v>
+        <v>0.226879498208061</v>
       </c>
       <c r="E125">
         <v>0.0284341380584302</v>
@@ -4179,7 +4179,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D126">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E126">
         <v>0.02786137343906938</v>
@@ -4205,7 +4205,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D127">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E127">
         <v>0.02786137343906938</v>
@@ -4231,7 +4231,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D128">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E128">
         <v>0.02786137343906938</v>
@@ -4257,7 +4257,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D129">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E129">
         <v>0.02786137343906938</v>
@@ -4283,7 +4283,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D130">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E130">
         <v>0.02786137343906938</v>
@@ -4309,7 +4309,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D131">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E131">
         <v>0.02786137343906938</v>
@@ -4335,7 +4335,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D132">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E132">
         <v>0.02786137343906938</v>
@@ -4361,7 +4361,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D133">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E133">
         <v>0.02786137343906938</v>
@@ -4387,7 +4387,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D134">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E134">
         <v>0.02786137343906938</v>
@@ -4413,7 +4413,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D135">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E135">
         <v>0.02786137343906938</v>
@@ -4439,7 +4439,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D136">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E136">
         <v>0.02786137343906938</v>
@@ -4465,7 +4465,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D137">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E137">
         <v>0.02786137343906938</v>
@@ -4491,7 +4491,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D138">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E138">
         <v>0.02786137343906938</v>
@@ -4517,7 +4517,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D139">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E139">
         <v>0.02786137343906938</v>
@@ -4543,7 +4543,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D140">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E140">
         <v>0.02786137343906938</v>
@@ -4569,7 +4569,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D141">
-        <v>-0.2341632106913449</v>
+        <v>0.225174143723355</v>
       </c>
       <c r="E141">
         <v>0.02786137343906938</v>
@@ -4595,7 +4595,7 @@
         <v>0.6956743520823987</v>
       </c>
       <c r="D142">
-        <v>0.4794502818494715</v>
+        <v>0.6117733156346772</v>
       </c>
       <c r="E142">
         <v>0.515000701478341</v>
@@ -4621,7 +4621,7 @@
         <v>0.7908842788016985</v>
       </c>
       <c r="D143">
-        <v>0.6173648252181864</v>
+        <v>0.6578678129710299</v>
       </c>
       <c r="E143">
         <v>0.4269056326282136</v>
@@ -4647,7 +4647,7 @@
         <v>0.8816075548818745</v>
       </c>
       <c r="D144">
-        <v>0.5504186018758044</v>
+        <v>0.6302342515668105</v>
       </c>
       <c r="E144">
         <v>0.3212184912667382</v>
@@ -4673,7 +4673,7 @@
         <v>0.9198608368986583</v>
       </c>
       <c r="D145">
-        <v>0.5902178040003647</v>
+        <v>0.6419947612544908</v>
       </c>
       <c r="E145">
         <v>0.2642779591135363</v>
@@ -4699,7 +4699,7 @@
         <v>0.9436750895476858</v>
       </c>
       <c r="D146">
-        <v>0.6843204524019429</v>
+        <v>0.7124181898893295</v>
       </c>
       <c r="E146">
         <v>0.221558694720363</v>
@@ -4725,7 +4725,7 @@
         <v>0.9755349562621911</v>
       </c>
       <c r="D147">
-        <v>0.7396437547266248</v>
+        <v>0.7476935882158786</v>
       </c>
       <c r="E147">
         <v>0.1460197300415703</v>
@@ -4751,7 +4751,7 @@
         <v>0.9875118596714525</v>
       </c>
       <c r="D148">
-        <v>0.7178867372051827</v>
+        <v>0.7292043273487306</v>
       </c>
       <c r="E148">
         <v>0.1043247681094808</v>
@@ -4777,7 +4777,7 @@
         <v>0.9929056333244566</v>
       </c>
       <c r="D149">
-        <v>0.6889463946955189</v>
+        <v>0.7011505659977598</v>
       </c>
       <c r="E149">
         <v>0.07863128239970035</v>
@@ -4803,7 +4803,7 @@
         <v>0.9972072859800025</v>
       </c>
       <c r="D150">
-        <v>0.755260279660891</v>
+        <v>0.7490107801783252</v>
       </c>
       <c r="E150">
         <v>0.04933461865662844</v>
@@ -4829,7 +4829,7 @@
         <v>0.9982028664491618</v>
       </c>
       <c r="D151">
-        <v>0.6751104181017729</v>
+        <v>0.6850738160556791</v>
       </c>
       <c r="E151">
         <v>0.03957571036711215</v>
@@ -4855,7 +4855,7 @@
         <v>0.9989864632632178</v>
       </c>
       <c r="D152">
-        <v>0.7450825399862429</v>
+        <v>0.7344510044855184</v>
       </c>
       <c r="E152">
         <v>0.02972064910947931</v>
@@ -4881,7 +4881,7 @@
         <v>0.9991002447600646</v>
       </c>
       <c r="D153">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E153">
         <v>0.02800275335528886</v>
@@ -4907,7 +4907,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D154">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E154">
         <v>0.02786137343906938</v>
@@ -4933,7 +4933,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D155">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E155">
         <v>0.02786137343906938</v>
@@ -4959,7 +4959,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D156">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E156">
         <v>0.02786137343906938</v>
@@ -4985,7 +4985,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D157">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E157">
         <v>0.02786137343906938</v>
@@ -5011,7 +5011,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D158">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E158">
         <v>0.02786137343906938</v>
@@ -5037,7 +5037,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D159">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E159">
         <v>0.02786137343906938</v>
@@ -5063,7 +5063,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D160">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E160">
         <v>0.02786137343906938</v>
@@ -5089,7 +5089,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D161">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E161">
         <v>0.02786137343906938</v>
@@ -5115,7 +5115,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D162">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E162">
         <v>0.02786137343906938</v>
@@ -5141,7 +5141,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D163">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E163">
         <v>0.02786137343906938</v>
@@ -5167,7 +5167,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D164">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E164">
         <v>0.02786137343906938</v>
@@ -5193,7 +5193,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D165">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E165">
         <v>0.02786137343906938</v>
@@ -5219,7 +5219,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D166">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E166">
         <v>0.02786137343906938</v>
@@ -5245,7 +5245,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D167">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E167">
         <v>0.02786137343906938</v>
@@ -5271,7 +5271,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D168">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E168">
         <v>0.02786137343906938</v>
@@ -5297,7 +5297,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D169">
-        <v>0.7155814109823391</v>
+        <v>0.7052663147455958</v>
       </c>
       <c r="E169">
         <v>0.02786137343906938</v>
@@ -5323,7 +5323,7 @@
         <v>0.6924798917205667</v>
       </c>
       <c r="D170">
-        <v>0.3933750043529379</v>
+        <v>0.6222984171188867</v>
       </c>
       <c r="E170">
         <v>0.5176965876589068</v>
@@ -5349,7 +5349,7 @@
         <v>0.7891145681685598</v>
       </c>
       <c r="D171">
-        <v>0.473320674085395</v>
+        <v>0.6047197950875328</v>
       </c>
       <c r="E171">
         <v>0.4287082415985201</v>
@@ -5375,7 +5375,7 @@
         <v>0.8524549271956671</v>
       </c>
       <c r="D172">
-        <v>0.2761487603506686</v>
+        <v>0.527882084064593</v>
       </c>
       <c r="E172">
         <v>0.3585922493537227</v>
@@ -5401,7 +5401,7 @@
         <v>0.8851634594305677</v>
       </c>
       <c r="D173">
-        <v>0.3126139199995381</v>
+        <v>0.4786398114996949</v>
       </c>
       <c r="E173">
         <v>0.3163578340120376</v>
@@ -5427,7 +5427,7 @@
         <v>0.9227390065449932</v>
       </c>
       <c r="D174">
-        <v>0.4279312555753736</v>
+        <v>0.5539075985930257</v>
       </c>
       <c r="E174">
         <v>0.259488841444889</v>
@@ -5453,7 +5453,7 @@
         <v>0.945647317390132</v>
       </c>
       <c r="D175">
-        <v>0.1798256998879588</v>
+        <v>0.4740928674170749</v>
       </c>
       <c r="E175">
         <v>0.2176451705728892</v>
@@ -5479,7 +5479,7 @@
         <v>0.9638253245589032</v>
       </c>
       <c r="D176">
-        <v>0.2573996842148721</v>
+        <v>0.5054892726314333</v>
       </c>
       <c r="E176">
         <v>0.1775582535126407</v>
@@ -5505,7 +5505,7 @@
         <v>0.9830412133505803</v>
       </c>
       <c r="D177">
-        <v>0.4346595830580552</v>
+        <v>0.6098307128124674</v>
       </c>
       <c r="E177">
         <v>0.1215726633822938</v>
@@ -5531,7 +5531,7 @@
         <v>0.9929121500713778</v>
       </c>
       <c r="D178">
-        <v>0.3915174764300363</v>
+        <v>0.5997151432691535</v>
       </c>
       <c r="E178">
         <v>0.07859515952081626</v>
@@ -5557,7 +5557,7 @@
         <v>0.9970096510173404</v>
       </c>
       <c r="D179">
-        <v>0.3622153026299185</v>
+        <v>0.5542519752305228</v>
       </c>
       <c r="E179">
         <v>0.05105043890852693</v>
@@ -5583,7 +5583,7 @@
         <v>0.9984033295212588</v>
       </c>
       <c r="D180">
-        <v>0.4017341219889159</v>
+        <v>0.5631546976512571</v>
       </c>
       <c r="E180">
         <v>0.03730320876161463</v>
@@ -5609,7 +5609,7 @@
         <v>0.999092038665145</v>
       </c>
       <c r="D181">
-        <v>0.5014611850126924</v>
+        <v>0.6460729711267843</v>
       </c>
       <c r="E181">
         <v>0.02813016115917745</v>
@@ -5635,7 +5635,7 @@
         <v>0.9991063133769258</v>
       </c>
       <c r="D182">
-        <v>0.5850734478071088</v>
+        <v>0.699833197637638</v>
       </c>
       <c r="E182">
         <v>0.02790815790810151</v>
@@ -5661,7 +5661,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D183">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E183">
         <v>0.02786137343906938</v>
@@ -5687,7 +5687,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D184">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E184">
         <v>0.02786137343906938</v>
@@ -5713,7 +5713,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D185">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E185">
         <v>0.02786137343906938</v>
@@ -5739,7 +5739,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D186">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E186">
         <v>0.02786137343906938</v>
@@ -5765,7 +5765,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D187">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E187">
         <v>0.02786137343906938</v>
@@ -5791,7 +5791,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D188">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E188">
         <v>0.02786137343906938</v>
@@ -5817,7 +5817,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D189">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E189">
         <v>0.02786137343906938</v>
@@ -5843,7 +5843,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D190">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E190">
         <v>0.02786137343906938</v>
@@ -5869,7 +5869,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D191">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E191">
         <v>0.02786137343906938</v>
@@ -5895,7 +5895,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D192">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E192">
         <v>0.02786137343906938</v>
@@ -5921,7 +5921,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D193">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E193">
         <v>0.02786137343906938</v>
@@ -5947,7 +5947,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D194">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E194">
         <v>0.02786137343906938</v>
@@ -5973,7 +5973,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D195">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E195">
         <v>0.02786137343906938</v>
@@ -5999,7 +5999,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D196">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E196">
         <v>0.02786137343906938</v>
@@ -6025,7 +6025,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D197">
-        <v>0.4700372620376188</v>
+        <v>0.6371650607923187</v>
       </c>
       <c r="E197">
         <v>0.02786137343906938</v>
@@ -6051,7 +6051,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D198">
-        <v>0.3210528233049327</v>
+        <v>0.6191917962641532</v>
       </c>
       <c r="E198">
         <v>0.5242866093546125</v>
@@ -6077,7 +6077,7 @@
         <v>0.7769926517148084</v>
       </c>
       <c r="D199">
-        <v>0.4242718594943957</v>
+        <v>0.6110673954721062</v>
       </c>
       <c r="E199">
         <v>0.4408573946574717</v>
@@ -6103,7 +6103,7 @@
         <v>0.8517541549202744</v>
       </c>
       <c r="D200">
-        <v>0.2693707582861327</v>
+        <v>0.5215745489805155</v>
       </c>
       <c r="E200">
         <v>0.3594428159908308</v>
@@ -6129,7 +6129,7 @@
         <v>0.8848769015069944</v>
       </c>
       <c r="D201">
-        <v>0.5145414080528707</v>
+        <v>0.5694063529729747</v>
       </c>
       <c r="E201">
         <v>0.3167523006165719</v>
@@ -6155,7 +6155,7 @@
         <v>0.9226830752257057</v>
       </c>
       <c r="D202">
-        <v>0.2938147353154223</v>
+        <v>0.4383856537080063</v>
       </c>
       <c r="E202">
         <v>0.2595827499416321</v>
@@ -6181,7 +6181,7 @@
         <v>0.9455857532768952</v>
       </c>
       <c r="D203">
-        <v>0.2248905553726828</v>
+        <v>0.4720795445795771</v>
       </c>
       <c r="E203">
         <v>0.2177683966879917</v>
@@ -6207,7 +6207,7 @@
         <v>0.9637905973964472</v>
       </c>
       <c r="D204">
-        <v>0.4522511648779188</v>
+        <v>0.5524225557913743</v>
       </c>
       <c r="E204">
         <v>0.1776434597392293</v>
@@ -6233,7 +6233,7 @@
         <v>0.9830366385752171</v>
       </c>
       <c r="D205">
-        <v>0.6455533367058615</v>
+        <v>0.6862844211579758</v>
       </c>
       <c r="E205">
         <v>0.1215890599009278</v>
@@ -6259,7 +6259,7 @@
         <v>0.9929130548502954</v>
       </c>
       <c r="D206">
-        <v>0.5419287712796099</v>
+        <v>0.6078090244555623</v>
       </c>
       <c r="E206">
         <v>0.0785901429421928</v>
@@ -6285,7 +6285,7 @@
         <v>0.9970100224022509</v>
       </c>
       <c r="D207">
-        <v>0.5997581370024379</v>
+        <v>0.6490615710557903</v>
       </c>
       <c r="E207">
         <v>0.05104726871810908</v>
@@ -6311,7 +6311,7 @@
         <v>0.9984034180000473</v>
       </c>
       <c r="D208">
-        <v>0.6835736701428312</v>
+        <v>0.7236066173996532</v>
       </c>
       <c r="E208">
         <v>0.03730217517688596</v>
@@ -6337,7 +6337,7 @@
         <v>0.999092038665145</v>
       </c>
       <c r="D209">
-        <v>0.7186320300899587</v>
+        <v>0.7466494724169708</v>
       </c>
       <c r="E209">
         <v>0.02813016115917745</v>
@@ -6363,7 +6363,7 @@
         <v>0.9991063133769258</v>
       </c>
       <c r="D210">
-        <v>0.6245938521546583</v>
+        <v>0.6736263729932844</v>
       </c>
       <c r="E210">
         <v>0.02790815790810151</v>
@@ -6389,7 +6389,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D211">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E211">
         <v>0.02786137343906938</v>
@@ -6415,7 +6415,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D212">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E212">
         <v>0.02786137343906938</v>
@@ -6441,7 +6441,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D213">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E213">
         <v>0.02786137343906938</v>
@@ -6467,7 +6467,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D214">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E214">
         <v>0.02786137343906938</v>
@@ -6493,7 +6493,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D215">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E215">
         <v>0.02786137343906938</v>
@@ -6519,7 +6519,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D216">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E216">
         <v>0.02786137343906938</v>
@@ -6545,7 +6545,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D217">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E217">
         <v>0.02786137343906938</v>
@@ -6571,7 +6571,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D218">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E218">
         <v>0.02786137343906938</v>
@@ -6597,7 +6597,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D219">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E219">
         <v>0.02786137343906938</v>
@@ -6623,7 +6623,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D220">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E220">
         <v>0.02786137343906938</v>
@@ -6649,7 +6649,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D221">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E221">
         <v>0.02786137343906938</v>
@@ -6675,7 +6675,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D222">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E222">
         <v>0.02786137343906938</v>
@@ -6701,7 +6701,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D223">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E223">
         <v>0.02786137343906938</v>
@@ -6727,7 +6727,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D224">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E224">
         <v>0.02786137343906938</v>
@@ -6753,7 +6753,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D225">
-        <v>0.69846303020287</v>
+        <v>0.7284409488014461</v>
       </c>
       <c r="E225">
         <v>0.02786137343906938</v>
@@ -6779,7 +6779,7 @@
         <v>0.6846009030840454</v>
       </c>
       <c r="D226">
-        <v>0.3210528233049293</v>
+        <v>0.6191917962641525</v>
       </c>
       <c r="E226">
         <v>0.5242866093546124</v>
@@ -6805,7 +6805,7 @@
         <v>0.7716976622489423</v>
       </c>
       <c r="D227">
-        <v>0.3877813244840665</v>
+        <v>0.6139420815218702</v>
       </c>
       <c r="E227">
         <v>0.4460604541456316</v>
@@ -6831,7 +6831,7 @@
         <v>0.8495160462397847</v>
       </c>
       <c r="D228">
-        <v>0.6516920229775072</v>
+        <v>0.7048063032741565</v>
       </c>
       <c r="E228">
         <v>0.3621459556901311</v>
@@ -6857,7 +6857,7 @@
         <v>0.9028141668917115</v>
       </c>
       <c r="D229">
-        <v>0.6464797609587564</v>
+        <v>0.6411988716108745</v>
       </c>
       <c r="E229">
         <v>0.2910315175558338</v>
@@ -6883,7 +6883,7 @@
         <v>0.9465568875052695</v>
       </c>
       <c r="D230">
-        <v>0.5078684979461618</v>
+        <v>0.5610541119769197</v>
       </c>
       <c r="E230">
         <v>0.2158163854380554</v>
@@ -6909,7 +6909,7 @@
         <v>0.968471213697543</v>
       </c>
       <c r="D231">
-        <v>0.4294232175368433</v>
+        <v>0.4149800685738279</v>
       </c>
       <c r="E231">
         <v>0.1657647448187538</v>
@@ -6935,7 +6935,7 @@
         <v>0.9817540610883758</v>
       </c>
       <c r="D232">
-        <v>0.4633443189150568</v>
+        <v>0.4690314172118909</v>
       </c>
       <c r="E232">
         <v>0.1261019060866483</v>
@@ -6961,7 +6961,7 @@
         <v>0.9888119800226365</v>
       </c>
       <c r="D233">
-        <v>0.3967553379742925</v>
+        <v>0.4235594982566445</v>
       </c>
       <c r="E233">
         <v>0.09874501031671531</v>
@@ -6987,7 +6987,7 @@
         <v>0.9925792310759293</v>
       </c>
       <c r="D234">
-        <v>0.4535751896366752</v>
+        <v>0.4208347638981238</v>
       </c>
       <c r="E234">
         <v>0.0804198015494629</v>
@@ -7013,7 +7013,7 @@
         <v>0.9946524043762011</v>
       </c>
       <c r="D235">
-        <v>0.4166659642490159</v>
+        <v>0.4403675399526349</v>
       </c>
       <c r="E235">
         <v>0.068268101031698</v>
@@ -7039,7 +7039,7 @@
         <v>0.996450866853105</v>
       </c>
       <c r="D236">
-        <v>0.4949819934544023</v>
+        <v>0.5146151187402868</v>
       </c>
       <c r="E236">
         <v>0.05561599214698289</v>
@@ -7065,7 +7065,7 @@
         <v>0.998240903252207</v>
       </c>
       <c r="D237">
-        <v>0.4911666730537426</v>
+        <v>0.5109315201967739</v>
       </c>
       <c r="E237">
         <v>0.0391546553712082</v>
@@ -7091,7 +7091,7 @@
         <v>0.9989677332227854</v>
       </c>
       <c r="D238">
-        <v>0.5022473803044961</v>
+        <v>0.5177423458716279</v>
       </c>
       <c r="E238">
         <v>0.02999400903681528</v>
@@ -7117,7 +7117,7 @@
         <v>0.9991052779107065</v>
       </c>
       <c r="D239">
-        <v>0.5037193940164022</v>
+        <v>0.5134455487044914</v>
       </c>
       <c r="E239">
         <v>0.02792432106207194</v>
@@ -7143,7 +7143,7 @@
         <v>0.9991091747272858</v>
       </c>
       <c r="D240">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E240">
         <v>0.02786344478559599</v>
@@ -7169,7 +7169,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D241">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E241">
         <v>0.02786137343906938</v>
@@ -7195,7 +7195,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D242">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E242">
         <v>0.02786137343906938</v>
@@ -7221,7 +7221,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D243">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E243">
         <v>0.02786137343906938</v>
@@ -7247,7 +7247,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D244">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E244">
         <v>0.02786137343906938</v>
@@ -7273,7 +7273,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D245">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E245">
         <v>0.02786137343906938</v>
@@ -7299,7 +7299,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D246">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E246">
         <v>0.02786137343906938</v>
@@ -7325,7 +7325,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D247">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E247">
         <v>0.02786137343906938</v>
@@ -7351,7 +7351,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D248">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E248">
         <v>0.02786137343906938</v>
@@ -7377,7 +7377,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D249">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E249">
         <v>0.02786137343906938</v>
@@ -7403,7 +7403,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D250">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E250">
         <v>0.02786137343906938</v>
@@ -7429,7 +7429,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D251">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E251">
         <v>0.02786137343906938</v>
@@ -7455,7 +7455,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D252">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E252">
         <v>0.02786137343906938</v>
@@ -7481,7 +7481,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D253">
-        <v>0.5022771067446752</v>
+        <v>0.5172772269346919</v>
       </c>
       <c r="E253">
         <v>0.02786137343906938</v>
@@ -7507,7 +7507,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D254">
-        <v>0.3210528233049332</v>
+        <v>0.6191917962641533</v>
       </c>
       <c r="E254">
         <v>0.5242866093546125</v>
@@ -7533,7 +7533,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D255">
-        <v>0.487379701588241</v>
+        <v>0.6386712504008027</v>
       </c>
       <c r="E255">
         <v>0.4525625562300015</v>
@@ -7559,7 +7559,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D256">
-        <v>0.5947007775001265</v>
+        <v>0.6237217832322905</v>
       </c>
       <c r="E256">
         <v>0.3771185925463492</v>
@@ -7585,7 +7585,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D257">
-        <v>0.5898398019010628</v>
+        <v>0.6186999994829032</v>
       </c>
       <c r="E257">
         <v>0.3309605049334064</v>
@@ -7611,7 +7611,7 @@
         <v>0.9282332862292085</v>
       </c>
       <c r="D258">
-        <v>0.4498941714150447</v>
+        <v>0.4747285538791168</v>
       </c>
       <c r="E258">
         <v>0.2500921574213921</v>
@@ -7637,7 +7637,7 @@
         <v>0.9530985195917461</v>
       </c>
       <c r="D259">
-        <v>0.505914316209289</v>
+        <v>0.5457766194551994</v>
       </c>
       <c r="E259">
         <v>0.2021770328178199</v>
@@ -7663,7 +7663,7 @@
         <v>0.9696610457412588</v>
       </c>
       <c r="D260">
-        <v>0.4705879122287667</v>
+        <v>0.5119854991531705</v>
       </c>
       <c r="E260">
         <v>0.1626068536430411</v>
@@ -7689,7 +7689,7 @@
         <v>0.984917141971387</v>
       </c>
       <c r="D261">
-        <v>0.462290982920335</v>
+        <v>0.4458498334830721</v>
       </c>
       <c r="E261">
         <v>0.1146516645951687</v>
@@ -7715,7 +7715,7 @@
         <v>0.994559320832443</v>
       </c>
       <c r="D262">
-        <v>0.3940020547439421</v>
+        <v>0.4015767018971361</v>
       </c>
       <c r="E262">
         <v>0.06885969603265789</v>
@@ -7741,7 +7741,7 @@
         <v>0.9976107929700182</v>
       </c>
       <c r="D263">
-        <v>0.4232618279322208</v>
+        <v>0.4273082402406632</v>
       </c>
       <c r="E263">
         <v>0.04563157247296749</v>
@@ -7767,7 +7767,7 @@
         <v>0.9984734203332121</v>
       </c>
       <c r="D264">
-        <v>0.4329387152209212</v>
+        <v>0.4269714337017447</v>
       </c>
       <c r="E264">
         <v>0.03647525020813262</v>
@@ -7793,7 +7793,7 @@
         <v>0.9988591913758222</v>
       </c>
       <c r="D265">
-        <v>0.4324337331155736</v>
+        <v>0.4271275305565704</v>
       </c>
       <c r="E265">
         <v>0.03153152247047783</v>
@@ -7819,7 +7819,7 @@
         <v>0.9990392268196457</v>
       </c>
       <c r="D266">
-        <v>0.4320308146829094</v>
+        <v>0.427227138355455</v>
       </c>
       <c r="E266">
         <v>0.02893669845710672</v>
@@ -7845,7 +7845,7 @@
         <v>0.9990920138746844</v>
       </c>
       <c r="D267">
-        <v>0.4322894482123834</v>
+        <v>0.4271656472465928</v>
       </c>
       <c r="E267">
         <v>0.02813054518152806</v>
@@ -7871,7 +7871,7 @@
         <v>0.999104996670609</v>
       </c>
       <c r="D268">
-        <v>0.4319327459688787</v>
+        <v>0.4272482256974568</v>
       </c>
       <c r="E268">
         <v>0.02792870947598237</v>
@@ -7897,7 +7897,7 @@
         <v>0.9991091305800943</v>
       </c>
       <c r="D269">
-        <v>0.4317469860311605</v>
+        <v>0.4272849108652756</v>
       </c>
       <c r="E269">
         <v>0.02786413520022075</v>
@@ -7923,7 +7923,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D270">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E270">
         <v>0.02786137343906938</v>
@@ -7949,7 +7949,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D271">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E271">
         <v>0.02786137343906938</v>
@@ -7975,7 +7975,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D272">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E272">
         <v>0.02786137343906938</v>
@@ -8001,7 +8001,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D273">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E273">
         <v>0.02786137343906938</v>
@@ -8027,7 +8027,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D274">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E274">
         <v>0.02786137343906938</v>
@@ -8053,7 +8053,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D275">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E275">
         <v>0.02786137343906938</v>
@@ -8079,7 +8079,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D276">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E276">
         <v>0.02786137343906938</v>
@@ -8105,7 +8105,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D277">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E277">
         <v>0.02786137343906938</v>
@@ -8131,7 +8131,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D278">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E278">
         <v>0.02786137343906938</v>
@@ -8157,7 +8157,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D279">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E279">
         <v>0.02786137343906938</v>
@@ -8183,7 +8183,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D280">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E280">
         <v>0.02786137343906938</v>
@@ -8209,7 +8209,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D281">
-        <v>0.4320249091708732</v>
+        <v>0.4272284423541595</v>
       </c>
       <c r="E281">
         <v>0.02786137343906938</v>
@@ -8235,7 +8235,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D282">
-        <v>0.3210528233049327</v>
+        <v>0.6191917962641532</v>
       </c>
       <c r="E282">
         <v>0.5242866093546125</v>
@@ -8261,7 +8261,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D283">
-        <v>0.487379701588241</v>
+        <v>0.6386712504008027</v>
       </c>
       <c r="E283">
         <v>0.4525625562300015</v>
@@ -8287,7 +8287,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D284">
-        <v>0.5390146348256732</v>
+        <v>0.6820484636697337</v>
       </c>
       <c r="E284">
         <v>0.3771185925463492</v>
@@ -8313,7 +8313,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D285">
-        <v>0.5876675073063249</v>
+        <v>0.640609483098026</v>
       </c>
       <c r="E285">
         <v>0.3309605049334064</v>
@@ -8339,7 +8339,7 @@
         <v>0.9282332862292085</v>
       </c>
       <c r="D286">
-        <v>0.4462018344173606</v>
+        <v>0.4877461239470907</v>
       </c>
       <c r="E286">
         <v>0.2500921574213921</v>
@@ -8365,7 +8365,7 @@
         <v>0.9524126644433339</v>
       </c>
       <c r="D287">
-        <v>0.4291748070458936</v>
+        <v>0.4900725026441426</v>
       </c>
       <c r="E287">
         <v>0.2036499170230907</v>
@@ -8391,7 +8391,7 @@
         <v>0.9693438161724313</v>
       </c>
       <c r="D288">
-        <v>0.4256486606250456</v>
+        <v>0.4702188249442929</v>
       </c>
       <c r="E288">
         <v>0.1634547661963974</v>
@@ -8417,7 +8417,7 @@
         <v>0.9821733228232482</v>
       </c>
       <c r="D289">
-        <v>0.4435933421039187</v>
+        <v>0.4571609088034254</v>
       </c>
       <c r="E289">
         <v>0.124644678829104</v>
@@ -8443,7 +8443,7 @@
         <v>0.9934466801490474</v>
       </c>
       <c r="D290">
-        <v>0.4678065863044898</v>
+        <v>0.4770874377626871</v>
       </c>
       <c r="E290">
         <v>0.07557344598894886</v>
@@ -8469,7 +8469,7 @@
         <v>0.9974833084877657</v>
       </c>
       <c r="D291">
-        <v>0.4540102402034039</v>
+        <v>0.459159666627791</v>
       </c>
       <c r="E291">
         <v>0.04683316786986302</v>
@@ -8495,7 +8495,7 @@
         <v>0.9984339845561948</v>
       </c>
       <c r="D292">
-        <v>0.4520612056482758</v>
+        <v>0.4536039694647988</v>
       </c>
       <c r="E292">
         <v>0.03694337456976032</v>
@@ -8521,7 +8521,7 @@
         <v>0.9987253280847516</v>
       </c>
       <c r="D293">
-        <v>0.4517094746168648</v>
+        <v>0.4536678560365167</v>
       </c>
       <c r="E293">
         <v>0.03333018709302454</v>
@@ -8547,7 +8547,7 @@
         <v>0.9990495777688595</v>
       </c>
       <c r="D294">
-        <v>0.4525735664910029</v>
+        <v>0.4534730791336016</v>
       </c>
       <c r="E294">
         <v>0.02878040069196438</v>
@@ -8573,7 +8573,7 @@
         <v>0.9990920064731896</v>
       </c>
       <c r="D295">
-        <v>0.4527944121775045</v>
+        <v>0.4534015597021285</v>
       </c>
       <c r="E295">
         <v>0.02813065983507347</v>
@@ -8599,7 +8599,7 @@
         <v>0.9991086849166985</v>
       </c>
       <c r="D296">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E296">
         <v>0.0278711039389463</v>
@@ -8625,7 +8625,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D297">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E297">
         <v>0.02786137343906938</v>
@@ -8651,7 +8651,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D298">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E298">
         <v>0.02786137343906938</v>
@@ -8677,7 +8677,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D299">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E299">
         <v>0.02786137343906938</v>
@@ -8703,7 +8703,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D300">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E300">
         <v>0.02786137343906938</v>
@@ -8729,7 +8729,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D301">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E301">
         <v>0.02786137343906938</v>
@@ -8755,7 +8755,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D302">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E302">
         <v>0.02786137343906938</v>
@@ -8781,7 +8781,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D303">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E303">
         <v>0.02786137343906938</v>
@@ -8807,7 +8807,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D304">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E304">
         <v>0.02786137343906938</v>
@@ -8833,7 +8833,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D305">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E305">
         <v>0.02786137343906938</v>
@@ -8859,7 +8859,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D306">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E306">
         <v>0.02786137343906938</v>
@@ -8885,7 +8885,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D307">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E307">
         <v>0.02786137343906938</v>
@@ -8911,7 +8911,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D308">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E308">
         <v>0.02786137343906938</v>
@@ -8937,7 +8937,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D309">
-        <v>0.4523504579054743</v>
+        <v>0.4535358742411683</v>
       </c>
       <c r="E309">
         <v>0.02786137343906938</v>
@@ -8963,7 +8963,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D310">
-        <v>0.3210528233049327</v>
+        <v>0.6191917962641533</v>
       </c>
       <c r="E310">
         <v>0.5242866093546125</v>
@@ -8989,7 +8989,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D311">
-        <v>0.5483213914775481</v>
+        <v>0.6122508105692793</v>
       </c>
       <c r="E311">
         <v>0.4525625562300015</v>
@@ -9015,7 +9015,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D312">
-        <v>0.5853258518080364</v>
+        <v>0.6224078950278275</v>
       </c>
       <c r="E312">
         <v>0.3771185925463492</v>
@@ -9041,7 +9041,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D313">
-        <v>0.5797014512684453</v>
+        <v>0.6381417808812553</v>
       </c>
       <c r="E313">
         <v>0.3309605049334064</v>
@@ -9067,7 +9067,7 @@
         <v>0.9282332862292086</v>
       </c>
       <c r="D314">
-        <v>0.4383258724500425</v>
+        <v>0.4773931179673818</v>
       </c>
       <c r="E314">
         <v>0.2500921574213921</v>
@@ -9093,7 +9093,7 @@
         <v>0.9524126644433339</v>
       </c>
       <c r="D315">
-        <v>0.4448748168595933</v>
+        <v>0.4788862848398451</v>
       </c>
       <c r="E315">
         <v>0.2036499170230907</v>
@@ -9119,7 +9119,7 @@
         <v>0.9693438161724313</v>
       </c>
       <c r="D316">
-        <v>0.4144778773716472</v>
+        <v>0.4600975274729238</v>
       </c>
       <c r="E316">
         <v>0.1634547661963974</v>
@@ -9145,7 +9145,7 @@
         <v>0.9821733228232482</v>
       </c>
       <c r="D317">
-        <v>0.4468555001719478</v>
+        <v>0.4408849028703908</v>
       </c>
       <c r="E317">
         <v>0.124644678829104</v>
@@ -9171,7 +9171,7 @@
         <v>0.9933937295447072</v>
       </c>
       <c r="D318">
-        <v>0.4776095565056533</v>
+        <v>0.4618989505064136</v>
       </c>
       <c r="E318">
         <v>0.07587814718632857</v>
@@ -9197,7 +9197,7 @@
         <v>0.9977740238838009</v>
       </c>
       <c r="D319">
-        <v>0.4938425994258212</v>
+        <v>0.4766203005556581</v>
       </c>
       <c r="E319">
         <v>0.0440452209608887</v>
@@ -9223,7 +9223,7 @@
         <v>0.9986632931812039</v>
       </c>
       <c r="D320">
-        <v>0.4994934785097402</v>
+        <v>0.4793669866532491</v>
       </c>
       <c r="E320">
         <v>0.03413159821817927</v>
@@ -9249,7 +9249,7 @@
         <v>0.99900570120993</v>
       </c>
       <c r="D321">
-        <v>0.5027491719205356</v>
+        <v>0.4793929191762948</v>
       </c>
       <c r="E321">
         <v>0.02943723388284445</v>
@@ -9275,7 +9275,7 @@
         <v>0.9990922376810409</v>
       </c>
       <c r="D322">
-        <v>0.5047942648717387</v>
+        <v>0.4790711602886749</v>
       </c>
       <c r="E322">
         <v>0.0281270780675179</v>
@@ -9301,7 +9301,7 @@
         <v>0.9991022757273403</v>
       </c>
       <c r="D323">
-        <v>0.5024031035106822</v>
+        <v>0.4795092581292996</v>
       </c>
       <c r="E323">
         <v>0.02797113097437755</v>
@@ -9327,7 +9327,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D324">
-        <v>0.5013908371905873</v>
+        <v>0.4795292486734415</v>
       </c>
       <c r="E324">
         <v>0.0278669593469602</v>
@@ -9353,7 +9353,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D325">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E325">
         <v>0.02786137343906938</v>
@@ -9379,7 +9379,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D326">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E326">
         <v>0.02786137343906938</v>
@@ -9405,7 +9405,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D327">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E327">
         <v>0.02786137343906938</v>
@@ -9431,7 +9431,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D328">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E328">
         <v>0.02786137343906938</v>
@@ -9457,7 +9457,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D329">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E329">
         <v>0.02786137343906938</v>
@@ -9483,7 +9483,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D330">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E330">
         <v>0.02786137343906938</v>
@@ -9509,7 +9509,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D331">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E331">
         <v>0.02786137343906938</v>
@@ -9535,7 +9535,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D332">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E332">
         <v>0.02786137343906938</v>
@@ -9561,7 +9561,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D333">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E333">
         <v>0.02786137343906938</v>
@@ -9587,7 +9587,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D334">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E334">
         <v>0.02786137343906938</v>
@@ -9613,7 +9613,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D335">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E335">
         <v>0.02786137343906938</v>
@@ -9639,7 +9639,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D336">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E336">
         <v>0.02786137343906938</v>
@@ -9665,7 +9665,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D337">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E337">
         <v>0.02786137343906938</v>
@@ -9691,7 +9691,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D338">
-        <v>0.3210528233049327</v>
+        <v>0.6191917962641533</v>
       </c>
       <c r="E338">
         <v>0.5242866093546125</v>
@@ -9717,7 +9717,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D339">
-        <v>0.5483213914775481</v>
+        <v>0.6122508105692793</v>
       </c>
       <c r="E339">
         <v>0.4525625562300015</v>
@@ -9743,7 +9743,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D340">
-        <v>0.5853258518080364</v>
+        <v>0.6224078950278275</v>
       </c>
       <c r="E340">
         <v>0.3771185925463492</v>
@@ -9769,7 +9769,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D341">
-        <v>0.5797014512684453</v>
+        <v>0.6381417808812553</v>
       </c>
       <c r="E341">
         <v>0.3309605049334064</v>
@@ -9795,7 +9795,7 @@
         <v>0.9282332862292086</v>
       </c>
       <c r="D342">
-        <v>0.4383258724500425</v>
+        <v>0.4773931179673818</v>
       </c>
       <c r="E342">
         <v>0.2500921574213921</v>
@@ -9821,7 +9821,7 @@
         <v>0.9524126644433339</v>
       </c>
       <c r="D343">
-        <v>0.4448748168595933</v>
+        <v>0.4788862848398451</v>
       </c>
       <c r="E343">
         <v>0.2036499170230907</v>
@@ -9847,7 +9847,7 @@
         <v>0.9693438161724313</v>
       </c>
       <c r="D344">
-        <v>0.4144778773716472</v>
+        <v>0.4600975274729238</v>
       </c>
       <c r="E344">
         <v>0.1634547661963974</v>
@@ -9873,7 +9873,7 @@
         <v>0.9821733228232482</v>
       </c>
       <c r="D345">
-        <v>0.4468555001719478</v>
+        <v>0.4408849028703908</v>
       </c>
       <c r="E345">
         <v>0.124644678829104</v>
@@ -9899,7 +9899,7 @@
         <v>0.9933937295447072</v>
       </c>
       <c r="D346">
-        <v>0.4776095565056533</v>
+        <v>0.4618989505064136</v>
       </c>
       <c r="E346">
         <v>0.07587814718632857</v>
@@ -9925,7 +9925,7 @@
         <v>0.9977740238838009</v>
       </c>
       <c r="D347">
-        <v>0.4938425994258212</v>
+        <v>0.4766203005556581</v>
       </c>
       <c r="E347">
         <v>0.0440452209608887</v>
@@ -9951,7 +9951,7 @@
         <v>0.9986632931812039</v>
       </c>
       <c r="D348">
-        <v>0.4994934785097402</v>
+        <v>0.4793669866532491</v>
       </c>
       <c r="E348">
         <v>0.03413159821817927</v>
@@ -9977,7 +9977,7 @@
         <v>0.99900570120993</v>
       </c>
       <c r="D349">
-        <v>0.5027491719205356</v>
+        <v>0.4793929191762948</v>
       </c>
       <c r="E349">
         <v>0.02943723388284445</v>
@@ -10003,7 +10003,7 @@
         <v>0.9990922376810409</v>
       </c>
       <c r="D350">
-        <v>0.5047942648717387</v>
+        <v>0.4790711602886749</v>
       </c>
       <c r="E350">
         <v>0.0281270780675179</v>
@@ -10029,7 +10029,7 @@
         <v>0.9991022757273403</v>
       </c>
       <c r="D351">
-        <v>0.5024031035106822</v>
+        <v>0.4795092581292996</v>
       </c>
       <c r="E351">
         <v>0.02797113097437755</v>
@@ -10055,7 +10055,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D352">
-        <v>0.5013908371905873</v>
+        <v>0.4795292486734415</v>
       </c>
       <c r="E352">
         <v>0.0278669593469602</v>
@@ -10081,7 +10081,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D353">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E353">
         <v>0.02786137343906938</v>
@@ -10107,7 +10107,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D354">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E354">
         <v>0.02786137343906938</v>
@@ -10133,7 +10133,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D355">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E355">
         <v>0.02786137343906938</v>
@@ -10159,7 +10159,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D356">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E356">
         <v>0.02786137343906938</v>
@@ -10185,7 +10185,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D357">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E357">
         <v>0.02786137343906938</v>
@@ -10211,7 +10211,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D358">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E358">
         <v>0.02786137343906938</v>
@@ -10237,7 +10237,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D359">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E359">
         <v>0.02786137343906938</v>
@@ -10263,7 +10263,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D360">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E360">
         <v>0.02786137343906938</v>
@@ -10289,7 +10289,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D361">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E361">
         <v>0.02786137343906938</v>
@@ -10315,7 +10315,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D362">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E362">
         <v>0.02786137343906938</v>
@@ -10341,7 +10341,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D363">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E363">
         <v>0.02786137343906938</v>
@@ -10367,7 +10367,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D364">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E364">
         <v>0.02786137343906938</v>
@@ -10393,7 +10393,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D365">
-        <v>0.5012003915758647</v>
+        <v>0.4795857171845578</v>
       </c>
       <c r="E365">
         <v>0.02786137343906938</v>
@@ -10419,7 +10419,7 @@
         <v>0.6846009030840453</v>
       </c>
       <c r="D366">
-        <v>0.3210528233049327</v>
+        <v>0.6191917962641532</v>
       </c>
       <c r="E366">
         <v>0.5242866093546125</v>
@@ -10445,7 +10445,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D367">
-        <v>0.4873797015882401</v>
+        <v>0.6386712504008025</v>
       </c>
       <c r="E367">
         <v>0.4525625562300015</v>
@@ -10471,7 +10471,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D368">
-        <v>0.5947007775001261</v>
+        <v>0.6237217832322901</v>
       </c>
       <c r="E368">
         <v>0.3771185925463492</v>
@@ -10497,7 +10497,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D369">
-        <v>0.5876675073063249</v>
+        <v>0.640609483098026</v>
       </c>
       <c r="E369">
         <v>0.3309605049334064</v>
@@ -10523,7 +10523,7 @@
         <v>0.9282332862292086</v>
       </c>
       <c r="D370">
-        <v>0.4310801864231786</v>
+        <v>0.4737588569629583</v>
       </c>
       <c r="E370">
         <v>0.2500921574213921</v>
@@ -10549,7 +10549,7 @@
         <v>0.9524126644433339</v>
       </c>
       <c r="D371">
-        <v>0.4377231714049317</v>
+        <v>0.4806082127799161</v>
       </c>
       <c r="E371">
         <v>0.2036499170230907</v>
@@ -10575,7 +10575,7 @@
         <v>0.9693438161724313</v>
       </c>
       <c r="D372">
-        <v>0.4078451353638303</v>
+        <v>0.4619001889105331</v>
       </c>
       <c r="E372">
         <v>0.1634547661963974</v>
@@ -10601,7 +10601,7 @@
         <v>0.9821733228232482</v>
       </c>
       <c r="D373">
-        <v>0.3384222316057582</v>
+        <v>0.5198332542621604</v>
       </c>
       <c r="E373">
         <v>0.124644678829104</v>
@@ -10627,7 +10627,7 @@
         <v>0.9933937295447072</v>
       </c>
       <c r="D374">
-        <v>0.411022889622123</v>
+        <v>0.5459109993195815</v>
       </c>
       <c r="E374">
         <v>0.07587814718632857</v>
@@ -10653,7 +10653,7 @@
         <v>0.9973129335969885</v>
       </c>
       <c r="D375">
-        <v>0.3684081078918854</v>
+        <v>0.5277621363425682</v>
       </c>
       <c r="E375">
         <v>0.04839246474936884</v>
@@ -10679,7 +10679,7 @@
         <v>0.9986728620409642</v>
       </c>
       <c r="D376">
-        <v>0.3771118962913591</v>
+        <v>0.5305292622463804</v>
       </c>
       <c r="E376">
         <v>0.03400921271498672</v>
@@ -10705,7 +10705,7 @@
         <v>0.9990089254127908</v>
       </c>
       <c r="D377">
-        <v>0.382768563325133</v>
+        <v>0.5305506397336851</v>
       </c>
       <c r="E377">
         <v>0.02938946721457153</v>
@@ -10731,7 +10731,7 @@
         <v>0.9990922376810409</v>
       </c>
       <c r="D378">
-        <v>0.3842505112437405</v>
+        <v>0.5307217002774262</v>
       </c>
       <c r="E378">
         <v>0.0281270780675179</v>
@@ -10757,7 +10757,7 @@
         <v>0.9991022757273403</v>
       </c>
       <c r="D379">
-        <v>0.3862326866693397</v>
+        <v>0.5302477033982693</v>
       </c>
       <c r="E379">
         <v>0.02797113097437755</v>
@@ -10783,7 +10783,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D380">
-        <v>0.3800433586327191</v>
+        <v>0.5306086706817545</v>
       </c>
       <c r="E380">
         <v>0.0278669593469602</v>
@@ -10809,7 +10809,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D381">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E381">
         <v>0.02786137343906938</v>
@@ -10835,7 +10835,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D382">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E382">
         <v>0.02786137343906938</v>
@@ -10861,7 +10861,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D383">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E383">
         <v>0.02786137343906938</v>
@@ -10887,7 +10887,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D384">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E384">
         <v>0.02786137343906938</v>
@@ -10913,7 +10913,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D385">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E385">
         <v>0.02786137343906938</v>
@@ -10939,7 +10939,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D386">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E386">
         <v>0.02786137343906938</v>
@@ -10965,7 +10965,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D387">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E387">
         <v>0.02786137343906938</v>
@@ -10991,7 +10991,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D388">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E388">
         <v>0.02786137343906938</v>
@@ -11017,7 +11017,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D389">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E389">
         <v>0.02786137343906938</v>
@@ -11043,7 +11043,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D390">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E390">
         <v>0.02786137343906938</v>
@@ -11069,7 +11069,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D391">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E391">
         <v>0.02786137343906938</v>
@@ -11095,7 +11095,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D392">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E392">
         <v>0.02786137343906938</v>
@@ -11121,7 +11121,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D393">
-        <v>0.3838210181593432</v>
+        <v>0.5307696473844531</v>
       </c>
       <c r="E393">
         <v>0.02786137343906938</v>
@@ -11147,7 +11147,7 @@
         <v>0.6846009030840454</v>
       </c>
       <c r="D394">
-        <v>0.3210528233049305</v>
+        <v>0.6191917962641529</v>
       </c>
       <c r="E394">
         <v>0.5242866093546124</v>
@@ -11173,7 +11173,7 @@
         <v>0.7649933500023848</v>
       </c>
       <c r="D395">
-        <v>0.5483213914775485</v>
+        <v>0.6122508105692797</v>
       </c>
       <c r="E395">
         <v>0.4525625562300015</v>
@@ -11199,7 +11199,7 @@
         <v>0.836815538442598</v>
       </c>
       <c r="D396">
-        <v>0.5947007775001267</v>
+        <v>0.6237217832322903</v>
       </c>
       <c r="E396">
         <v>0.3771185925463492</v>
@@ -11225,7 +11225,7 @@
         <v>0.8743173714388642</v>
       </c>
       <c r="D397">
-        <v>0.6016273430705367</v>
+        <v>0.6427009344273467</v>
       </c>
       <c r="E397">
         <v>0.3309605049334064</v>
@@ -11251,7 +11251,7 @@
         <v>0.92294317975675</v>
       </c>
       <c r="D398">
-        <v>0.4079425356652612</v>
+        <v>0.4644177636476885</v>
       </c>
       <c r="E398">
         <v>0.2591457464601168</v>
@@ -11277,7 +11277,7 @@
         <v>0.9502773166540551</v>
       </c>
       <c r="D399">
-        <v>0.446329391375399</v>
+        <v>0.4868940798739749</v>
       </c>
       <c r="E399">
         <v>0.2081688877882744</v>
@@ -11303,7 +11303,7 @@
         <v>0.9709868007837331</v>
       </c>
       <c r="D400">
-        <v>0.4201208216167664</v>
+        <v>0.4658726161085472</v>
       </c>
       <c r="E400">
         <v>0.159014362687409</v>
@@ -11329,7 +11329,7 @@
         <v>0.9822017059341301</v>
       </c>
       <c r="D401">
-        <v>0.4373665936436095</v>
+        <v>0.4311289137094926</v>
       </c>
       <c r="E401">
         <v>0.124545411505646</v>
@@ -11355,7 +11355,7 @@
         <v>0.9933959798848528</v>
       </c>
       <c r="D402">
-        <v>0.4543469204896321</v>
+        <v>0.4356901514863751</v>
       </c>
       <c r="E402">
         <v>0.07586522263339784</v>
@@ -11381,7 +11381,7 @@
         <v>0.9973130067322087</v>
       </c>
       <c r="D403">
-        <v>0.4573515058666683</v>
+        <v>0.4443893682043264</v>
       </c>
       <c r="E403">
         <v>0.04839180618401902</v>
@@ -11407,7 +11407,7 @@
         <v>0.9987440174664577</v>
       </c>
       <c r="D404">
-        <v>0.4538083604175708</v>
+        <v>0.440188155165727</v>
       </c>
       <c r="E404">
         <v>0.0330849393518445</v>
@@ -11433,7 +11433,7 @@
         <v>0.9990403589332986</v>
       </c>
       <c r="D405">
-        <v>0.4577960522392608</v>
+        <v>0.4402095326530316</v>
       </c>
       <c r="E405">
         <v>0.02891964485475212</v>
@@ -11459,7 +11459,7 @@
         <v>0.9990923207393974</v>
       </c>
       <c r="D406">
-        <v>0.4566523504075514</v>
+        <v>0.4402859795419535</v>
       </c>
       <c r="E406">
         <v>0.02812579125363096</v>
@@ -11485,7 +11485,7 @@
         <v>0.9991022757273403</v>
       </c>
       <c r="D407">
-        <v>0.4602129128627932</v>
+        <v>0.4399065963176159</v>
       </c>
       <c r="E407">
         <v>0.02797113097437755</v>
@@ -11511,7 +11511,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D408">
-        <v>0.4587908096971246</v>
+        <v>0.4403874231604326</v>
       </c>
       <c r="E408">
         <v>0.0278669593469602</v>
@@ -11537,7 +11537,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D409">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E409">
         <v>0.02786137343906938</v>
@@ -11563,7 +11563,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D410">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E410">
         <v>0.02786137343906938</v>
@@ -11589,7 +11589,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D411">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E411">
         <v>0.02786137343906938</v>
@@ -11615,7 +11615,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D412">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E412">
         <v>0.02786137343906938</v>
@@ -11641,7 +11641,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D413">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E413">
         <v>0.02786137343906938</v>
@@ -11667,7 +11667,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D414">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E414">
         <v>0.02786137343906938</v>
@@ -11693,7 +11693,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D415">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E415">
         <v>0.02786137343906938</v>
@@ -11719,7 +11719,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D416">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E416">
         <v>0.02786137343906938</v>
@@ -11745,7 +11745,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D417">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E417">
         <v>0.02786137343906938</v>
@@ -11771,7 +11771,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D418">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E418">
         <v>0.02786137343906938</v>
@@ -11797,7 +11797,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D419">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E419">
         <v>0.02786137343906938</v>
@@ -11823,7 +11823,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D420">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E420">
         <v>0.02786137343906938</v>
@@ -11849,7 +11849,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D421">
-        <v>0.4562246082547996</v>
+        <v>0.4403180694808991</v>
       </c>
       <c r="E421">
         <v>0.02786137343906938</v>
@@ -11875,7 +11875,7 @@
         <v>0.6761061798504212</v>
       </c>
       <c r="D422">
-        <v>0.3857849351441327</v>
+        <v>0.6365080844709478</v>
       </c>
       <c r="E422">
         <v>0.531300070867053</v>
@@ -11901,7 +11901,7 @@
         <v>0.7791614108757774</v>
       </c>
       <c r="D423">
-        <v>0.5360093664824429</v>
+        <v>0.6163267908079109</v>
       </c>
       <c r="E423">
         <v>0.4387084756695089</v>
@@ -11927,7 +11927,7 @@
         <v>0.8757473201329077</v>
       </c>
       <c r="D424">
-        <v>0.620427975024979</v>
+        <v>0.6036782028727461</v>
       </c>
       <c r="E424">
         <v>0.3290723745935519</v>
@@ -11953,7 +11953,7 @@
         <v>0.9131348374607086</v>
       </c>
       <c r="D425">
-        <v>0.7042996953324197</v>
+        <v>0.6882228298409713</v>
       </c>
       <c r="E425">
         <v>0.2751448328267203</v>
@@ -11979,7 +11979,7 @@
         <v>0.9374284120188341</v>
       </c>
       <c r="D426">
-        <v>0.7033193883564474</v>
+        <v>0.681336928230978</v>
       </c>
       <c r="E426">
         <v>0.2335216396732708</v>
@@ -12005,7 +12005,7 @@
         <v>0.96198480534679</v>
       </c>
       <c r="D427">
-        <v>0.5876568944071818</v>
+        <v>0.5318522651699502</v>
       </c>
       <c r="E427">
         <v>0.1820191794546615</v>
@@ -12031,7 +12031,7 @@
         <v>0.975643650833613</v>
       </c>
       <c r="D428">
-        <v>0.6313655231808684</v>
+        <v>0.5649028691864311</v>
       </c>
       <c r="E428">
         <v>0.1456949969212066</v>
@@ -12057,7 +12057,7 @@
         <v>0.9822201996478321</v>
       </c>
       <c r="D429">
-        <v>0.6051440349759187</v>
+        <v>0.5104825086062109</v>
       </c>
       <c r="E429">
         <v>0.1244806888470738</v>
@@ -12083,7 +12083,7 @@
         <v>0.9908430114375791</v>
       </c>
       <c r="D430">
-        <v>0.6060567257585205</v>
+        <v>0.5057910443321951</v>
       </c>
       <c r="E430">
         <v>0.08933360886341445</v>
@@ -12109,7 +12109,7 @@
         <v>0.9982760065245685</v>
       </c>
       <c r="D431">
-        <v>0.6047637739351422</v>
+        <v>0.5071561542384797</v>
       </c>
       <c r="E431">
         <v>0.03876201558839118</v>
@@ -12135,7 +12135,7 @@
         <v>0.9988197101508679</v>
       </c>
       <c r="D432">
-        <v>0.6037513351697934</v>
+        <v>0.5078858467849021</v>
       </c>
       <c r="E432">
         <v>0.03207250481211673</v>
@@ -12161,7 +12161,7 @@
         <v>0.9990103920848615</v>
       </c>
       <c r="D433">
-        <v>0.6030834067227628</v>
+        <v>0.502510347709533</v>
       </c>
       <c r="E433">
         <v>0.02936771271165066</v>
@@ -12187,7 +12187,7 @@
         <v>0.9990962661045074</v>
       </c>
       <c r="D434">
-        <v>0.6046294069633773</v>
+        <v>0.507673102273609</v>
       </c>
       <c r="E434">
         <v>0.02806459818340876</v>
@@ -12213,7 +12213,7 @@
         <v>0.9991028673047577</v>
       </c>
       <c r="D435">
-        <v>0.6045840757493051</v>
+        <v>0.5077002118159097</v>
       </c>
       <c r="E435">
         <v>0.02796191332434193</v>
@@ -12239,7 +12239,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D436">
-        <v>0.6044560712094447</v>
+        <v>0.5077413289592767</v>
       </c>
       <c r="E436">
         <v>0.0278669593469602</v>
@@ -12265,7 +12265,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D437">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E437">
         <v>0.02786137343906938</v>
@@ -12291,7 +12291,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D438">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E438">
         <v>0.02786137343906938</v>
@@ -12317,7 +12317,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D439">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E439">
         <v>0.02786137343906938</v>
@@ -12343,7 +12343,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D440">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E440">
         <v>0.02786137343906938</v>
@@ -12369,7 +12369,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D441">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E441">
         <v>0.02786137343906938</v>
@@ -12395,7 +12395,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D442">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E442">
         <v>0.02786137343906938</v>
@@ -12421,7 +12421,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D443">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E443">
         <v>0.02786137343906938</v>
@@ -12447,7 +12447,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D444">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E444">
         <v>0.02786137343906938</v>
@@ -12473,7 +12473,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D445">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E445">
         <v>0.02786137343906938</v>
@@ -12499,7 +12499,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D446">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E446">
         <v>0.02786137343906938</v>
@@ -12525,7 +12525,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D447">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E447">
         <v>0.02786137343906938</v>
@@ -12551,7 +12551,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D448">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E448">
         <v>0.02786137343906938</v>
@@ -12577,7 +12577,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D449">
-        <v>0.6038409099096658</v>
+        <v>0.5024628437026122</v>
       </c>
       <c r="E449">
         <v>0.02786137343906938</v>
@@ -12603,7 +12603,7 @@
         <v>0.6761061798504212</v>
       </c>
       <c r="D450">
-        <v>0.3857849351441335</v>
+        <v>0.6365080844709479</v>
       </c>
       <c r="E450">
         <v>0.531300070867053</v>
@@ -12629,7 +12629,7 @@
         <v>0.7791614108757774</v>
       </c>
       <c r="D451">
-        <v>0.5360093664824436</v>
+        <v>0.6163267908079106</v>
       </c>
       <c r="E451">
         <v>0.438708475669509</v>
@@ -12655,7 +12655,7 @@
         <v>0.8645685755029711</v>
       </c>
       <c r="D452">
-        <v>0.6002825505410196</v>
+        <v>0.6198412550091497</v>
       </c>
       <c r="E452">
         <v>0.3435565763267553</v>
@@ -12681,7 +12681,7 @@
         <v>0.9108689868536753</v>
       </c>
       <c r="D453">
-        <v>0.2574773140899215</v>
+        <v>0.546369725974065</v>
       </c>
       <c r="E453">
         <v>0.2787102651773328</v>
@@ -12707,7 +12707,7 @@
         <v>0.937451820362398</v>
       </c>
       <c r="D454">
-        <v>0.4416238234285866</v>
+        <v>0.5668921131204885</v>
       </c>
       <c r="E454">
         <v>0.2334779547813672</v>
@@ -12733,7 +12733,7 @@
         <v>0.9619660001805597</v>
       </c>
       <c r="D455">
-        <v>0.7117677351412133</v>
+        <v>0.6538617485140703</v>
       </c>
       <c r="E455">
         <v>0.1820641940568063</v>
@@ -12759,7 +12759,7 @@
         <v>0.9739028113556231</v>
       </c>
       <c r="D456">
-        <v>0.5760475762779984</v>
+        <v>0.5945243872555206</v>
       </c>
       <c r="E456">
         <v>0.1508118284462386</v>
@@ -12785,7 +12785,7 @@
         <v>0.9833458464927164</v>
       </c>
       <c r="D457">
-        <v>0.6693081905300313</v>
+        <v>0.6333135464503682</v>
       </c>
       <c r="E457">
         <v>0.1204758016040894</v>
@@ -12811,7 +12811,7 @@
         <v>0.9952885631017506</v>
       </c>
       <c r="D458">
-        <v>0.6582750171252634</v>
+        <v>0.605075151520427</v>
       </c>
       <c r="E458">
         <v>0.06407892721715164</v>
@@ -12837,7 +12837,7 @@
         <v>0.9977285761627487</v>
       </c>
       <c r="D459">
-        <v>0.6342680880745718</v>
+        <v>0.6000085676949642</v>
       </c>
       <c r="E459">
         <v>0.04449258435438653</v>
@@ -12863,7 +12863,7 @@
         <v>0.9983465307428129</v>
       </c>
       <c r="D460">
-        <v>0.62391715752508</v>
+        <v>0.5692885609477423</v>
       </c>
       <c r="E460">
         <v>0.03796090916052745</v>
@@ -12889,7 +12889,7 @@
         <v>0.9988952365595799</v>
       </c>
       <c r="D461">
-        <v>0.6249828408421001</v>
+        <v>0.5709369727386875</v>
       </c>
       <c r="E461">
         <v>0.03102938656237069</v>
@@ -12915,7 +12915,7 @@
         <v>0.9991091747272858</v>
       </c>
       <c r="D462">
-        <v>0.6240966303844075</v>
+        <v>0.5728558700107731</v>
       </c>
       <c r="E462">
         <v>0.02786344478559599</v>
@@ -12941,7 +12941,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D463">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E463">
         <v>0.02786137343906938</v>
@@ -12967,7 +12967,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D464">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E464">
         <v>0.02786137343906938</v>
@@ -12993,7 +12993,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D465">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E465">
         <v>0.02786137343906938</v>
@@ -13019,7 +13019,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D466">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E466">
         <v>0.02786137343906938</v>
@@ -13045,7 +13045,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D467">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E467">
         <v>0.02786137343906938</v>
@@ -13071,7 +13071,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D468">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E468">
         <v>0.02786137343906938</v>
@@ -13097,7 +13097,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D469">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E469">
         <v>0.02786137343906938</v>
@@ -13123,7 +13123,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D470">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E470">
         <v>0.02786137343906938</v>
@@ -13149,7 +13149,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D471">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E471">
         <v>0.02786137343906938</v>
@@ -13175,7 +13175,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D472">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E472">
         <v>0.02786137343906938</v>
@@ -13201,7 +13201,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D473">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E473">
         <v>0.02786137343906938</v>
@@ -13227,7 +13227,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D474">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E474">
         <v>0.02786137343906938</v>
@@ -13253,7 +13253,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D475">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E475">
         <v>0.02786137343906938</v>
@@ -13279,7 +13279,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D476">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E476">
         <v>0.02786137343906938</v>
@@ -13305,7 +13305,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D477">
-        <v>0.6337931622780452</v>
+        <v>0.6033549683406843</v>
       </c>
       <c r="E477">
         <v>0.02786137343906938</v>
@@ -13331,7 +13331,7 @@
         <v>0.6665999436312908</v>
       </c>
       <c r="D478">
-        <v>0.3925026810220157</v>
+        <v>0.6638663105689042</v>
       </c>
       <c r="E478">
         <v>0.5390404763123053</v>
@@ -13357,7 +13357,7 @@
         <v>0.7428607142376713</v>
       </c>
       <c r="D479">
-        <v>0.5826762948457072</v>
+        <v>0.6955540528762227</v>
       </c>
       <c r="E479">
         <v>0.4733940113051053</v>
@@ -13383,7 +13383,7 @@
         <v>0.8466334342142815</v>
       </c>
       <c r="D480">
-        <v>0.6995217390376133</v>
+        <v>0.7153113378079368</v>
       </c>
       <c r="E480">
         <v>0.365598065751709</v>
@@ -13409,7 +13409,7 @@
         <v>0.9133233269283261</v>
       </c>
       <c r="D481">
-        <v>0.3541530060736241</v>
+        <v>0.4511327118987092</v>
       </c>
       <c r="E481">
         <v>0.2748461511342915</v>
@@ -13435,7 +13435,7 @@
         <v>0.9463237402252345</v>
       </c>
       <c r="D482">
-        <v>0.5305038534127298</v>
+        <v>0.4609450381443</v>
       </c>
       <c r="E482">
         <v>0.2162866260630879</v>
@@ -13461,7 +13461,7 @@
         <v>0.9674618705910446</v>
       </c>
       <c r="D483">
-        <v>0.323283809900995</v>
+        <v>0.3655444402936611</v>
       </c>
       <c r="E483">
         <v>0.1683971875594719</v>
@@ -13487,7 +13487,7 @@
         <v>0.9776201583508959</v>
       </c>
       <c r="D484">
-        <v>0.560073258162915</v>
+        <v>0.5050769567823565</v>
       </c>
       <c r="E484">
         <v>0.1396583952918848</v>
@@ -13513,7 +13513,7 @@
         <v>0.9865116573822732</v>
       </c>
       <c r="D485">
-        <v>0.5942656815659744</v>
+        <v>0.5166136846222864</v>
       </c>
       <c r="E485">
         <v>0.1084221056523572</v>
@@ -13539,7 +13539,7 @@
         <v>0.9966603535432463</v>
       </c>
       <c r="D486">
-        <v>0.6012624588252112</v>
+        <v>0.5169168103983623</v>
       </c>
       <c r="E486">
         <v>0.05394966966231488</v>
@@ -13565,7 +13565,7 @@
         <v>0.9985256854229795</v>
       </c>
       <c r="D487">
-        <v>0.5984365893278738</v>
+        <v>0.5182192491234721</v>
       </c>
       <c r="E487">
         <v>0.03584541581913207</v>
@@ -13591,7 +13591,7 @@
         <v>0.9990687853392587</v>
       </c>
       <c r="D488">
-        <v>0.586628763277061</v>
+        <v>0.5223030987428749</v>
       </c>
       <c r="E488">
         <v>0.02848809738684333</v>
@@ -13617,7 +13617,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D489">
-        <v>0.5969316683369683</v>
+        <v>0.5275826065319227</v>
       </c>
       <c r="E489">
         <v>0.0278669593469602</v>
@@ -13643,7 +13643,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D490">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E490">
         <v>0.02786137343906938</v>
@@ -13669,7 +13669,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D491">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E491">
         <v>0.02786137343906938</v>
@@ -13695,7 +13695,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D492">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E492">
         <v>0.02786137343906938</v>
@@ -13721,7 +13721,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D493">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E493">
         <v>0.02786137343906938</v>
@@ -13747,7 +13747,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D494">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E494">
         <v>0.02786137343906938</v>
@@ -13773,7 +13773,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D495">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E495">
         <v>0.02786137343906938</v>
@@ -13799,7 +13799,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D496">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E496">
         <v>0.02786137343906938</v>
@@ -13825,7 +13825,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D497">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E497">
         <v>0.02786137343906938</v>
@@ -13851,7 +13851,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D498">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E498">
         <v>0.02786137343906938</v>
@@ -13877,7 +13877,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D499">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E499">
         <v>0.02786137343906938</v>
@@ -13903,7 +13903,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D500">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E500">
         <v>0.02786137343906938</v>
@@ -13929,7 +13929,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D501">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E501">
         <v>0.02786137343906938</v>
@@ -13955,7 +13955,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D502">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E502">
         <v>0.02786137343906938</v>
@@ -13981,7 +13981,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D503">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E503">
         <v>0.02786137343906938</v>
@@ -14007,7 +14007,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D504">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E504">
         <v>0.02786137343906938</v>
@@ -14033,7 +14033,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D505">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E505">
         <v>0.02786137343906938</v>
@@ -14059,7 +14059,7 @@
         <v>0.6665999436312908</v>
       </c>
       <c r="D506">
-        <v>0.3925026810220157</v>
+        <v>0.6638663105689042</v>
       </c>
       <c r="E506">
         <v>0.5390404763123053</v>
@@ -14085,7 +14085,7 @@
         <v>0.7428607142376713</v>
       </c>
       <c r="D507">
-        <v>0.5826762948457072</v>
+        <v>0.6955540528762227</v>
       </c>
       <c r="E507">
         <v>0.4733940113051053</v>
@@ -14111,7 +14111,7 @@
         <v>0.8466334342142815</v>
       </c>
       <c r="D508">
-        <v>0.6995217390376133</v>
+        <v>0.7153113378079368</v>
       </c>
       <c r="E508">
         <v>0.365598065751709</v>
@@ -14137,7 +14137,7 @@
         <v>0.9133233269283261</v>
       </c>
       <c r="D509">
-        <v>0.3541530060736241</v>
+        <v>0.4511327118987092</v>
       </c>
       <c r="E509">
         <v>0.2748461511342915</v>
@@ -14163,7 +14163,7 @@
         <v>0.9463237402252345</v>
       </c>
       <c r="D510">
-        <v>0.5305038534127298</v>
+        <v>0.4609450381443</v>
       </c>
       <c r="E510">
         <v>0.2162866260630879</v>
@@ -14189,7 +14189,7 @@
         <v>0.9674618705910446</v>
       </c>
       <c r="D511">
-        <v>0.323283809900995</v>
+        <v>0.3655444402936611</v>
       </c>
       <c r="E511">
         <v>0.1683971875594719</v>
@@ -14215,7 +14215,7 @@
         <v>0.9776201583508959</v>
       </c>
       <c r="D512">
-        <v>0.560073258162915</v>
+        <v>0.5050769567823565</v>
       </c>
       <c r="E512">
         <v>0.1396583952918848</v>
@@ -14241,7 +14241,7 @@
         <v>0.9865116573822732</v>
       </c>
       <c r="D513">
-        <v>0.5942656815659744</v>
+        <v>0.5166136846222864</v>
       </c>
       <c r="E513">
         <v>0.1084221056523572</v>
@@ -14267,7 +14267,7 @@
         <v>0.9966603535432463</v>
       </c>
       <c r="D514">
-        <v>0.6012624588252112</v>
+        <v>0.5169168103983623</v>
       </c>
       <c r="E514">
         <v>0.05394966966231488</v>
@@ -14293,7 +14293,7 @@
         <v>0.9985256854229795</v>
       </c>
       <c r="D515">
-        <v>0.5984365893278738</v>
+        <v>0.5182192491234721</v>
       </c>
       <c r="E515">
         <v>0.03584541581913207</v>
@@ -14319,7 +14319,7 @@
         <v>0.9990687853392587</v>
       </c>
       <c r="D516">
-        <v>0.586628763277061</v>
+        <v>0.5223030987428749</v>
       </c>
       <c r="E516">
         <v>0.02848809738684333</v>
@@ -14345,7 +14345,7 @@
         <v>0.999108949984253</v>
       </c>
       <c r="D517">
-        <v>0.5969316683369683</v>
+        <v>0.5275826065319227</v>
       </c>
       <c r="E517">
         <v>0.0278669593469602</v>
@@ -14371,7 +14371,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D518">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E518">
         <v>0.02786137343906938</v>
@@ -14397,7 +14397,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D519">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E519">
         <v>0.02786137343906938</v>
@@ -14423,7 +14423,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D520">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E520">
         <v>0.02786137343906938</v>
@@ -14449,7 +14449,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D521">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E521">
         <v>0.02786137343906938</v>
@@ -14475,7 +14475,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D522">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E522">
         <v>0.02786137343906938</v>
@@ -14501,7 +14501,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D523">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E523">
         <v>0.02786137343906938</v>
@@ -14527,7 +14527,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D524">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E524">
         <v>0.02786137343906938</v>
@@ -14553,7 +14553,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D525">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E525">
         <v>0.02786137343906938</v>
@@ -14579,7 +14579,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D526">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E526">
         <v>0.02786137343906938</v>
@@ -14605,7 +14605,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D527">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E527">
         <v>0.02786137343906938</v>
@@ -14631,7 +14631,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D528">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E528">
         <v>0.02786137343906938</v>
@@ -14657,7 +14657,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D529">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E529">
         <v>0.02786137343906938</v>
@@ -14683,7 +14683,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D530">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E530">
         <v>0.02786137343906938</v>
@@ -14709,7 +14709,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D531">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E531">
         <v>0.02786137343906938</v>
@@ -14735,7 +14735,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D532">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E532">
         <v>0.02786137343906938</v>
@@ -14761,7 +14761,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D533">
-        <v>0.5918541681853631</v>
+        <v>0.526037830111428</v>
       </c>
       <c r="E533">
         <v>0.02786137343906938</v>
@@ -14787,7 +14787,7 @@
         <v>0.6064610998650093</v>
       </c>
       <c r="D534">
-        <v>-0.2437833231639797</v>
+        <v>0.4782380625265805</v>
       </c>
       <c r="E534">
         <v>0.5856422179016105</v>
@@ -14813,7 +14813,7 @@
         <v>0.723647043640931</v>
       </c>
       <c r="D535">
-        <v>-0.7045349737307203</v>
+        <v>0.2426903573400859</v>
       </c>
       <c r="E535">
         <v>0.4907616301709952</v>
@@ -14839,7 +14839,7 @@
         <v>0.7814280626242915</v>
       </c>
       <c r="D536">
-        <v>-0.3267114227841097</v>
+        <v>0.252541837028725</v>
       </c>
       <c r="E536">
         <v>0.436451252180473</v>
@@ -14865,7 +14865,7 @@
         <v>0.8190142612275166</v>
       </c>
       <c r="D537">
-        <v>-0.1513856724650662</v>
+        <v>0.3115517628158053</v>
       </c>
       <c r="E537">
         <v>0.3971556272342396</v>
@@ -14891,7 +14891,7 @@
         <v>0.8479633122942722</v>
       </c>
       <c r="D538">
-        <v>-0.229396181148144</v>
+        <v>0.2435108168477894</v>
       </c>
       <c r="E538">
         <v>0.3640095205666729</v>
@@ -14917,7 +14917,7 @@
         <v>0.8896271090479989</v>
       </c>
       <c r="D539">
-        <v>-0.2282482918751014</v>
+        <v>0.2055388185883028</v>
       </c>
       <c r="E539">
         <v>0.3101485477366988</v>
@@ -14943,7 +14943,7 @@
         <v>0.924814604139637</v>
       </c>
       <c r="D540">
-        <v>-0.2282033421756982</v>
+        <v>0.1312891568416115</v>
       </c>
       <c r="E540">
         <v>0.2559795600275974</v>
@@ -14969,7 +14969,7 @@
         <v>0.9545009623575772</v>
       </c>
       <c r="D541">
-        <v>-0.1566644242190676</v>
+        <v>0.1520368354257631</v>
       </c>
       <c r="E541">
         <v>0.1991313547521328</v>
@@ -14995,7 +14995,7 @@
         <v>0.9825433697741193</v>
       </c>
       <c r="D542">
-        <v>-0.06985996185962584</v>
+        <v>0.1898503151249177</v>
       </c>
       <c r="E542">
         <v>0.1233442047435492</v>
@@ -15021,7 +15021,7 @@
         <v>0.9952987779178802</v>
       </c>
       <c r="D543">
-        <v>-0.103210483703323</v>
+        <v>0.1764036497569459</v>
       </c>
       <c r="E543">
         <v>0.0640094251054069</v>
@@ -15047,7 +15047,7 @@
         <v>0.9973248170553285</v>
       </c>
       <c r="D544">
-        <v>-0.07960313623340265</v>
+        <v>0.1721225616567286</v>
       </c>
       <c r="E544">
         <v>0.04828533917654838</v>
@@ -15073,7 +15073,7 @@
         <v>0.9985157644721432</v>
       </c>
       <c r="D545">
-        <v>-0.1559767057183954</v>
+        <v>0.1242713421507717</v>
       </c>
       <c r="E545">
         <v>0.03596581900781451</v>
@@ -15099,7 +15099,7 @@
         <v>0.998822613147448</v>
       </c>
       <c r="D546">
-        <v>-0.08967389244707302</v>
+        <v>0.1737864422917972</v>
       </c>
       <c r="E546">
         <v>0.03203303836554816</v>
@@ -15125,7 +15125,7 @@
         <v>0.9989168444022603</v>
       </c>
       <c r="D547">
-        <v>-0.07235124804835658</v>
+        <v>0.1693467085137205</v>
       </c>
       <c r="E547">
         <v>0.03072443937944689</v>
@@ -15151,7 +15151,7 @@
         <v>0.999102626959063</v>
       </c>
       <c r="D548">
-        <v>-0.08651854093127986</v>
+        <v>0.1737516521264594</v>
       </c>
       <c r="E548">
         <v>0.02796565863173203</v>
@@ -15177,7 +15177,7 @@
         <v>0.9991086802014467</v>
       </c>
       <c r="D549">
-        <v>-0.07569958232007634</v>
+        <v>0.1694437310043061</v>
       </c>
       <c r="E549">
         <v>0.02787117766096723</v>
@@ -15203,7 +15203,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D550">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E550">
         <v>0.02786137343906938</v>
@@ -15229,7 +15229,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D551">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E551">
         <v>0.02786137343906938</v>
@@ -15255,7 +15255,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D552">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E552">
         <v>0.02786137343906938</v>
@@ -15281,7 +15281,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D553">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E553">
         <v>0.02786137343906938</v>
@@ -15307,7 +15307,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D554">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E554">
         <v>0.02786137343906938</v>
@@ -15333,7 +15333,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D555">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E555">
         <v>0.02786137343906938</v>
@@ -15359,7 +15359,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D556">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E556">
         <v>0.02786137343906938</v>
@@ -15385,7 +15385,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D557">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E557">
         <v>0.02786137343906938</v>
@@ -15411,7 +15411,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D558">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E558">
         <v>0.02786137343906938</v>
@@ -15437,7 +15437,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D559">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E559">
         <v>0.02786137343906938</v>
@@ -15463,7 +15463,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D560">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E560">
         <v>0.02786137343906938</v>
@@ -15489,7 +15489,7 @@
         <v>0.9991093071688603</v>
       </c>
       <c r="D561">
-        <v>-0.07373370692625203</v>
+        <v>0.169479566334949</v>
       </c>
       <c r="E561">
         <v>0.02786137343906938</v>
@@ -15515,7 +15515,7 @@
         <v>0.6064610998650093</v>
       </c>
       <c r="D562">
-        <v>-0.2437833231639788</v>
+        <v>0.4782380625265805</v>
       </c>
       <c r="E562">
         <v>0.5856422179016105</v>
@@ -15541,7 +15541,7 @@
         <v>0.723647043640931</v>
       </c>
       <c r="D563">
-        <v>-0.7045349737307278</v>
+        <v>0.2426903573400856</v>
       </c>
       <c r="E563">
         <v>0.4907616301709952</v>
@@ -15567,7 +15567,7 @@
         <v>0.7762051050053075</v>
       </c>
       <c r="D564">
-        <v>-0.2656277251655794</v>
+        <v>0.3092287813710345</v>
       </c>
       <c r="E564">
         <v>0.4416351488530642</v>
@@ -15593,7 +15593,7 @@
         <v>0.8089801733523893</v>
       </c>
       <c r="D565">
-        <v>-0.1381297451795045</v>
+        <v>0.3200008171736458</v>
       </c>
       <c r="E565">
         <v>0.4080165376924466</v>
@@ -15619,7 +15619,7 @@
         <v>0.8524024624677142</v>
       </c>
       <c r="D566">
-        <v>-0.2495687355201799</v>
+        <v>0.2275178629381486</v>
       </c>
       <c r="E566">
         <v>0.3586559985942298</v>
@@ -15645,7 +15645,7 @@
         <v>0.8834661507784771</v>
       </c>
       <c r="D567">
-        <v>-0.4544068520953515</v>
+        <v>0.0945679494057442</v>
       </c>
       <c r="E567">
         <v>0.3186871767903338</v>
@@ -15671,7 +15671,7 @@
         <v>0.9131131840397604</v>
       </c>
       <c r="D568">
-        <v>-0.421644656861264</v>
+        <v>0.1068702160838745</v>
       </c>
       <c r="E568">
         <v>0.275179124224289</v>
@@ -15697,7 +15697,7 @@
         <v>0.9297257138500713</v>
       </c>
       <c r="D569">
-        <v>-0.4803656513159458</v>
+        <v>0.08087993739331589</v>
       </c>
       <c r="E569">
         <v>0.2474780949869291</v>
@@ -15723,7 +15723,7 @@
         <v>0.9573684231959955</v>
       </c>
       <c r="D570">
-        <v>-0.5218624602931787</v>
+        <v>0.04922475973936424</v>
       </c>
       <c r="E570">
         <v>0.1927543735977049</v>
@@ -15749,7 +15749,7 @@
         <v>0.9658318842238974</v>
       </c>
       <c r="D571">
-        <v>-0.5251888095956687</v>
+        <v>0.03316670270399047</v>
       </c>
       <c r="E571">
         <v>0.1725635465755354</v>
@@ -15775,7 +15775,7 @@
         <v>0.9710941485858172</v>
       </c>
       <c r="D572">
-        <v>-0.53399403762015</v>
+        <v>0.02796347064229532</v>
       </c>
       <c r="E572">
         <v>0.1587199163401311</v>
@@ -15801,7 +15801,7 @@
         <v>0.9732351783830839</v>
       </c>
       <c r="D573">
-        <v>-0.5449155842744415</v>
+        <v>0.02763937027202401</v>
       </c>
       <c r="E573">
         <v>0.1527287226523661</v>
@@ -15827,7 +15827,7 @@
         <v>0.9736677062019209</v>
       </c>
       <c r="D574">
-        <v>-0.4931875808290158</v>
+        <v>0.03981467749137868</v>
       </c>
       <c r="E574">
         <v>0.1514896244450222</v>
@@ -15853,7 +15853,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D575">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E575">
         <v>0.1514271216324851</v>
@@ -15879,7 +15879,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D576">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E576">
         <v>0.1514271216324851</v>
@@ -15905,7 +15905,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D577">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E577">
         <v>0.1514271216324851</v>
@@ -15931,7 +15931,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D578">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E578">
         <v>0.1514271216324851</v>
@@ -15957,7 +15957,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D579">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E579">
         <v>0.1514271216324851</v>
@@ -15983,7 +15983,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D580">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E580">
         <v>0.1514271216324851</v>
@@ -16009,7 +16009,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D581">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E581">
         <v>0.1514271216324851</v>
@@ -16035,7 +16035,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D582">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E582">
         <v>0.1514271216324851</v>
@@ -16061,7 +16061,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D583">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E583">
         <v>0.1514271216324851</v>
@@ -16087,7 +16087,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D584">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E584">
         <v>0.1514271216324851</v>
@@ -16113,7 +16113,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D585">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E585">
         <v>0.1514271216324851</v>
@@ -16139,7 +16139,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D586">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E586">
         <v>0.1514271216324851</v>
@@ -16165,7 +16165,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D587">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E587">
         <v>0.1514271216324851</v>
@@ -16191,7 +16191,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D588">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E588">
         <v>0.1514271216324851</v>
@@ -16217,7 +16217,7 @@
         <v>0.9736894305002216</v>
       </c>
       <c r="D589">
-        <v>-0.5289969402799757</v>
+        <v>0.04742517640762367</v>
       </c>
       <c r="E589">
         <v>0.1514271216324851</v>
@@ -16279,7 +16279,7 @@
         <v>0.8854166518946553</v>
       </c>
       <c r="D2">
-        <v>0.74170532533546</v>
+        <v>0.7725546829917994</v>
       </c>
       <c r="E2">
         <v>0.3160088875059047</v>
@@ -16305,7 +16305,7 @@
         <v>0.8748791677711878</v>
       </c>
       <c r="D3">
-        <v>0.7695174294572872</v>
+        <v>0.7774262401972336</v>
       </c>
       <c r="E3">
         <v>0.3302199863620427</v>
@@ -16331,7 +16331,7 @@
         <v>0.8690066695217415</v>
       </c>
       <c r="D4">
-        <v>0.7394697583037892</v>
+        <v>0.7539281607321913</v>
       </c>
       <c r="E4">
         <v>0.3378805052990619</v>
@@ -16357,7 +16357,7 @@
         <v>0.8763929006079383</v>
       </c>
       <c r="D5">
-        <v>0.7478474779471382</v>
+        <v>0.7701368269924587</v>
       </c>
       <c r="E5">
         <v>0.3282163795082476</v>
@@ -16383,7 +16383,7 @@
         <v>0.8863600811408665</v>
       </c>
       <c r="D6">
-        <v>0.6801816692665552</v>
+        <v>0.7405360942065606</v>
       </c>
       <c r="E6">
         <v>0.3147052589982208</v>
@@ -16409,7 +16409,7 @@
         <v>0.8882604702130792</v>
       </c>
       <c r="D7">
-        <v>0.6018066831717691</v>
+        <v>0.7087232780514507</v>
       </c>
       <c r="E7">
         <v>0.3120627725225503</v>
@@ -16435,7 +16435,7 @@
         <v>0.9045744766590946</v>
       </c>
       <c r="D8">
-        <v>0.6521856312740684</v>
+        <v>0.74402804843023</v>
       </c>
       <c r="E8">
         <v>0.2883837720875473</v>
@@ -16461,7 +16461,7 @@
         <v>0.9088251361394128</v>
       </c>
       <c r="D9">
-        <v>0.6043954283561789</v>
+        <v>0.7772633663181544</v>
       </c>
       <c r="E9">
         <v>0.2818876860982938</v>
@@ -16487,7 +16487,7 @@
         <v>0.9200070847095011</v>
       </c>
       <c r="D10">
-        <v>0.537035477971723</v>
+        <v>0.7415415617570325</v>
       </c>
       <c r="E10">
         <v>0.2640367055182969</v>
@@ -16513,7 +16513,7 @@
         <v>0.9218395791812664</v>
       </c>
       <c r="D11">
-        <v>0.492846326163603</v>
+        <v>0.722405287262299</v>
       </c>
       <c r="E11">
         <v>0.2609948797953586</v>
@@ -16539,7 +16539,7 @@
         <v>0.9214114987823907</v>
       </c>
       <c r="D12">
-        <v>0.4222831902707512</v>
+        <v>0.6952546204729607</v>
       </c>
       <c r="E12">
         <v>0.261708631257944</v>
@@ -16565,7 +16565,7 @@
         <v>0.9212204944420783</v>
       </c>
       <c r="D13">
-        <v>0.4464662313548228</v>
+        <v>0.7089539821490973</v>
       </c>
       <c r="E13">
         <v>0.2620264713216865</v>
@@ -16591,7 +16591,7 @@
         <v>0.923066848520647</v>
       </c>
       <c r="D14">
-        <v>0.5100484936128615</v>
+        <v>0.7313691098945188</v>
       </c>
       <c r="E14">
         <v>0.2589377109939338</v>
@@ -16617,7 +16617,7 @@
         <v>0.9258770167278387</v>
       </c>
       <c r="D15">
-        <v>0.5586333413481915</v>
+        <v>0.7462579043824221</v>
       </c>
       <c r="E15">
         <v>0.2541645567601603</v>
@@ -16643,7 +16643,7 @@
         <v>0.9270004865457343</v>
       </c>
       <c r="D16">
-        <v>0.5902682864211527</v>
+        <v>0.7602005677143111</v>
       </c>
       <c r="E16">
         <v>0.2522310371678458</v>
@@ -16669,7 +16669,7 @@
         <v>0.9280591512953023</v>
       </c>
       <c r="D17">
-        <v>0.6012521725822855</v>
+        <v>0.7664156442759623</v>
       </c>
       <c r="E17">
         <v>0.2503953857127035</v>
@@ -16695,7 +16695,7 @@
         <v>0.9290654373983125</v>
       </c>
       <c r="D18">
-        <v>0.6108419439444039</v>
+        <v>0.769797836022319</v>
       </c>
       <c r="E18">
         <v>0.2486379924128876</v>
@@ -16721,7 +16721,7 @@
         <v>0.9303871863464492</v>
       </c>
       <c r="D19">
-        <v>0.6274440917115714</v>
+        <v>0.7765270785953701</v>
       </c>
       <c r="E19">
         <v>0.2463106196440878</v>
@@ -16747,7 +16747,7 @@
         <v>0.9267720500462679</v>
       </c>
       <c r="D20">
-        <v>0.648095112346242</v>
+        <v>0.7835311975505717</v>
       </c>
       <c r="E20">
         <v>0.2526253806806923</v>
@@ -16773,7 +16773,7 @@
         <v>0.8379173743581821</v>
       </c>
       <c r="D21">
-        <v>0.721313550347835</v>
+        <v>0.7654032594201219</v>
       </c>
       <c r="E21">
         <v>0.3758432670789102</v>
@@ -16799,7 +16799,7 @@
         <v>0.8546063391258329</v>
       </c>
       <c r="D22">
-        <v>0.7082472872283048</v>
+        <v>0.754099382155219</v>
       </c>
       <c r="E22">
         <v>0.3559682625540815</v>
@@ -16825,7 +16825,7 @@
         <v>0.8848499549975014</v>
       </c>
       <c r="D23">
-        <v>0.7176385700284336</v>
+        <v>0.7647963113786306</v>
       </c>
       <c r="E23">
         <v>0.3167893690658395</v>
@@ -16851,7 +16851,7 @@
         <v>0.8883242287707714</v>
       </c>
       <c r="D24">
-        <v>0.6762080665493286</v>
+        <v>0.7333992241099042</v>
       </c>
       <c r="E24">
         <v>0.3119737283347281</v>
@@ -16877,7 +16877,7 @@
         <v>0.8898816492263502</v>
       </c>
       <c r="D25">
-        <v>0.5428232287260373</v>
+        <v>0.6738372718387053</v>
       </c>
       <c r="E25">
         <v>0.3097907115229824</v>
@@ -16903,7 +16903,7 @@
         <v>0.886920929067702</v>
       </c>
       <c r="D26">
-        <v>0.4763743764829818</v>
+        <v>0.674627576241227</v>
       </c>
       <c r="E26">
         <v>0.3139277148678382</v>
@@ -16929,7 +16929,7 @@
         <v>0.902841611916256</v>
       </c>
       <c r="D27">
-        <v>0.53669015747737</v>
+        <v>0.7026889067139824</v>
       </c>
       <c r="E27">
         <v>0.2909904213853859</v>
@@ -16955,7 +16955,7 @@
         <v>0.8916680454648628</v>
       </c>
       <c r="D28">
-        <v>0.3083983909798268</v>
+        <v>0.6713945712558256</v>
       </c>
       <c r="E28">
         <v>0.3072676453377903</v>
@@ -16981,7 +16981,7 @@
         <v>0.8977687319907917</v>
       </c>
       <c r="D29">
-        <v>0.2849991263638777</v>
+        <v>0.6543199420044399</v>
       </c>
       <c r="E29">
         <v>0.2984904334833699</v>
@@ -17007,7 +17007,7 @@
         <v>0.89814831347957</v>
       </c>
       <c r="D30">
-        <v>0.3299939205679037</v>
+        <v>0.6541916183394412</v>
       </c>
       <c r="E30">
         <v>0.2979357753429867</v>
@@ -17033,7 +17033,7 @@
         <v>0.8974744358656241</v>
       </c>
       <c r="D31">
-        <v>0.2966506758812196</v>
+        <v>0.6329760176199741</v>
       </c>
       <c r="E31">
         <v>0.298919761272857</v>
@@ -17059,7 +17059,7 @@
         <v>0.9028198522727338</v>
       </c>
       <c r="D32">
-        <v>0.35961767942266</v>
+        <v>0.6560516598068336</v>
       </c>
       <c r="E32">
         <v>0.2910230047447918</v>
@@ -17085,7 +17085,7 @@
         <v>0.9098749483513666</v>
       </c>
       <c r="D33">
-        <v>0.43018733878517</v>
+        <v>0.6782763092599351</v>
       </c>
       <c r="E33">
         <v>0.2802601216870585</v>
@@ -17111,7 +17111,7 @@
         <v>0.9119368015410024</v>
       </c>
       <c r="D34">
-        <v>0.4849569332814662</v>
+        <v>0.6943681982094719</v>
       </c>
       <c r="E34">
         <v>0.2770357208771194</v>
@@ -17137,7 +17137,7 @@
         <v>0.90800339803992</v>
       </c>
       <c r="D35">
-        <v>0.516093222519145</v>
+        <v>0.7012703174072035</v>
       </c>
       <c r="E35">
         <v>0.2831551311802123</v>
@@ -17163,7 +17163,7 @@
         <v>0.911895620063111</v>
       </c>
       <c r="D36">
-        <v>0.5442185980477892</v>
+        <v>0.7202091926961932</v>
       </c>
       <c r="E36">
         <v>0.2771004891750167</v>
@@ -17189,7 +17189,7 @@
         <v>0.9175678451139524</v>
       </c>
       <c r="D37">
-        <v>0.5386859676392204</v>
+        <v>0.7165669719926546</v>
       </c>
       <c r="E37">
         <v>0.2680321372924123</v>
@@ -17215,7 +17215,7 @@
         <v>0.9214498632532174</v>
       </c>
       <c r="D38">
-        <v>0.5647146954820736</v>
+        <v>0.7265740280727382</v>
       </c>
       <c r="E38">
         <v>0.2616447444384029</v>
@@ -17241,7 +17241,7 @@
         <v>0.9135736772272929</v>
       </c>
       <c r="D39">
-        <v>0.5298655199170357</v>
+        <v>0.7124592718638916</v>
       </c>
       <c r="E39">
         <v>0.2744489417677898</v>
@@ -17267,7 +17267,7 @@
         <v>0.8296785844474749</v>
       </c>
       <c r="D40">
-        <v>0.6612960648244712</v>
+        <v>0.7375068925752986</v>
       </c>
       <c r="E40">
         <v>0.3852770783390441</v>
@@ -17293,7 +17293,7 @@
         <v>0.833384546277313</v>
       </c>
       <c r="D41">
-        <v>0.7212145800209602</v>
+        <v>0.7619917754599973</v>
       </c>
       <c r="E41">
         <v>0.3810624742254744</v>
@@ -17319,7 +17319,7 @@
         <v>0.8715502215288049</v>
       </c>
       <c r="D42">
-        <v>0.7026152843177215</v>
+        <v>0.7531015003315451</v>
       </c>
       <c r="E42">
         <v>0.3345840414673629</v>
@@ -17345,7 +17345,7 @@
         <v>0.8636114065111362</v>
       </c>
       <c r="D43">
-        <v>0.6651886507599856</v>
+        <v>0.7231192090262175</v>
       </c>
       <c r="E43">
         <v>0.3447684912148273</v>
@@ -17371,7 +17371,7 @@
         <v>0.8398233956088517</v>
       </c>
       <c r="D44">
-        <v>0.5576734103626199</v>
+        <v>0.6575438905699955</v>
       </c>
       <c r="E44">
         <v>0.3736268550422721</v>
@@ -17397,7 +17397,7 @@
         <v>0.8446265954919618</v>
       </c>
       <c r="D45">
-        <v>0.5540446519196277</v>
+        <v>0.6495798292708509</v>
       </c>
       <c r="E45">
         <v>0.3679822613510209</v>
@@ -17423,7 +17423,7 @@
         <v>0.8676872887513913</v>
       </c>
       <c r="D46">
-        <v>0.5801438439576507</v>
+        <v>0.6746291792145532</v>
       </c>
       <c r="E46">
         <v>0.3395778288843287</v>
@@ -17449,7 +17449,7 @@
         <v>0.8610750273045225</v>
       </c>
       <c r="D47">
-        <v>0.4735984544146055</v>
+        <v>0.6523252048292845</v>
       </c>
       <c r="E47">
         <v>0.3479595039022964</v>
@@ -17475,7 +17475,7 @@
         <v>0.8677718614347639</v>
       </c>
       <c r="D48">
-        <v>0.4277981791514489</v>
+        <v>0.6310602305142934</v>
       </c>
       <c r="E48">
         <v>0.3394692845176939</v>
@@ -17501,7 +17501,7 @@
         <v>0.8753564252242624</v>
       </c>
       <c r="D49">
-        <v>0.4751767875620283</v>
+        <v>0.670582470374574</v>
       </c>
       <c r="E49">
         <v>0.3295895936433795</v>
@@ -17527,7 +17527,7 @@
         <v>0.8723076487798855</v>
       </c>
       <c r="D50">
-        <v>0.4174872488079374</v>
+        <v>0.6547074687545102</v>
       </c>
       <c r="E50">
         <v>0.3335961154154796</v>
@@ -17553,7 +17553,7 @@
         <v>0.8799449273110741</v>
       </c>
       <c r="D51">
-        <v>0.4261904195579281</v>
+        <v>0.6632251542159397</v>
       </c>
       <c r="E51">
         <v>0.3234661209531124</v>
@@ -17579,7 +17579,7 @@
         <v>0.8879393278478707</v>
       </c>
       <c r="D52">
-        <v>0.4487813819237634</v>
+        <v>0.6689569602930918</v>
       </c>
       <c r="E52">
         <v>0.3125108891114937</v>
@@ -17605,7 +17605,7 @@
         <v>0.8909974731829317</v>
       </c>
       <c r="D53">
-        <v>0.5009013088510206</v>
+        <v>0.6914206231820376</v>
       </c>
       <c r="E53">
         <v>0.3082171680170854</v>
@@ -17631,7 +17631,7 @@
         <v>0.8914862064290232</v>
       </c>
       <c r="D54">
-        <v>0.4847545269204262</v>
+        <v>0.6905260386220089</v>
       </c>
       <c r="E54">
         <v>0.307525417044946</v>
@@ -17657,7 +17657,7 @@
         <v>0.8958467433841585</v>
       </c>
       <c r="D55">
-        <v>0.5101136440294709</v>
+        <v>0.7089487097360208</v>
       </c>
       <c r="E55">
         <v>0.3012832377385306</v>
@@ -17683,7 +17683,7 @@
         <v>0.8991836207815792</v>
       </c>
       <c r="D56">
-        <v>0.5074942960436255</v>
+        <v>0.7053882655010513</v>
       </c>
       <c r="E56">
         <v>0.2964176711578058</v>
@@ -17709,7 +17709,7 @@
         <v>0.9027367735617663</v>
       </c>
       <c r="D57">
-        <v>0.5018889965823436</v>
+        <v>0.6995737952367655</v>
       </c>
       <c r="E57">
         <v>0.2911473750585975</v>
@@ -17735,7 +17735,7 @@
         <v>0.9003074370677184</v>
       </c>
       <c r="D58">
-        <v>0.508934718758481</v>
+        <v>0.7021770382397859</v>
       </c>
       <c r="E58">
         <v>0.2947609336707989</v>
@@ -17761,7 +17761,7 @@
         <v>0.745598162393507</v>
       </c>
       <c r="D59">
-        <v>0.6343394128530491</v>
+        <v>0.7056246063815155</v>
       </c>
       <c r="E59">
         <v>0.4708674448475967</v>
@@ -17787,7 +17787,7 @@
         <v>0.8260801000226299</v>
       </c>
       <c r="D60">
-        <v>0.6480053992832345</v>
+        <v>0.7018301255517172</v>
       </c>
       <c r="E60">
         <v>0.3893257970835972</v>
@@ -17813,7 +17813,7 @@
         <v>0.8725517667109313</v>
       </c>
       <c r="D61">
-        <v>0.6712662030895256</v>
+        <v>0.7300131769598157</v>
       </c>
       <c r="E61">
         <v>0.333277083962147</v>
@@ -17839,7 +17839,7 @@
         <v>0.8692124943523055</v>
       </c>
       <c r="D62">
-        <v>0.6513711321119662</v>
+        <v>0.7080351591009675</v>
       </c>
       <c r="E62">
         <v>0.337614951560485</v>
@@ -17865,7 +17865,7 @@
         <v>0.8586251892952674</v>
       </c>
       <c r="D63">
-        <v>0.5382606504769071</v>
+        <v>0.6599675943130576</v>
       </c>
       <c r="E63">
         <v>0.3510140992043508</v>
@@ -17891,7 +17891,7 @@
         <v>0.8664771398500739</v>
       </c>
       <c r="D64">
-        <v>0.5320295085704243</v>
+        <v>0.6432645206132733</v>
       </c>
       <c r="E64">
         <v>0.3411272052762377</v>
@@ -17917,7 +17917,7 @@
         <v>0.8841779935020891</v>
       </c>
       <c r="D65">
-        <v>0.5541246388864698</v>
+        <v>0.6679572453886552</v>
       </c>
       <c r="E65">
         <v>0.3177123413856465</v>
@@ -17943,7 +17943,7 @@
         <v>0.8886927225227295</v>
       </c>
       <c r="D66">
-        <v>0.551113988949492</v>
+        <v>0.6971929347316685</v>
       </c>
       <c r="E66">
         <v>0.3114585970840226</v>
@@ -17969,7 +17969,7 @@
         <v>0.8925036322946001</v>
       </c>
       <c r="D67">
-        <v>0.5595635133013357</v>
+        <v>0.6944992938286187</v>
       </c>
       <c r="E67">
         <v>0.3060803418937181</v>
@@ -17995,7 +17995,7 @@
         <v>0.8959715757288154</v>
       </c>
       <c r="D68">
-        <v>0.5946171122108814</v>
+        <v>0.7168962570724906</v>
       </c>
       <c r="E68">
         <v>0.3011026328768153</v>
@@ -18021,7 +18021,7 @@
         <v>0.8939381955493927</v>
       </c>
       <c r="D69">
-        <v>0.5693649328737791</v>
+        <v>0.7014754152992357</v>
       </c>
       <c r="E69">
         <v>0.3040311265465663</v>
@@ -18047,7 +18047,7 @@
         <v>0.898665590548075</v>
       </c>
       <c r="D70">
-        <v>0.5568100355200627</v>
+        <v>0.7003733642322396</v>
       </c>
       <c r="E70">
         <v>0.2971782448311053</v>
@@ -18073,7 +18073,7 @@
         <v>0.9040919995567087</v>
       </c>
       <c r="D71">
-        <v>0.5642446682347904</v>
+        <v>0.7006126030843212</v>
       </c>
       <c r="E71">
         <v>0.2891118956118895</v>
@@ -18099,7 +18099,7 @@
         <v>0.9067435795491893</v>
       </c>
       <c r="D72">
-        <v>0.6016372667401781</v>
+        <v>0.7203907056340539</v>
       </c>
       <c r="E72">
         <v>0.2850873280889787</v>
@@ -18125,7 +18125,7 @@
         <v>0.9047315251258855</v>
       </c>
       <c r="D73">
-        <v>0.5855169954079982</v>
+        <v>0.7160567675843678</v>
       </c>
       <c r="E73">
         <v>0.2881463676838686</v>
@@ -18151,7 +18151,7 @@
         <v>0.908012790230786</v>
       </c>
       <c r="D74">
-        <v>0.5923270018135572</v>
+        <v>0.7266426143709135</v>
       </c>
       <c r="E74">
         <v>0.2831406767609124</v>
@@ -18177,7 +18177,7 @@
         <v>0.9103041060267331</v>
       </c>
       <c r="D75">
-        <v>0.6070837654947816</v>
+        <v>0.7347678415085739</v>
       </c>
       <c r="E75">
         <v>0.2795920537946545</v>
@@ -18203,7 +18203,7 @@
         <v>0.9128033416760083</v>
       </c>
       <c r="D76">
-        <v>0.6066950452687534</v>
+        <v>0.7335025064512869</v>
       </c>
       <c r="E76">
         <v>0.2756693382597021</v>
@@ -18229,7 +18229,7 @@
         <v>0.9059394836263094</v>
       </c>
       <c r="D77">
-        <v>0.5893323496246088</v>
+        <v>0.7290045468919972</v>
       </c>
       <c r="E77">
         <v>0.2863137612421313</v>
@@ -18255,7 +18255,7 @@
         <v>0.8540972142844148</v>
       </c>
       <c r="D78">
-        <v>0.4779836040898738</v>
+        <v>0.5449919343279772</v>
       </c>
       <c r="E78">
         <v>0.3565909647615905</v>
@@ -18281,7 +18281,7 @@
         <v>0.8724536756414861</v>
       </c>
       <c r="D79">
-        <v>0.5870491809031542</v>
+        <v>0.6712448844258853</v>
       </c>
       <c r="E79">
         <v>0.3334053133493839</v>
@@ -18307,7 +18307,7 @@
         <v>0.889811458296584</v>
       </c>
       <c r="D80">
-        <v>0.6471067999991478</v>
+        <v>0.7188987694279964</v>
       </c>
       <c r="E80">
         <v>0.3098894281944836</v>
@@ -18333,7 +18333,7 @@
         <v>0.890623711309937</v>
       </c>
       <c r="D81">
-        <v>0.6376406847427885</v>
+        <v>0.7051666036385247</v>
       </c>
       <c r="E81">
         <v>0.3087451431261148</v>
@@ -18359,7 +18359,7 @@
         <v>0.8858428115892767</v>
       </c>
       <c r="D82">
-        <v>0.6050125243251352</v>
+        <v>0.699427980310158</v>
       </c>
       <c r="E82">
         <v>0.3154206881584178</v>
@@ -18385,7 +18385,7 @@
         <v>0.8841955421383318</v>
       </c>
       <c r="D83">
-        <v>0.5786202997509018</v>
+        <v>0.6909592138319649</v>
       </c>
       <c r="E83">
         <v>0.3176882715664401</v>
@@ -18411,7 +18411,7 @@
         <v>0.8947168447950511</v>
       </c>
       <c r="D84">
-        <v>0.6130830911220365</v>
+        <v>0.7250406937606038</v>
       </c>
       <c r="E84">
         <v>0.3029130534389533</v>
@@ -18437,7 +18437,7 @@
         <v>0.8995311747060635</v>
       </c>
       <c r="D85">
-        <v>0.5438937386024169</v>
+        <v>0.7013005199508867</v>
       </c>
       <c r="E85">
         <v>0.295906295587136</v>
@@ -18463,7 +18463,7 @@
         <v>0.8997625793816197</v>
       </c>
       <c r="D86">
-        <v>0.4857629423823462</v>
+        <v>0.6710691073660207</v>
       </c>
       <c r="E86">
         <v>0.2955653262674746</v>
@@ -18489,7 +18489,7 @@
         <v>0.90485467289183</v>
       </c>
       <c r="D87">
-        <v>0.5315793395148939</v>
+        <v>0.6971087826811175</v>
       </c>
       <c r="E87">
         <v>0.2879600728150783</v>
@@ -18515,7 +18515,7 @@
         <v>0.9007032763004414</v>
       </c>
       <c r="D88">
-        <v>0.4940394079748303</v>
+        <v>0.6747458881047368</v>
       </c>
       <c r="E88">
         <v>0.2941751628307377</v>
@@ -18541,7 +18541,7 @@
         <v>0.9065894127643028</v>
       </c>
       <c r="D89">
-        <v>0.4874912271445884</v>
+        <v>0.6787382298325907</v>
       </c>
       <c r="E89">
         <v>0.285322876736353</v>
@@ -18567,7 +18567,7 @@
         <v>0.9115181536925433</v>
       </c>
       <c r="D90">
-        <v>0.5331553191491867</v>
+        <v>0.6954055238270156</v>
       </c>
       <c r="E90">
         <v>0.2776934467830107</v>
@@ -18593,7 +18593,7 @@
         <v>0.9124993021491039</v>
       </c>
       <c r="D91">
-        <v>0.5665470948665199</v>
+        <v>0.707374330665517</v>
       </c>
       <c r="E91">
         <v>0.2761495254731321</v>
@@ -18619,7 +18619,7 @@
         <v>0.9104509082769771</v>
       </c>
       <c r="D92">
-        <v>0.5762967491496573</v>
+        <v>0.7058386015353256</v>
       </c>
       <c r="E92">
         <v>0.27936316064959</v>
@@ -18645,7 +18645,7 @@
         <v>0.9122104844175276</v>
       </c>
       <c r="D93">
-        <v>0.580166052660823</v>
+        <v>0.7167138295386226</v>
       </c>
       <c r="E93">
         <v>0.2766048999760779</v>
@@ -18671,7 +18671,7 @@
         <v>0.9141189465100611</v>
       </c>
       <c r="D94">
-        <v>0.579150259877026</v>
+        <v>0.7181666386345825</v>
       </c>
       <c r="E94">
         <v>0.2735818138141448</v>
@@ -18697,7 +18697,7 @@
         <v>0.916592681875425</v>
       </c>
       <c r="D95">
-        <v>0.5871266345035158</v>
+        <v>0.7222005513759832</v>
       </c>
       <c r="E95">
         <v>0.2696128712706031</v>
@@ -18723,7 +18723,7 @@
         <v>0.9096242134459348</v>
       </c>
       <c r="D96">
-        <v>0.5778880963021654</v>
+        <v>0.7193647636207112</v>
       </c>
       <c r="E96">
         <v>0.2806497036448379</v>
@@ -18749,7 +18749,7 @@
         <v>0.8093420894918663</v>
       </c>
       <c r="D97">
-        <v>0.6169432942152913</v>
+        <v>0.6728236406253442</v>
       </c>
       <c r="E97">
         <v>0.4076298297159407</v>
@@ -18775,7 +18775,7 @@
         <v>0.8438033984918676</v>
       </c>
       <c r="D98">
-        <v>0.7020970502343247</v>
+        <v>0.7136273055775424</v>
       </c>
       <c r="E98">
         <v>0.3689557925674832</v>
@@ -18801,7 +18801,7 @@
         <v>0.8732667150984206</v>
       </c>
       <c r="D99">
-        <v>0.7166239330001578</v>
+        <v>0.7326732098448595</v>
       </c>
       <c r="E99">
         <v>0.3323409744012634</v>
@@ -18827,7 +18827,7 @@
         <v>0.8738977197180505</v>
       </c>
       <c r="D100">
-        <v>0.7098029795669978</v>
+        <v>0.7562047730856526</v>
       </c>
       <c r="E100">
         <v>0.3315125796472668</v>
@@ -18853,7 +18853,7 @@
         <v>0.8748885285089987</v>
       </c>
       <c r="D101">
-        <v>0.6713145666791348</v>
+        <v>0.7379156564591741</v>
       </c>
       <c r="E101">
         <v>0.3302076336607639</v>
@@ -18879,7 +18879,7 @@
         <v>0.8840944095403683</v>
       </c>
       <c r="D102">
-        <v>0.6511206411358359</v>
+        <v>0.736917842486837</v>
       </c>
       <c r="E102">
         <v>0.3178269606522311</v>
@@ -18905,7 +18905,7 @@
         <v>0.8899641565341586</v>
       </c>
       <c r="D103">
-        <v>0.6605228071353572</v>
+        <v>0.7636741921957949</v>
       </c>
       <c r="E103">
         <v>0.3096746328359175</v>
@@ -18931,7 +18931,7 @@
         <v>0.8991313126798695</v>
       </c>
       <c r="D104">
-        <v>0.5932785801464882</v>
+        <v>0.7398920187839904</v>
       </c>
       <c r="E104">
         <v>0.2964945586395491</v>
@@ -18957,7 +18957,7 @@
         <v>0.9038504111446179</v>
       </c>
       <c r="D105">
-        <v>0.6066889290147003</v>
+        <v>0.747009180064356</v>
       </c>
       <c r="E105">
         <v>0.2894757972358096</v>
@@ -18983,7 +18983,7 @@
         <v>0.9074376540168473</v>
       </c>
       <c r="D106">
-        <v>0.5850810548712224</v>
+        <v>0.7376837189931176</v>
       </c>
       <c r="E106">
         <v>0.284024444785651</v>
@@ -19009,7 +19009,7 @@
         <v>0.9065327587697624</v>
       </c>
       <c r="D107">
-        <v>0.5366581433438267</v>
+        <v>0.7191409490045008</v>
       </c>
       <c r="E107">
         <v>0.2854093885062283</v>
@@ -19035,7 +19035,7 @@
         <v>0.9112099889497065</v>
       </c>
       <c r="D108">
-        <v>0.5472089368730394</v>
+        <v>0.7311496062488807</v>
       </c>
       <c r="E108">
         <v>0.2781766020977681</v>
@@ -19061,7 +19061,7 @@
         <v>0.9137744315438496</v>
       </c>
       <c r="D109">
-        <v>0.5677420681246979</v>
+        <v>0.7340415810536818</v>
       </c>
       <c r="E109">
         <v>0.2741300062836943</v>
@@ -19087,7 +19087,7 @@
         <v>0.9145109109933863</v>
       </c>
       <c r="D110">
-        <v>0.5813897774423017</v>
+        <v>0.7308273460904158</v>
       </c>
       <c r="E110">
         <v>0.2729567807864959</v>
@@ -19113,7 +19113,7 @@
         <v>0.9105159245607867</v>
       </c>
       <c r="D111">
-        <v>0.5899372194270698</v>
+        <v>0.7344040272804115</v>
       </c>
       <c r="E111">
         <v>0.2792617277250128</v>
@@ -19139,7 +19139,7 @@
         <v>0.9147939420878975</v>
       </c>
       <c r="D112">
-        <v>0.5884203818117797</v>
+        <v>0.7410839783660081</v>
       </c>
       <c r="E112">
         <v>0.2725045633973177</v>
@@ -19165,7 +19165,7 @@
         <v>0.9183698993745771</v>
       </c>
       <c r="D113">
-        <v>0.587926857732761</v>
+        <v>0.7374499076843686</v>
       </c>
       <c r="E113">
         <v>0.2667249908242744</v>
@@ -19191,7 +19191,7 @@
         <v>0.9203018745957582</v>
       </c>
       <c r="D114">
-        <v>0.6087616556509996</v>
+        <v>0.7433724711401601</v>
       </c>
       <c r="E114">
         <v>0.263549742440073</v>
@@ -19217,7 +19217,7 @@
         <v>0.9147837776136591</v>
       </c>
       <c r="D115">
-        <v>0.6131915814414461</v>
+        <v>0.7445928465326334</v>
       </c>
       <c r="E115">
         <v>0.2725208168368089</v>
@@ -19243,7 +19243,7 @@
         <v>0.7992794186008197</v>
       </c>
       <c r="D116">
-        <v>0.6647700034479618</v>
+        <v>0.7197777171805673</v>
       </c>
       <c r="E116">
         <v>0.418248600135595</v>
@@ -19269,7 +19269,7 @@
         <v>0.8318941603913169</v>
       </c>
       <c r="D117">
-        <v>0.7345900429690648</v>
+        <v>0.7537118352717649</v>
       </c>
       <c r="E117">
         <v>0.3827629939747453</v>
@@ -19295,7 +19295,7 @@
         <v>0.8571794195298599</v>
       </c>
       <c r="D118">
-        <v>0.7473779048378523</v>
+        <v>0.7742748142108501</v>
       </c>
       <c r="E118">
         <v>0.3528043569981184</v>
@@ -19321,7 +19321,7 @@
         <v>0.880807037375656</v>
       </c>
       <c r="D119">
-        <v>0.7746229256059215</v>
+        <v>0.80699408512432</v>
       </c>
       <c r="E119">
         <v>0.3223026306309764</v>
@@ -19347,7 +19347,7 @@
         <v>0.8771818375852003</v>
       </c>
       <c r="D120">
-        <v>0.7221563801844521</v>
+        <v>0.7783136256464728</v>
       </c>
       <c r="E120">
         <v>0.3271672628088079</v>
@@ -19373,7 +19373,7 @@
         <v>0.882532994523537</v>
       </c>
       <c r="D121">
-        <v>0.6903886060432863</v>
+        <v>0.7592237253440237</v>
       </c>
       <c r="E121">
         <v>0.3199605920741364</v>
@@ -19399,7 +19399,7 @@
         <v>0.8997969907753812</v>
       </c>
       <c r="D122">
-        <v>0.6721916272158273</v>
+        <v>0.7489795986859887</v>
       </c>
       <c r="E122">
         <v>0.2955145882904851</v>
@@ -19425,7 +19425,7 @@
         <v>0.9044180201844101</v>
       </c>
       <c r="D123">
-        <v>0.6077482195332564</v>
+        <v>0.7276853211983482</v>
       </c>
       <c r="E123">
         <v>0.2886200874243517</v>
@@ -19451,7 +19451,7 @@
         <v>0.910850598349747</v>
       </c>
       <c r="D124">
-        <v>0.6147051238308358</v>
+        <v>0.7286570253092399</v>
       </c>
       <c r="E124">
         <v>0.2787390138716205</v>
@@ -19477,7 +19477,7 @@
         <v>0.9162488236904177</v>
       </c>
       <c r="D125">
-        <v>0.6102773935482253</v>
+        <v>0.7291999700417008</v>
       </c>
       <c r="E125">
         <v>0.270168057794483</v>
@@ -19503,7 +19503,7 @@
         <v>0.9159738140835751</v>
       </c>
       <c r="D126">
-        <v>0.572282615587782</v>
+        <v>0.7097723619730424</v>
       </c>
       <c r="E126">
         <v>0.2706112630229089</v>
@@ -19529,7 +19529,7 @@
         <v>0.9202368613117302</v>
       </c>
       <c r="D127">
-        <v>0.5808042874768432</v>
+        <v>0.7210485475211621</v>
       </c>
       <c r="E127">
         <v>0.2636572151146829</v>
@@ -19555,7 +19555,7 @@
         <v>0.9180737788370503</v>
       </c>
       <c r="D128">
-        <v>0.5752287969179395</v>
+        <v>0.7168543934659261</v>
       </c>
       <c r="E128">
         <v>0.267208337331387</v>
@@ -19581,7 +19581,7 @@
         <v>0.9200502698379925</v>
       </c>
       <c r="D129">
-        <v>0.573198363730839</v>
+        <v>0.7082686741331179</v>
       </c>
       <c r="E129">
         <v>0.2639654242156544</v>
@@ -19607,7 +19607,7 @@
         <v>0.9169023531764813</v>
       </c>
       <c r="D130">
-        <v>0.5987593062071384</v>
+        <v>0.7253033281069803</v>
       </c>
       <c r="E130">
         <v>0.2691119019879102</v>
@@ -19633,7 +19633,7 @@
         <v>0.9197442864355803</v>
       </c>
       <c r="D131">
-        <v>0.6023070736004553</v>
+        <v>0.7325149124922463</v>
       </c>
       <c r="E131">
         <v>0.2644700657336586</v>
@@ -19659,7 +19659,7 @@
         <v>0.9233572768259222</v>
       </c>
       <c r="D132">
-        <v>0.624530202733567</v>
+        <v>0.7412769350514733</v>
       </c>
       <c r="E132">
         <v>0.2584484943982593</v>
@@ -19685,7 +19685,7 @@
         <v>0.9223456780175918</v>
       </c>
       <c r="D133">
-        <v>0.6406556331487174</v>
+        <v>0.7487158056041392</v>
       </c>
       <c r="E133">
         <v>0.2601485196918668</v>
@@ -19711,7 +19711,7 @@
         <v>0.9161420466475745</v>
       </c>
       <c r="D134">
-        <v>0.6357675552093052</v>
+        <v>0.7480581876843264</v>
       </c>
       <c r="E134">
         <v>0.2703402258683041</v>
@@ -19737,7 +19737,7 @@
         <v>0.8332249860196582</v>
       </c>
       <c r="D135">
-        <v>0.2900337114662116</v>
+        <v>0.4955616734321697</v>
       </c>
       <c r="E135">
         <v>0.3812448939087289</v>
@@ -19763,7 +19763,7 @@
         <v>0.8584309299575443</v>
       </c>
       <c r="D136">
-        <v>0.5254318881761431</v>
+        <v>0.6207695709079823</v>
       </c>
       <c r="E136">
         <v>0.3512551759507556</v>
@@ -19789,7 +19789,7 @@
         <v>0.8798569646618325</v>
       </c>
       <c r="D137">
-        <v>0.5794290884395326</v>
+        <v>0.6844130954194534</v>
       </c>
       <c r="E137">
         <v>0.3235845987751834</v>
@@ -19815,7 +19815,7 @@
         <v>0.8844026533219507</v>
       </c>
       <c r="D138">
-        <v>0.6397431563588645</v>
+        <v>0.7091653905545734</v>
       </c>
       <c r="E138">
         <v>0.3174040586778931</v>
@@ -19841,7 +19841,7 @@
         <v>0.8913759881795409</v>
       </c>
       <c r="D139">
-        <v>0.6427356432739972</v>
+        <v>0.7180238248282861</v>
       </c>
       <c r="E139">
         <v>0.3076815553088646</v>
@@ -19867,7 +19867,7 @@
         <v>0.897902764689721</v>
       </c>
       <c r="D140">
-        <v>0.6542665559306271</v>
+        <v>0.7307932529501797</v>
       </c>
       <c r="E140">
         <v>0.2982946978685606</v>
@@ -19893,7 +19893,7 @@
         <v>0.910430648579991</v>
       </c>
       <c r="D141">
-        <v>0.6390095928935676</v>
+        <v>0.7222445805126891</v>
       </c>
       <c r="E141">
         <v>0.279394760595443</v>
@@ -19919,7 +19919,7 @@
         <v>0.9109190525156672</v>
       </c>
       <c r="D142">
-        <v>0.5941680047397422</v>
+        <v>0.7308884528879589</v>
       </c>
       <c r="E142">
         <v>0.2786319771971874</v>
@@ -19945,7 +19945,7 @@
         <v>0.9145041137431322</v>
       </c>
       <c r="D143">
-        <v>0.6077797026407147</v>
+        <v>0.7348681091249367</v>
       </c>
       <c r="E143">
         <v>0.2729676319880392</v>
@@ -19971,7 +19971,7 @@
         <v>0.9171132848919229</v>
       </c>
       <c r="D144">
-        <v>0.6169055995828763</v>
+        <v>0.7431719540598636</v>
       </c>
       <c r="E144">
         <v>0.2687701335678305</v>
@@ -19997,7 +19997,7 @@
         <v>0.9167786477989626</v>
       </c>
       <c r="D145">
-        <v>0.5452662445569314</v>
+        <v>0.6988585693314282</v>
       </c>
       <c r="E145">
         <v>0.269312137555342</v>
@@ -20023,7 +20023,7 @@
         <v>0.9193919580495953</v>
       </c>
       <c r="D146">
-        <v>0.5645938625883636</v>
+        <v>0.7131294241475314</v>
       </c>
       <c r="E146">
         <v>0.2650499513521211</v>
@@ -20049,7 +20049,7 @@
         <v>0.9211975417561894</v>
       </c>
       <c r="D147">
-        <v>0.5813804260027258</v>
+        <v>0.7171514687435092</v>
       </c>
       <c r="E147">
         <v>0.2620646397085447</v>
@@ -20075,7 +20075,7 @@
         <v>0.9211340494104485</v>
       </c>
       <c r="D148">
-        <v>0.6058869836662668</v>
+        <v>0.7227943561159997</v>
       </c>
       <c r="E148">
         <v>0.2621701931953077</v>
@@ -20101,7 +20101,7 @@
         <v>0.9148122040878537</v>
       </c>
       <c r="D149">
-        <v>0.6150493787276989</v>
+        <v>0.7341145343641693</v>
       </c>
       <c r="E149">
         <v>0.2724753592237861</v>
@@ -20127,7 +20127,7 @@
         <v>0.9189881595398668</v>
       </c>
       <c r="D150">
-        <v>0.6141540266466955</v>
+        <v>0.7404762923072972</v>
       </c>
       <c r="E150">
         <v>0.2657129936011824</v>
@@ -20153,7 +20153,7 @@
         <v>0.9221639404806754</v>
       </c>
       <c r="D151">
-        <v>0.6345147809703553</v>
+        <v>0.7490143655154781</v>
       </c>
       <c r="E151">
         <v>0.2604527598180164</v>
@@ -20179,7 +20179,7 @@
         <v>0.9236800668523496</v>
       </c>
       <c r="D152">
-        <v>0.6261919705059977</v>
+        <v>0.7430569597091328</v>
       </c>
       <c r="E152">
         <v>0.2579036767266529</v>
@@ -20205,7 +20205,7 @@
         <v>0.9177932298505606</v>
       </c>
       <c r="D153">
-        <v>0.640226637299371</v>
+        <v>0.7465315257831424</v>
       </c>
       <c r="E153">
         <v>0.2676654617968875</v>
@@ -20231,7 +20231,7 @@
         <v>0.8278267296801768</v>
       </c>
       <c r="D154">
-        <v>0.5012365227918897</v>
+        <v>0.6380776906604457</v>
       </c>
       <c r="E154">
         <v>0.3873659181564956</v>
@@ -20257,7 +20257,7 @@
         <v>0.8182009374827511</v>
       </c>
       <c r="D155">
-        <v>0.6340390808995656</v>
+        <v>0.7060182240882402</v>
       </c>
       <c r="E155">
         <v>0.3980470069097583</v>
@@ -20283,7 +20283,7 @@
         <v>0.8494225472618232</v>
       </c>
       <c r="D156">
-        <v>0.6312319212594907</v>
+        <v>0.7093726554411811</v>
       </c>
       <c r="E156">
         <v>0.3622584428290728</v>
@@ -20309,7 +20309,7 @@
         <v>0.8590566835210878</v>
       </c>
       <c r="D157">
-        <v>0.7212096228833624</v>
+        <v>0.7624644668913669</v>
       </c>
       <c r="E157">
         <v>0.350478019607698</v>
@@ -20335,7 +20335,7 @@
         <v>0.8665063367741996</v>
       </c>
       <c r="D158">
-        <v>0.7075682612401841</v>
+        <v>0.7541013264422874</v>
       </c>
       <c r="E158">
         <v>0.3410899067580317</v>
@@ -20361,7 +20361,7 @@
         <v>0.8764958650400531</v>
       </c>
       <c r="D159">
-        <v>0.6851171902142721</v>
+        <v>0.7309091006378436</v>
       </c>
       <c r="E159">
         <v>0.3280796492802319</v>
@@ -20387,7 +20387,7 @@
         <v>0.8989527146344017</v>
       </c>
       <c r="D160">
-        <v>0.6704989315938379</v>
+        <v>0.7257410799622861</v>
       </c>
       <c r="E160">
         <v>0.2967569291085542</v>
@@ -20413,7 +20413,7 @@
         <v>0.9013397424109437</v>
       </c>
       <c r="D161">
-        <v>0.6634806901288242</v>
+        <v>0.7288630394125586</v>
       </c>
       <c r="E161">
         <v>0.2932308541565022</v>
@@ -20439,7 +20439,7 @@
         <v>0.8990272193112371</v>
       </c>
       <c r="D162">
-        <v>0.6485478451685562</v>
+        <v>0.7226092078086341</v>
       </c>
       <c r="E162">
         <v>0.2966475058021903</v>
@@ -20465,7 +20465,7 @@
         <v>0.9045543020946043</v>
       </c>
       <c r="D163">
-        <v>0.6498476963869992</v>
+        <v>0.7108373620816908</v>
       </c>
       <c r="E163">
         <v>0.2884142550722356</v>
@@ -20491,7 +20491,7 @@
         <v>0.8999055518932981</v>
       </c>
       <c r="D164">
-        <v>0.6216964068715625</v>
+        <v>0.6928396358230615</v>
       </c>
       <c r="E164">
         <v>0.2953544629191814</v>
@@ -20517,7 +20517,7 @@
         <v>0.9041230549411055</v>
       </c>
       <c r="D165">
-        <v>0.6181326600199795</v>
+        <v>0.7009368236931062</v>
       </c>
       <c r="E165">
         <v>0.2890650840427562</v>
@@ -20543,7 +20543,7 @@
         <v>0.9065147037083303</v>
       </c>
       <c r="D166">
-        <v>0.6373386809804198</v>
+        <v>0.7122539419208489</v>
       </c>
       <c r="E166">
         <v>0.2854369534324192</v>
@@ -20569,7 +20569,7 @@
         <v>0.9109113425885201</v>
       </c>
       <c r="D167">
-        <v>0.6581069880814104</v>
+        <v>0.7208535330468647</v>
       </c>
       <c r="E167">
         <v>0.2786440346899819</v>
@@ -20595,7 +20595,7 @@
         <v>0.907942493896539</v>
       </c>
       <c r="D168">
-        <v>0.6376177703755613</v>
+        <v>0.7208231643996884</v>
       </c>
       <c r="E168">
         <v>0.2832488437036793</v>
@@ -20621,7 +20621,7 @@
         <v>0.9128261172972215</v>
       </c>
       <c r="D169">
-        <v>0.6420421719464939</v>
+        <v>0.7319886999814198</v>
       </c>
       <c r="E169">
         <v>0.2756333337235845</v>
@@ -20647,7 +20647,7 @@
         <v>0.9166499825420312</v>
       </c>
       <c r="D170">
-        <v>0.6563647680183831</v>
+        <v>0.7394541971765554</v>
       </c>
       <c r="E170">
         <v>0.2695202435979568</v>
@@ -20673,7 +20673,7 @@
         <v>0.9193599153303258</v>
       </c>
       <c r="D171">
-        <v>0.6561619855191521</v>
+        <v>0.7410296206686908</v>
       </c>
       <c r="E171">
         <v>0.2651026264769277</v>
@@ -20699,7 +20699,7 @@
         <v>0.913812748113334</v>
       </c>
       <c r="D172">
-        <v>0.6598022947642908</v>
+        <v>0.7409747914721261</v>
       </c>
       <c r="E172">
         <v>0.2740690911237175</v>
@@ -20725,7 +20725,7 @@
         <v>0.8113972097979569</v>
       </c>
       <c r="D173">
-        <v>0.4989876151979216</v>
+        <v>0.5939143064769387</v>
       </c>
       <c r="E173">
         <v>0.4054269363857049</v>
@@ -20751,7 +20751,7 @@
         <v>0.8175993836904201</v>
       </c>
       <c r="D174">
-        <v>0.5144995417342328</v>
+        <v>0.670003831836361</v>
       </c>
       <c r="E174">
         <v>0.3987050106814367</v>
@@ -20777,7 +20777,7 @@
         <v>0.8629772238128331</v>
       </c>
       <c r="D175">
-        <v>0.5110135049836475</v>
+        <v>0.6429285742442035</v>
       </c>
       <c r="E175">
         <v>0.345569117679133</v>
@@ -20803,7 +20803,7 @@
         <v>0.8785611794170374</v>
       </c>
       <c r="D176">
-        <v>0.4833731260389055</v>
+        <v>0.6508887667460068</v>
       </c>
       <c r="E176">
         <v>0.3253249062300516</v>
@@ -20829,7 +20829,7 @@
         <v>0.8832656397221085</v>
       </c>
       <c r="D177">
-        <v>0.4380040151845128</v>
+        <v>0.6205144252033501</v>
       </c>
       <c r="E177">
         <v>0.3189612295200918</v>
@@ -20855,7 +20855,7 @@
         <v>0.8863738051498273</v>
       </c>
       <c r="D178">
-        <v>0.4494154645814195</v>
+        <v>0.6063368805332512</v>
       </c>
       <c r="E178">
         <v>0.3146862553406813</v>
@@ -20881,7 +20881,7 @@
         <v>0.9041196827902722</v>
       </c>
       <c r="D179">
-        <v>0.4377824411013073</v>
+        <v>0.6004265376735536</v>
       </c>
       <c r="E179">
         <v>0.2890701674467617</v>
@@ -20907,7 +20907,7 @@
         <v>0.9031968503168966</v>
       </c>
       <c r="D180">
-        <v>0.3319776817112504</v>
+        <v>0.5660508332157456</v>
       </c>
       <c r="E180">
         <v>0.2904579628122881</v>
@@ -20933,7 +20933,7 @@
         <v>0.905333555127153</v>
       </c>
       <c r="D181">
-        <v>0.3893567626041802</v>
+        <v>0.5941923423596763</v>
       </c>
       <c r="E181">
         <v>0.2872344832212658</v>
@@ -20959,7 +20959,7 @@
         <v>0.91021479609305</v>
       </c>
       <c r="D182">
-        <v>0.4313587534605481</v>
+        <v>0.6005763941552646</v>
       </c>
       <c r="E182">
         <v>0.2797312136493829</v>
@@ -20985,7 +20985,7 @@
         <v>0.9079647141762817</v>
       </c>
       <c r="D183">
-        <v>0.3882279094387352</v>
+        <v>0.578196253261436</v>
       </c>
       <c r="E183">
         <v>0.2832146572008614</v>
@@ -21011,7 +21011,7 @@
         <v>0.9136228789761094</v>
       </c>
       <c r="D184">
-        <v>0.4102373996464479</v>
+        <v>0.6012448222711334</v>
       </c>
       <c r="E184">
         <v>0.2743708099565138</v>
@@ -21037,7 +21037,7 @@
         <v>0.912121437031066</v>
       </c>
       <c r="D185">
-        <v>0.418061281935318</v>
+        <v>0.6003565564771981</v>
       </c>
       <c r="E185">
         <v>0.2767451485038334</v>
@@ -21063,7 +21063,7 @@
         <v>0.911193093558501</v>
       </c>
       <c r="D186">
-        <v>0.4520183983163651</v>
+        <v>0.61579479438409</v>
       </c>
       <c r="E186">
         <v>0.2782030672310771</v>
@@ -21089,7 +21089,7 @@
         <v>0.9077589405951371</v>
       </c>
       <c r="D187">
-        <v>0.4230737374040395</v>
+        <v>0.6150003073147441</v>
       </c>
       <c r="E187">
         <v>0.2835310877708054</v>
@@ -21115,7 +21115,7 @@
         <v>0.9133596986865031</v>
       </c>
       <c r="D188">
-        <v>0.4394271140659896</v>
+        <v>0.6301086315822408</v>
       </c>
       <c r="E188">
         <v>0.2747884788314547</v>
@@ -21141,7 +21141,7 @@
         <v>0.9135296874400529</v>
       </c>
       <c r="D189">
-        <v>0.4657788576467697</v>
+        <v>0.6354057465163768</v>
       </c>
       <c r="E189">
         <v>0.2745187782152951</v>
@@ -21167,7 +21167,7 @@
         <v>0.9176732061590158</v>
       </c>
       <c r="D190">
-        <v>0.4310939328076202</v>
+        <v>0.6186365046370873</v>
       </c>
       <c r="E190">
         <v>0.2678607892564118</v>
@@ -21193,7 +21193,7 @@
         <v>0.9142164211331826</v>
       </c>
       <c r="D191">
-        <v>0.4436450907351387</v>
+        <v>0.621491540919595</v>
       </c>
       <c r="E191">
         <v>0.273426512649216</v>
@@ -21219,7 +21219,7 @@
         <v>0.8845002687069056</v>
       </c>
       <c r="D192">
-        <v>0.7149461698574766</v>
+        <v>0.7907864875900451</v>
       </c>
       <c r="E192">
         <v>0.3172700155359747</v>
@@ -21245,7 +21245,7 @@
         <v>0.8741536781361736</v>
       </c>
       <c r="D193">
-        <v>0.6475896874398811</v>
+        <v>0.7797149149475179</v>
       </c>
       <c r="E193">
         <v>0.3311759618745994</v>
@@ -21271,7 +21271,7 @@
         <v>0.890389744421702</v>
       </c>
       <c r="D194">
-        <v>0.6153037065634236</v>
+        <v>0.7447782912562879</v>
       </c>
       <c r="E194">
         <v>0.3090751851874603</v>
@@ -21297,7 +21297,7 @@
         <v>0.8985642375112618</v>
       </c>
       <c r="D195">
-        <v>0.5154969233668524</v>
+        <v>0.7086237228802272</v>
       </c>
       <c r="E195">
         <v>0.2973268241249097</v>
@@ -21323,7 +21323,7 @@
         <v>0.9006822153044818</v>
       </c>
       <c r="D196">
-        <v>0.4747569551854454</v>
+        <v>0.6897923306156176</v>
       </c>
       <c r="E196">
         <v>0.2942063586909558</v>
@@ -21349,7 +21349,7 @@
         <v>0.9020095569465543</v>
       </c>
       <c r="D197">
-        <v>0.4374845699381129</v>
+        <v>0.6616785932171851</v>
       </c>
       <c r="E197">
         <v>0.2922337718864287</v>
@@ -21375,7 +21375,7 @@
         <v>0.913155728567267</v>
       </c>
       <c r="D198">
-        <v>0.4821383438588241</v>
+        <v>0.6862080821711245</v>
       </c>
       <c r="E198">
         <v>0.2751117446156412</v>
@@ -21401,7 +21401,7 @@
         <v>0.9137887273750647</v>
       </c>
       <c r="D199">
-        <v>0.328858575530351</v>
+        <v>0.6449859187300118</v>
       </c>
       <c r="E199">
         <v>0.2741072805492088</v>
@@ -21427,7 +21427,7 @@
         <v>0.919105013737562</v>
       </c>
       <c r="D200">
-        <v>0.2939113595273675</v>
+        <v>0.6266872458792137</v>
       </c>
       <c r="E200">
         <v>0.2655212877754334</v>
@@ -21453,7 +21453,7 @@
         <v>0.9242444596586605</v>
       </c>
       <c r="D201">
-        <v>0.3586064461547432</v>
+        <v>0.6381755414583571</v>
       </c>
       <c r="E201">
         <v>0.2569482966643412</v>
@@ -21479,7 +21479,7 @@
         <v>0.9217502584131263</v>
       </c>
       <c r="D202">
-        <v>0.3064606385464054</v>
+        <v>0.6087145930909381</v>
       </c>
       <c r="E202">
         <v>0.2611439680836558</v>
@@ -21505,7 +21505,7 @@
         <v>0.9243359779299187</v>
       </c>
       <c r="D203">
-        <v>0.3368967611303864</v>
+        <v>0.6269214188009</v>
       </c>
       <c r="E203">
         <v>0.2567930435290349</v>
@@ -21531,7 +21531,7 @@
         <v>0.9239817920993</v>
       </c>
       <c r="D204">
-        <v>0.3700306421912197</v>
+        <v>0.6402904008607125</v>
       </c>
       <c r="E204">
         <v>0.2573933702460767</v>
@@ -21557,7 +21557,7 @@
         <v>0.9220108911401841</v>
       </c>
       <c r="D205">
-        <v>0.4077370825238712</v>
+        <v>0.6506293478833423</v>
       </c>
       <c r="E205">
         <v>0.260708698693556</v>
@@ -21583,7 +21583,7 @@
         <v>0.9172819714595463</v>
       </c>
       <c r="D206">
-        <v>0.4086524587261373</v>
+        <v>0.652725197870708</v>
       </c>
       <c r="E206">
         <v>0.2684965010437765</v>
@@ -21609,7 +21609,7 @@
         <v>0.9219258181893579</v>
       </c>
       <c r="D207">
-        <v>0.4218091365585112</v>
+        <v>0.6626590367704375</v>
       </c>
       <c r="E207">
         <v>0.2608508545244674</v>
@@ -21635,7 +21635,7 @@
         <v>0.9223144007711322</v>
       </c>
       <c r="D208">
-        <v>0.4577828135671735</v>
+        <v>0.6682263156864697</v>
       </c>
       <c r="E208">
         <v>0.2602009051226145</v>
@@ -21661,7 +21661,7 @@
         <v>0.9245772193644497</v>
       </c>
       <c r="D209">
-        <v>0.4693421366438523</v>
+        <v>0.6681740914556791</v>
       </c>
       <c r="E209">
         <v>0.2563833469661996</v>
@@ -21687,7 +21687,7 @@
         <v>0.9205354729114432</v>
       </c>
       <c r="D210">
-        <v>0.4937149649404292</v>
+        <v>0.6792727345721163</v>
       </c>
       <c r="E210">
         <v>0.2631632217154947</v>
@@ -21713,7 +21713,7 @@
         <v>0.8769690273955795</v>
       </c>
       <c r="D211">
-        <v>0.6885660977047984</v>
+        <v>0.7336126144209969</v>
       </c>
       <c r="E211">
         <v>0.327450585698178</v>
@@ -21739,7 +21739,7 @@
         <v>0.8663100900261416</v>
       </c>
       <c r="D212">
-        <v>0.6767359291349008</v>
+        <v>0.7750021340208145</v>
       </c>
       <c r="E212">
         <v>0.3413405298978239</v>
@@ -21765,7 +21765,7 @@
         <v>0.8877763142451477</v>
       </c>
       <c r="D213">
-        <v>0.6295453444888951</v>
+        <v>0.7313506039724833</v>
       </c>
       <c r="E213">
         <v>0.3127381098288188</v>
@@ -21791,7 +21791,7 @@
         <v>0.8998937503944351</v>
       </c>
       <c r="D214">
-        <v>0.5987332337237545</v>
+        <v>0.7265919138366164</v>
       </c>
       <c r="E214">
         <v>0.2953718740877744</v>
@@ -21817,7 +21817,7 @@
         <v>0.8985984385568399</v>
       </c>
       <c r="D215">
-        <v>0.5235079503886426</v>
+        <v>0.6772818442783254</v>
       </c>
       <c r="E215">
         <v>0.2972766951303705</v>
@@ -21843,7 +21843,7 @@
         <v>0.9042428261189057</v>
       </c>
       <c r="D216">
-        <v>0.5216892991463151</v>
+        <v>0.6756451312283106</v>
       </c>
       <c r="E216">
         <v>0.2888844750088859</v>
@@ -21869,7 +21869,7 @@
         <v>0.915842539749533</v>
       </c>
       <c r="D217">
-        <v>0.5358270864034538</v>
+        <v>0.684345671721202</v>
       </c>
       <c r="E217">
         <v>0.2708225688726619</v>
@@ -21895,7 +21895,7 @@
         <v>0.9202640071636821</v>
       </c>
       <c r="D218">
-        <v>0.4351535081591226</v>
+        <v>0.6416802865602222</v>
       </c>
       <c r="E218">
         <v>0.2636123459626991</v>
@@ -21921,7 +21921,7 @@
         <v>0.9250641965539174</v>
       </c>
       <c r="D219">
-        <v>0.469113146557343</v>
+        <v>0.6558571763591512</v>
       </c>
       <c r="E219">
         <v>0.2555543200716757</v>
@@ -21947,7 +21947,7 @@
         <v>0.9301746893580868</v>
       </c>
       <c r="D220">
-        <v>0.4852782133466543</v>
+        <v>0.6537180412377896</v>
       </c>
       <c r="E220">
         <v>0.2466862716260008</v>
@@ -21973,7 +21973,7 @@
         <v>0.9285260143719289</v>
       </c>
       <c r="D221">
-        <v>0.4338780737044817</v>
+        <v>0.62763411757925</v>
       </c>
       <c r="E221">
         <v>0.2495815877274623</v>
@@ -21999,7 +21999,7 @@
         <v>0.9307669563473094</v>
       </c>
       <c r="D222">
-        <v>0.4535055467030422</v>
+        <v>0.6468375087283608</v>
       </c>
       <c r="E222">
         <v>0.2456378317882741</v>
@@ -22025,7 +22025,7 @@
         <v>0.9289310148182289</v>
       </c>
       <c r="D223">
-        <v>0.4762855514186484</v>
+        <v>0.6560174981853162</v>
       </c>
       <c r="E223">
         <v>0.2488734681815561</v>
@@ -22051,7 +22051,7 @@
         <v>0.930255603667496</v>
       </c>
       <c r="D224">
-        <v>0.5058575495475032</v>
+        <v>0.6618951375284988</v>
       </c>
       <c r="E224">
         <v>0.2465432988624448</v>
@@ -22077,7 +22077,7 @@
         <v>0.9286905995145494</v>
       </c>
       <c r="D225">
-        <v>0.5188682991195274</v>
+        <v>0.6618977788956188</v>
       </c>
       <c r="E225">
         <v>0.2492940628633611</v>
@@ -22103,7 +22103,7 @@
         <v>0.9324728965153524</v>
       </c>
       <c r="D226">
-        <v>0.5123849440107296</v>
+        <v>0.6646054775687065</v>
       </c>
       <c r="E226">
         <v>0.2425926304770377</v>
@@ -22129,7 +22129,7 @@
         <v>0.9322358161530536</v>
       </c>
       <c r="D227">
-        <v>0.5294043681410728</v>
+        <v>0.6646087956170916</v>
       </c>
       <c r="E227">
         <v>0.24301811559981</v>
@@ -22155,7 +22155,7 @@
         <v>0.9345617789023755</v>
       </c>
       <c r="D228">
-        <v>0.5182513411687524</v>
+        <v>0.6582733474593541</v>
       </c>
       <c r="E228">
         <v>0.2388109769760987</v>
@@ -22181,7 +22181,7 @@
         <v>0.9286534286584638</v>
       </c>
       <c r="D229">
-        <v>0.5217572886543707</v>
+        <v>0.6621182232848678</v>
       </c>
       <c r="E229">
         <v>0.2493590281163354</v>
@@ -22207,7 +22207,7 @@
         <v>0.8769690273955795</v>
       </c>
       <c r="D230">
-        <v>0.6885660977047984</v>
+        <v>0.7336126144209969</v>
       </c>
       <c r="E230">
         <v>0.327450585698178</v>
@@ -22233,7 +22233,7 @@
         <v>0.8663100900261416</v>
       </c>
       <c r="D231">
-        <v>0.6767359291349008</v>
+        <v>0.7750021340208145</v>
       </c>
       <c r="E231">
         <v>0.3413405298978239</v>
@@ -22259,7 +22259,7 @@
         <v>0.8877763142451477</v>
       </c>
       <c r="D232">
-        <v>0.6295453444888951</v>
+        <v>0.7313506039724833</v>
       </c>
       <c r="E232">
         <v>0.3127381098288188</v>
@@ -22285,7 +22285,7 @@
         <v>0.8998937503944351</v>
       </c>
       <c r="D233">
-        <v>0.5987332337237545</v>
+        <v>0.7265919138366164</v>
       </c>
       <c r="E233">
         <v>0.2953718740877744</v>
@@ -22311,7 +22311,7 @@
         <v>0.8985984385568399</v>
       </c>
       <c r="D234">
-        <v>0.5235079503886426</v>
+        <v>0.6772818442783254</v>
       </c>
       <c r="E234">
         <v>0.2972766951303705</v>
@@ -22337,7 +22337,7 @@
         <v>0.9042428261189057</v>
       </c>
       <c r="D235">
-        <v>0.5216892991463151</v>
+        <v>0.6756451312283106</v>
       </c>
       <c r="E235">
         <v>0.2888844750088859</v>
@@ -22363,7 +22363,7 @@
         <v>0.915842539749533</v>
       </c>
       <c r="D236">
-        <v>0.5358270864034538</v>
+        <v>0.684345671721202</v>
       </c>
       <c r="E236">
         <v>0.2708225688726619</v>
@@ -22389,7 +22389,7 @@
         <v>0.9202640071636821</v>
       </c>
       <c r="D237">
-        <v>0.4351535081591226</v>
+        <v>0.6416802865602222</v>
       </c>
       <c r="E237">
         <v>0.2636123459626991</v>
@@ -22415,7 +22415,7 @@
         <v>0.9250641965539174</v>
       </c>
       <c r="D238">
-        <v>0.469113146557343</v>
+        <v>0.6558571763591512</v>
       </c>
       <c r="E238">
         <v>0.2555543200716757</v>
@@ -22441,7 +22441,7 @@
         <v>0.9301746893580868</v>
       </c>
       <c r="D239">
-        <v>0.4852782133466543</v>
+        <v>0.6537180412377896</v>
       </c>
       <c r="E239">
         <v>0.2466862716260008</v>
@@ -22467,7 +22467,7 @@
         <v>0.9285260143719289</v>
       </c>
       <c r="D240">
-        <v>0.4338780737044817</v>
+        <v>0.62763411757925</v>
       </c>
       <c r="E240">
         <v>0.2495815877274623</v>
@@ -22493,7 +22493,7 @@
         <v>0.9307669563473094</v>
       </c>
       <c r="D241">
-        <v>0.4535055467030422</v>
+        <v>0.6468375087283608</v>
       </c>
       <c r="E241">
         <v>0.2456378317882741</v>
@@ -22519,7 +22519,7 @@
         <v>0.9289310148182289</v>
       </c>
       <c r="D242">
-        <v>0.4762855514186484</v>
+        <v>0.6560174981853162</v>
       </c>
       <c r="E242">
         <v>0.2488734681815561</v>
@@ -22545,7 +22545,7 @@
         <v>0.930255603667496</v>
       </c>
       <c r="D243">
-        <v>0.5058575495475032</v>
+        <v>0.6618951375284988</v>
       </c>
       <c r="E243">
         <v>0.2465432988624448</v>
@@ -22571,7 +22571,7 @@
         <v>0.9286905995145494</v>
       </c>
       <c r="D244">
-        <v>0.5188682991195274</v>
+        <v>0.6618977788956188</v>
       </c>
       <c r="E244">
         <v>0.2492940628633611</v>
@@ -22597,7 +22597,7 @@
         <v>0.9324728965153524</v>
       </c>
       <c r="D245">
-        <v>0.5123849440107296</v>
+        <v>0.6646054775687065</v>
       </c>
       <c r="E245">
         <v>0.2425926304770377</v>
@@ -22623,7 +22623,7 @@
         <v>0.9322358161530536</v>
       </c>
       <c r="D246">
-        <v>0.5294043681410728</v>
+        <v>0.6646087956170916</v>
       </c>
       <c r="E246">
         <v>0.24301811559981</v>
@@ -22649,7 +22649,7 @@
         <v>0.9345617789023755</v>
       </c>
       <c r="D247">
-        <v>0.5182513411687524</v>
+        <v>0.6582733474593541</v>
       </c>
       <c r="E247">
         <v>0.2388109769760987</v>
@@ -22675,7 +22675,7 @@
         <v>0.9286534286584638</v>
       </c>
       <c r="D248">
-        <v>0.5217572886543707</v>
+        <v>0.6621182232848678</v>
       </c>
       <c r="E248">
         <v>0.2493590281163354</v>
@@ -22701,7 +22701,7 @@
         <v>0.8784208401136807</v>
       </c>
       <c r="D249">
-        <v>0.2770724893081885</v>
+        <v>0.3786377388620326</v>
       </c>
       <c r="E249">
         <v>0.3255128308479306</v>
@@ -22727,7 +22727,7 @@
         <v>0.8740984477976689</v>
       </c>
       <c r="D250">
-        <v>0.3647138528075567</v>
+        <v>0.5552257668457572</v>
       </c>
       <c r="E250">
         <v>0.3312486257149244</v>
@@ -22753,7 +22753,7 @@
         <v>0.8948899341771749</v>
       </c>
       <c r="D251">
-        <v>0.4413540282557459</v>
+        <v>0.5979844636756464</v>
       </c>
       <c r="E251">
         <v>0.3026639509090928</v>
@@ -22779,7 +22779,7 @@
         <v>0.8860671404599859</v>
       </c>
       <c r="D252">
-        <v>0.3755784501596785</v>
+        <v>0.596051986508602</v>
       </c>
       <c r="E252">
         <v>0.3151106211212248</v>
@@ -22805,7 +22805,7 @@
         <v>0.8891294643774617</v>
       </c>
       <c r="D253">
-        <v>0.4696154236926994</v>
+        <v>0.6362489194449439</v>
       </c>
       <c r="E253">
         <v>0.3108469537807237</v>
@@ -22831,7 +22831,7 @@
         <v>0.8976168316368252</v>
       </c>
       <c r="D254">
-        <v>0.4040825666753519</v>
+        <v>0.5971610328434765</v>
       </c>
       <c r="E254">
         <v>0.2987121072113537</v>
@@ -22857,7 +22857,7 @@
         <v>0.914854444483636</v>
       </c>
       <c r="D255">
-        <v>0.4552862840106149</v>
+        <v>0.6295413269665805</v>
       </c>
       <c r="E255">
         <v>0.2724077973507012</v>
@@ -22883,7 +22883,7 @@
         <v>0.9092581893225948</v>
       </c>
       <c r="D256">
-        <v>0.3927161840491215</v>
+        <v>0.6161069628437924</v>
       </c>
       <c r="E256">
         <v>0.2812174484275</v>
@@ -22909,7 +22909,7 @@
         <v>0.915156408504438</v>
       </c>
       <c r="D257">
-        <v>0.3553957012930674</v>
+        <v>0.5951241636554103</v>
       </c>
       <c r="E257">
         <v>0.271924328699938</v>
@@ -22935,7 +22935,7 @@
         <v>0.9196156911365252</v>
       </c>
       <c r="D258">
-        <v>0.3902667143365733</v>
+        <v>0.5983679561451052</v>
       </c>
       <c r="E258">
         <v>0.264681863704316</v>
@@ -22961,7 +22961,7 @@
         <v>0.9191474027348502</v>
       </c>
       <c r="D259">
-        <v>0.3701369840090412</v>
+        <v>0.5848406871110889</v>
       </c>
       <c r="E259">
         <v>0.2654517120422293</v>
@@ -22987,7 +22987,7 @@
         <v>0.9200692223844666</v>
       </c>
       <c r="D260">
-        <v>0.390510583937082</v>
+        <v>0.6039213958337624</v>
       </c>
       <c r="E260">
         <v>0.2639341350950926</v>
@@ -23013,7 +23013,7 @@
         <v>0.9204548529145784</v>
       </c>
       <c r="D261">
-        <v>0.4221927176021746</v>
+        <v>0.6181384457880417</v>
       </c>
       <c r="E261">
         <v>0.2632966827731236</v>
@@ -23039,7 +23039,7 @@
         <v>0.9227944555662208</v>
       </c>
       <c r="D262">
-        <v>0.4604498488796303</v>
+        <v>0.6265856967942869</v>
       </c>
       <c r="E262">
         <v>0.2593957091659451</v>
@@ -23065,7 +23065,7 @@
         <v>0.9216825311233772</v>
       </c>
       <c r="D263">
-        <v>0.4454865074357636</v>
+        <v>0.6317917332386864</v>
       </c>
       <c r="E263">
         <v>0.2612569572605927</v>
@@ -23091,7 +23091,7 @@
         <v>0.9254048813265456</v>
       </c>
       <c r="D264">
-        <v>0.4474641368625066</v>
+        <v>0.6380273965903849</v>
       </c>
       <c r="E264">
         <v>0.2549727379549745</v>
@@ -23117,7 +23117,7 @@
         <v>0.9270536816087181</v>
       </c>
       <c r="D265">
-        <v>0.4776731042117255</v>
+        <v>0.644548628883858</v>
       </c>
       <c r="E265">
         <v>0.2521391194926285</v>
@@ -23143,7 +23143,7 @@
         <v>0.9308869803288127</v>
       </c>
       <c r="D266">
-        <v>0.4694265360436729</v>
+        <v>0.6406798020127996</v>
       </c>
       <c r="E266">
         <v>0.2454248177565039</v>
@@ -23169,7 +23169,7 @@
         <v>0.9256460448968562</v>
       </c>
       <c r="D267">
-        <v>0.4667686510760647</v>
+        <v>0.6361023613770638</v>
       </c>
       <c r="E267">
         <v>0.254560245044518</v>
@@ -23195,7 +23195,7 @@
         <v>0.8776206295818276</v>
       </c>
       <c r="D268">
-        <v>0.07055686359624846</v>
+        <v>0.2352388637012892</v>
       </c>
       <c r="E268">
         <v>0.3265823052347911</v>
@@ -23221,7 +23221,7 @@
         <v>0.8707390539487614</v>
       </c>
       <c r="D269">
-        <v>0.1997183111865311</v>
+        <v>0.4592908427774276</v>
       </c>
       <c r="E269">
         <v>0.335638837340269</v>
@@ -23247,7 +23247,7 @@
         <v>0.8875840419377301</v>
       </c>
       <c r="D270">
-        <v>0.2927134583337219</v>
+        <v>0.5050692516601837</v>
       </c>
       <c r="E270">
         <v>0.3130059015349226</v>
@@ -23273,7 +23273,7 @@
         <v>0.8954605475412531</v>
       </c>
       <c r="D271">
-        <v>0.2315953002950374</v>
+        <v>0.4955655935217606</v>
       </c>
       <c r="E271">
         <v>0.3018412936169817</v>
@@ -23299,7 +23299,7 @@
         <v>0.8970753234155677</v>
       </c>
       <c r="D272">
-        <v>0.3267802408042543</v>
+        <v>0.5421798335433603</v>
       </c>
       <c r="E272">
         <v>0.2995010149298248</v>
@@ -23325,7 +23325,7 @@
         <v>0.90299442254977</v>
       </c>
       <c r="D273">
-        <v>0.3253134373352529</v>
+        <v>0.5302215273181116</v>
       </c>
       <c r="E273">
         <v>0.2907614965881022</v>
@@ -23351,7 +23351,7 @@
         <v>0.9167573672433402</v>
       </c>
       <c r="D274">
-        <v>0.3878713151506533</v>
+        <v>0.5775217927398</v>
       </c>
       <c r="E274">
         <v>0.2693465682960246</v>
@@ -23377,7 +23377,7 @@
         <v>0.9184723792434517</v>
       </c>
       <c r="D275">
-        <v>0.2720676336223</v>
+        <v>0.5543450055480305</v>
       </c>
       <c r="E275">
         <v>0.2665575126137654</v>
@@ -23403,7 +23403,7 @@
         <v>0.9234809574081418</v>
       </c>
       <c r="D276">
-        <v>0.330348286115418</v>
+        <v>0.5717125916642806</v>
       </c>
       <c r="E276">
         <v>0.2582398772909325</v>
@@ -23429,7 +23429,7 @@
         <v>0.9288081535622766</v>
       </c>
       <c r="D277">
-        <v>0.3658709686481754</v>
+        <v>0.5724542607479981</v>
       </c>
       <c r="E277">
         <v>0.249088496601963</v>
@@ -23455,7 +23455,7 @@
         <v>0.9258825895525633</v>
       </c>
       <c r="D278">
-        <v>0.3293151521574017</v>
+        <v>0.5465572220764943</v>
       </c>
       <c r="E278">
         <v>0.2541550020911005</v>
@@ -23481,7 +23481,7 @@
         <v>0.927412000788491</v>
       </c>
       <c r="D279">
-        <v>0.3563078445063118</v>
+        <v>0.5728558482720092</v>
       </c>
       <c r="E279">
         <v>0.2515190916065632</v>
@@ -23507,7 +23507,7 @@
         <v>0.9257045325042832</v>
       </c>
       <c r="D280">
-        <v>0.3870619594788018</v>
+        <v>0.5936312218020314</v>
       </c>
       <c r="E280">
         <v>0.2544601054574806</v>
@@ -23533,7 +23533,7 @@
         <v>0.9268468364526269</v>
       </c>
       <c r="D281">
-        <v>0.4195284467035534</v>
+        <v>0.5927671349764576</v>
       </c>
       <c r="E281">
         <v>0.252496346817187</v>
@@ -23559,7 +23559,7 @@
         <v>0.9256588048648169</v>
       </c>
       <c r="D282">
-        <v>0.4596480924215908</v>
+        <v>0.6111175133144471</v>
       </c>
       <c r="E282">
         <v>0.2545384014187532</v>
@@ -23585,7 +23585,7 @@
         <v>0.9285562500341334</v>
       </c>
       <c r="D283">
-        <v>0.4722830249727877</v>
+        <v>0.6279752400193468</v>
       </c>
       <c r="E283">
         <v>0.2495287918552565</v>
@@ -23611,7 +23611,7 @@
         <v>0.9310100685667798</v>
       </c>
       <c r="D284">
-        <v>0.4949445587358806</v>
+        <v>0.634362587402828</v>
       </c>
       <c r="E284">
         <v>0.2452061732030036</v>
@@ -23637,7 +23637,7 @@
         <v>0.9319747497233566</v>
       </c>
       <c r="D285">
-        <v>0.4832459155676287</v>
+        <v>0.6272554170123463</v>
       </c>
       <c r="E285">
         <v>0.2434857880492413</v>
@@ -23663,7 +23663,7 @@
         <v>0.9281331162694724</v>
       </c>
       <c r="D286">
-        <v>0.5010152805534971</v>
+        <v>0.635092170092264</v>
       </c>
       <c r="E286">
         <v>0.2502666323589838</v>
@@ -23689,7 +23689,7 @@
         <v>0.8340580249388587</v>
       </c>
       <c r="D287">
-        <v>0.6264774637068877</v>
+        <v>0.6445538188733738</v>
       </c>
       <c r="E287">
         <v>0.3802915454061832</v>
@@ -23715,7 +23715,7 @@
         <v>0.8453371502987713</v>
       </c>
       <c r="D288">
-        <v>0.6454133884504745</v>
+        <v>0.6657115452117781</v>
       </c>
       <c r="E288">
         <v>0.3671398675324103</v>
@@ -23741,7 +23741,7 @@
         <v>0.857476220375758</v>
       </c>
       <c r="D289">
-        <v>0.6063636993186332</v>
+        <v>0.6339547978820734</v>
       </c>
       <c r="E289">
         <v>0.3524375783109405</v>
@@ -23767,7 +23767,7 @@
         <v>0.8857556265761417</v>
       </c>
       <c r="D290">
-        <v>0.535604849445561</v>
+        <v>0.6142140720110167</v>
       </c>
       <c r="E290">
         <v>0.3155411129367733</v>
@@ -23793,7 +23793,7 @@
         <v>0.8865456824911007</v>
       </c>
       <c r="D291">
-        <v>0.5627107096662722</v>
+        <v>0.6295023946557567</v>
       </c>
       <c r="E291">
         <v>0.3144481592468182</v>
@@ -23819,7 +23819,7 @@
         <v>0.888138871253207</v>
       </c>
       <c r="D292">
-        <v>0.5942311776854833</v>
+        <v>0.6428459971163691</v>
       </c>
       <c r="E292">
         <v>0.3122325252973823</v>
@@ -23845,7 +23845,7 @@
         <v>0.904253367315723</v>
       </c>
       <c r="D293">
-        <v>0.6220859808978128</v>
+        <v>0.6763203602653074</v>
       </c>
       <c r="E293">
         <v>0.2888685739970072</v>
@@ -23871,7 +23871,7 @@
         <v>0.9066174512287681</v>
       </c>
       <c r="D294">
-        <v>0.5843446068942909</v>
+        <v>0.6687683197844712</v>
       </c>
       <c r="E294">
         <v>0.2852800517419072</v>
@@ -23897,7 +23897,7 @@
         <v>0.9113865585388403</v>
       </c>
       <c r="D295">
-        <v>0.6275142111222678</v>
+        <v>0.6995171094674151</v>
       </c>
       <c r="E295">
         <v>0.2778998706778003</v>
@@ -23923,7 +23923,7 @@
         <v>0.9180533569544526</v>
       </c>
       <c r="D296">
-        <v>0.6438200501571596</v>
+        <v>0.6961267442933488</v>
       </c>
       <c r="E296">
         <v>0.2672416389849762</v>
@@ -23949,7 +23949,7 @@
         <v>0.9136759853137056</v>
       </c>
       <c r="D297">
-        <v>0.6557875673969071</v>
+        <v>0.6977082442745988</v>
       </c>
       <c r="E297">
         <v>0.274286452727519</v>
@@ -23975,7 +23975,7 @@
         <v>0.9160960383744143</v>
       </c>
       <c r="D298">
-        <v>0.6681527205964757</v>
+        <v>0.7217227004363965</v>
       </c>
       <c r="E298">
         <v>0.2704143761482208</v>
@@ -24001,7 +24001,7 @@
         <v>0.9187334944418867</v>
       </c>
       <c r="D299">
-        <v>0.6875786114575632</v>
+        <v>0.7354955011276474</v>
       </c>
       <c r="E299">
         <v>0.2661303074729678</v>
@@ -24027,7 +24027,7 @@
         <v>0.9221114835881523</v>
       </c>
       <c r="D300">
-        <v>0.6843673174331117</v>
+        <v>0.7254175269560668</v>
       </c>
       <c r="E300">
         <v>0.2605405099003869</v>
@@ -24053,7 +24053,7 @@
         <v>0.9200248773537671</v>
       </c>
       <c r="D301">
-        <v>0.6919395014827132</v>
+        <v>0.7343852966177096</v>
       </c>
       <c r="E301">
         <v>0.2640073393399114</v>
@@ -24079,7 +24079,7 @@
         <v>0.921935057049903</v>
       </c>
       <c r="D302">
-        <v>0.6998287703230746</v>
+        <v>0.752440971629857</v>
       </c>
       <c r="E302">
         <v>0.2608354202547014</v>
@@ -24105,7 +24105,7 @@
         <v>0.9237185374185193</v>
       </c>
       <c r="D303">
-        <v>0.7078817845451059</v>
+        <v>0.7507856647471824</v>
       </c>
       <c r="E303">
         <v>0.2578386678182717</v>
@@ -24131,7 +24131,7 @@
         <v>0.9249742021818756</v>
       </c>
       <c r="D304">
-        <v>0.7105154267968159</v>
+        <v>0.7525559593594799</v>
       </c>
       <c r="E304">
         <v>0.255707728380049</v>
@@ -24157,7 +24157,7 @@
         <v>0.9221951330657816</v>
       </c>
       <c r="D305">
-        <v>0.7102375827729592</v>
+        <v>0.7512150860440379</v>
       </c>
       <c r="E305">
         <v>0.2604005667276466</v>
@@ -24183,7 +24183,7 @@
         <v>0.8549991687731311</v>
       </c>
       <c r="D306">
-        <v>0.5125299184519603</v>
+        <v>0.5902422061563095</v>
       </c>
       <c r="E306">
         <v>0.3554870535842732</v>
@@ -24209,7 +24209,7 @@
         <v>0.8784978403824072</v>
       </c>
       <c r="D307">
-        <v>0.488735733397307</v>
+        <v>0.6309851720223376</v>
       </c>
       <c r="E307">
         <v>0.3254097352791895</v>
@@ -24235,7 +24235,7 @@
         <v>0.8755377197808478</v>
       </c>
       <c r="D308">
-        <v>0.4967351889428964</v>
+        <v>0.601046850488262</v>
       </c>
       <c r="E308">
         <v>0.3293498117580038</v>
@@ -24261,7 +24261,7 @@
         <v>0.9007396337807584</v>
       </c>
       <c r="D309">
-        <v>0.4370980807543295</v>
+        <v>0.5831888031251095</v>
       </c>
       <c r="E309">
         <v>0.2941213018043662</v>
@@ -24287,7 +24287,7 @@
         <v>0.898211917335737</v>
       </c>
       <c r="D310">
-        <v>0.4852286112988413</v>
+        <v>0.6070606174175457</v>
       </c>
       <c r="E310">
         <v>0.2978427340581355</v>
@@ -24313,7 +24313,7 @@
         <v>0.9006366748074479</v>
       </c>
       <c r="D311">
-        <v>0.5225504963041003</v>
+        <v>0.6334605363856322</v>
       </c>
       <c r="E311">
         <v>0.2942738026452626</v>
@@ -24339,7 +24339,7 @@
         <v>0.9129470521346256</v>
       </c>
       <c r="D312">
-        <v>0.5711390285957678</v>
+        <v>0.6673243531016055</v>
       </c>
       <c r="E312">
         <v>0.2754420766624233</v>
@@ -24365,7 +24365,7 @@
         <v>0.9119075998568851</v>
       </c>
       <c r="D313">
-        <v>0.5359210846382119</v>
+        <v>0.6605106966435528</v>
       </c>
       <c r="E313">
         <v>0.2770816494784598</v>
@@ -24391,7 +24391,7 @@
         <v>0.9157694538430687</v>
       </c>
       <c r="D314">
-        <v>0.5952465738743996</v>
+        <v>0.6950696630821364</v>
       </c>
       <c r="E314">
         <v>0.2709401402525793</v>
@@ -24417,7 +24417,7 @@
         <v>0.9231789073856931</v>
       </c>
       <c r="D315">
-        <v>0.6180689775396844</v>
+        <v>0.6938908739921704</v>
       </c>
       <c r="E315">
         <v>0.2587490612425343</v>
@@ -24443,7 +24443,7 @@
         <v>0.9190894738460441</v>
       </c>
       <c r="D316">
-        <v>0.6272358906708575</v>
+        <v>0.692760997109782</v>
       </c>
       <c r="E316">
         <v>0.2655467898124472</v>
@@ -24469,7 +24469,7 @@
         <v>0.9206135540434609</v>
       </c>
       <c r="D317">
-        <v>0.6424972074845123</v>
+        <v>0.7171065430557342</v>
       </c>
       <c r="E317">
         <v>0.2630338990284937</v>
@@ -24495,7 +24495,7 @@
         <v>0.9222597025321964</v>
       </c>
       <c r="D318">
-        <v>0.6416604075341159</v>
+        <v>0.7169467695079452</v>
       </c>
       <c r="E318">
         <v>0.2602924924118293</v>
@@ -24521,7 +24521,7 @@
         <v>0.92461418994406</v>
       </c>
       <c r="D319">
-        <v>0.6562619742065499</v>
+        <v>0.7210551463730539</v>
       </c>
       <c r="E319">
         <v>0.2563205025397565</v>
@@ -24547,7 +24547,7 @@
         <v>0.9225209184349239</v>
       </c>
       <c r="D320">
-        <v>0.6647927682187315</v>
+        <v>0.7303671158640905</v>
       </c>
       <c r="E320">
         <v>0.2598548188220315</v>
@@ -24573,7 +24573,7 @@
         <v>0.9249635857460865</v>
       </c>
       <c r="D321">
-        <v>0.6744721441747653</v>
+        <v>0.7493213136622148</v>
       </c>
       <c r="E321">
         <v>0.2557258195482178</v>
@@ -24599,7 +24599,7 @@
         <v>0.9267751927663621</v>
       </c>
       <c r="D322">
-        <v>0.6846705561453943</v>
+        <v>0.7483006215390151</v>
       </c>
       <c r="E322">
         <v>0.2526199596674104</v>
@@ -24625,7 +24625,7 @@
         <v>0.9286714551766525</v>
       </c>
       <c r="D323">
-        <v>0.6800653026451449</v>
+        <v>0.7443955499593287</v>
       </c>
       <c r="E323">
         <v>0.2493275244369006</v>
@@ -24651,7 +24651,7 @@
         <v>0.9269145874012112</v>
       </c>
       <c r="D324">
-        <v>0.678296088126392</v>
+        <v>0.7402030763815155</v>
       </c>
       <c r="E324">
         <v>0.2523793947340082</v>
@@ -24677,7 +24677,7 @@
         <v>0.8529524779912914</v>
       </c>
       <c r="D325">
-        <v>0.6751044995311783</v>
+        <v>0.6939401747643973</v>
       </c>
       <c r="E325">
         <v>0.3579871172246334</v>
@@ -24703,7 +24703,7 @@
         <v>0.8602014109183835</v>
       </c>
       <c r="D326">
-        <v>0.6254655073889346</v>
+        <v>0.6993559077522569</v>
       </c>
       <c r="E326">
         <v>0.349051844332356</v>
@@ -24729,7 +24729,7 @@
         <v>0.8657486185372267</v>
       </c>
       <c r="D327">
-        <v>0.5982574743184317</v>
+        <v>0.6689656795812543</v>
       </c>
       <c r="E327">
         <v>0.3420565606393258</v>
@@ -24755,7 +24755,7 @@
         <v>0.887847946854229</v>
       </c>
       <c r="D328">
-        <v>0.4863314032949342</v>
+        <v>0.6239408774569901</v>
       </c>
       <c r="E328">
         <v>0.3126382832075184</v>
@@ -24781,7 +24781,7 @@
         <v>0.888772822410157</v>
       </c>
       <c r="D329">
-        <v>0.5332448980983674</v>
+        <v>0.6486437374581736</v>
       </c>
       <c r="E329">
         <v>0.3113465096759366</v>
@@ -24807,7 +24807,7 @@
         <v>0.8925041348901127</v>
       </c>
       <c r="D330">
-        <v>0.5417561822784052</v>
+        <v>0.6726946831462775</v>
       </c>
       <c r="E330">
         <v>0.3060796263589078</v>
@@ -24833,7 +24833,7 @@
         <v>0.9088590283567644</v>
       </c>
       <c r="D331">
-        <v>0.5786277108156894</v>
+        <v>0.6839832742208403</v>
       </c>
       <c r="E331">
         <v>0.2818352885056942</v>
@@ -24859,7 +24859,7 @@
         <v>0.9091701068722035</v>
       </c>
       <c r="D332">
-        <v>0.5168701876867969</v>
+        <v>0.6684116833304043</v>
       </c>
       <c r="E332">
         <v>0.2813539032413611</v>
@@ -24885,7 +24885,7 @@
         <v>0.9132828460289053</v>
       </c>
       <c r="D333">
-        <v>0.5929831926372044</v>
+        <v>0.7102884353275165</v>
       </c>
       <c r="E333">
         <v>0.2749103248055554</v>
@@ -24911,7 +24911,7 @@
         <v>0.9186298855921248</v>
       </c>
       <c r="D334">
-        <v>0.5355742988341647</v>
+        <v>0.703867977642144</v>
       </c>
       <c r="E334">
         <v>0.2662999017721083</v>
@@ -24937,7 +24937,7 @@
         <v>0.9176000098861355</v>
       </c>
       <c r="D335">
-        <v>0.5654791741761589</v>
+        <v>0.7074034461598402</v>
       </c>
       <c r="E335">
         <v>0.2679798395343317</v>
@@ -24963,7 +24963,7 @@
         <v>0.9159913401368828</v>
       </c>
       <c r="D336">
-        <v>0.5849875240408255</v>
+        <v>0.732924187168402</v>
       </c>
       <c r="E336">
         <v>0.2705830397095202</v>
@@ -24989,7 +24989,7 @@
         <v>0.9214858255740496</v>
       </c>
       <c r="D337">
-        <v>0.5907168698466281</v>
+        <v>0.7362827949319679</v>
       </c>
       <c r="E337">
         <v>0.2615848436550167</v>
@@ -25015,7 +25015,7 @@
         <v>0.924538391119766</v>
       </c>
       <c r="D338">
-        <v>0.5919355464258932</v>
+        <v>0.7348967839849523</v>
       </c>
       <c r="E338">
         <v>0.2564493325633717</v>
@@ -25041,7 +25041,7 @@
         <v>0.92146512924809</v>
       </c>
       <c r="D339">
-        <v>0.5772664425997632</v>
+        <v>0.7295158853328104</v>
       </c>
       <c r="E339">
         <v>0.2616193182483291</v>
@@ -25067,7 +25067,7 @@
         <v>0.9227368657388829</v>
       </c>
       <c r="D340">
-        <v>0.5877602448136345</v>
+        <v>0.7431506499986544</v>
       </c>
       <c r="E340">
         <v>0.2594924364766403</v>
@@ -25093,7 +25093,7 @@
         <v>0.9248539118530457</v>
       </c>
       <c r="D341">
-        <v>0.5963483074880096</v>
+        <v>0.7392411996354001</v>
       </c>
       <c r="E341">
         <v>0.255912636880231</v>
@@ -25119,7 +25119,7 @@
         <v>0.9270702749831033</v>
       </c>
       <c r="D342">
-        <v>0.5959815122588927</v>
+        <v>0.7349457484059595</v>
       </c>
       <c r="E342">
         <v>0.2521104403429836</v>
@@ -25145,7 +25145,7 @@
         <v>0.920711062644779</v>
       </c>
       <c r="D343">
-        <v>0.6111213291994191</v>
+        <v>0.7371054181690324</v>
       </c>
       <c r="E343">
         <v>0.2628723100578436</v>
@@ -25171,7 +25171,7 @@
         <v>0.8529524779912914</v>
       </c>
       <c r="D344">
-        <v>0.6751044995311783</v>
+        <v>0.6939401747643973</v>
       </c>
       <c r="E344">
         <v>0.3579871172246334</v>
@@ -25197,7 +25197,7 @@
         <v>0.8602014109183835</v>
       </c>
       <c r="D345">
-        <v>0.6254655073889346</v>
+        <v>0.6993559077522569</v>
       </c>
       <c r="E345">
         <v>0.349051844332356</v>
@@ -25223,7 +25223,7 @@
         <v>0.8657486185372267</v>
       </c>
       <c r="D346">
-        <v>0.5982574743184317</v>
+        <v>0.6689656795812543</v>
       </c>
       <c r="E346">
         <v>0.3420565606393258</v>
@@ -25249,7 +25249,7 @@
         <v>0.887847946854229</v>
       </c>
       <c r="D347">
-        <v>0.4863314032949342</v>
+        <v>0.6239408774569901</v>
       </c>
       <c r="E347">
         <v>0.3126382832075184</v>
@@ -25275,7 +25275,7 @@
         <v>0.888772822410157</v>
       </c>
       <c r="D348">
-        <v>0.5332448980983674</v>
+        <v>0.6486437374581736</v>
       </c>
       <c r="E348">
         <v>0.3113465096759366</v>
@@ -25301,7 +25301,7 @@
         <v>0.8925041348901127</v>
       </c>
       <c r="D349">
-        <v>0.5417561822784052</v>
+        <v>0.6726946831462775</v>
       </c>
       <c r="E349">
         <v>0.3060796263589078</v>
@@ -25327,7 +25327,7 @@
         <v>0.9088590283567644</v>
       </c>
       <c r="D350">
-        <v>0.5786277108156894</v>
+        <v>0.6839832742208403</v>
       </c>
       <c r="E350">
         <v>0.2818352885056942</v>
@@ -25353,7 +25353,7 @@
         <v>0.9091701068722035</v>
       </c>
       <c r="D351">
-        <v>0.5168701876867969</v>
+        <v>0.6684116833304043</v>
       </c>
       <c r="E351">
         <v>0.2813539032413611</v>
@@ -25379,7 +25379,7 @@
         <v>0.9132828460289053</v>
       </c>
       <c r="D352">
-        <v>0.5929831926372044</v>
+        <v>0.7102884353275165</v>
       </c>
       <c r="E352">
         <v>0.2749103248055554</v>
@@ -25405,7 +25405,7 @@
         <v>0.9186298855921248</v>
       </c>
       <c r="D353">
-        <v>0.5355742988341647</v>
+        <v>0.703867977642144</v>
       </c>
       <c r="E353">
         <v>0.2662999017721083</v>
@@ -25431,7 +25431,7 @@
         <v>0.9176000098861355</v>
       </c>
       <c r="D354">
-        <v>0.5654791741761589</v>
+        <v>0.7074034461598402</v>
       </c>
       <c r="E354">
         <v>0.2679798395343317</v>
@@ -25457,7 +25457,7 @@
         <v>0.9159913401368828</v>
       </c>
       <c r="D355">
-        <v>0.5849875240408255</v>
+        <v>0.732924187168402</v>
       </c>
       <c r="E355">
         <v>0.2705830397095202</v>
@@ -25483,7 +25483,7 @@
         <v>0.9214858255740496</v>
       </c>
       <c r="D356">
-        <v>0.5907168698466281</v>
+        <v>0.7362827949319679</v>
       </c>
       <c r="E356">
         <v>0.2615848436550167</v>
@@ -25509,7 +25509,7 @@
         <v>0.924538391119766</v>
       </c>
       <c r="D357">
-        <v>0.5919355464258932</v>
+        <v>0.7348967839849523</v>
       </c>
       <c r="E357">
         <v>0.2564493325633717</v>
@@ -25535,7 +25535,7 @@
         <v>0.92146512924809</v>
       </c>
       <c r="D358">
-        <v>0.5772664425997632</v>
+        <v>0.7295158853328104</v>
       </c>
       <c r="E358">
         <v>0.2616193182483291</v>
@@ -25561,7 +25561,7 @@
         <v>0.9227368657388829</v>
       </c>
       <c r="D359">
-        <v>0.5877602448136345</v>
+        <v>0.7431506499986544</v>
       </c>
       <c r="E359">
         <v>0.2594924364766403</v>
@@ -25587,7 +25587,7 @@
         <v>0.9248539118530457</v>
       </c>
       <c r="D360">
-        <v>0.5963483074880096</v>
+        <v>0.7392411996354001</v>
       </c>
       <c r="E360">
         <v>0.255912636880231</v>
@@ -25613,7 +25613,7 @@
         <v>0.9270702749831033</v>
       </c>
       <c r="D361">
-        <v>0.5959815122588927</v>
+        <v>0.7349457484059595</v>
       </c>
       <c r="E361">
         <v>0.2521104403429836</v>
@@ -25639,7 +25639,7 @@
         <v>0.920711062644779</v>
       </c>
       <c r="D362">
-        <v>0.6111213291994191</v>
+        <v>0.7371054181690324</v>
       </c>
       <c r="E362">
         <v>0.2628723100578436</v>
@@ -25665,7 +25665,7 @@
         <v>0.7496369320305387</v>
       </c>
       <c r="D363">
-        <v>0.2672371457651711</v>
+        <v>0.3647813119325922</v>
       </c>
       <c r="E363">
         <v>0.4671148513034559</v>
@@ -25691,7 +25691,7 @@
         <v>0.8129620339273754</v>
       </c>
       <c r="D364">
-        <v>0.3289724240551005</v>
+        <v>0.4963054314479188</v>
       </c>
       <c r="E364">
         <v>0.4037415337516821</v>
@@ -25717,7 +25717,7 @@
         <v>0.8315492406992749</v>
       </c>
       <c r="D365">
-        <v>0.1273779026954367</v>
+        <v>0.4203602909164551</v>
       </c>
       <c r="E365">
         <v>0.3831554694614271</v>
@@ -25743,7 +25743,7 @@
         <v>0.8285442234426077</v>
       </c>
       <c r="D366">
-        <v>-0.1898966565636531</v>
+        <v>0.3519580530041777</v>
       </c>
       <c r="E366">
         <v>0.3865579449152672</v>
@@ -25769,7 +25769,7 @@
         <v>0.8487379243143731</v>
       </c>
       <c r="D367">
-        <v>0.0705599041796634</v>
+        <v>0.4240258643621402</v>
       </c>
       <c r="E367">
         <v>0.3630810400149377</v>
@@ -25795,7 +25795,7 @@
         <v>0.8609014974885439</v>
       </c>
       <c r="D368">
-        <v>0.04506815457079405</v>
+        <v>0.4454761356667554</v>
       </c>
       <c r="E368">
         <v>0.3481767524784117</v>
@@ -25821,7 +25821,7 @@
         <v>0.8703264503889808</v>
       </c>
       <c r="D369">
-        <v>0.1865271847335523</v>
+        <v>0.4862269214558177</v>
       </c>
       <c r="E369">
         <v>0.3361740935293528</v>
@@ -25847,7 +25847,7 @@
         <v>0.8655484108962059</v>
       </c>
       <c r="D370">
-        <v>0.07645995640509673</v>
+        <v>0.4613072421295159</v>
       </c>
       <c r="E370">
         <v>0.3423115182555234</v>
@@ -25873,7 +25873,7 @@
         <v>0.8754416867245242</v>
       </c>
       <c r="D371">
-        <v>0.1603756535690933</v>
+        <v>0.480093820286034</v>
       </c>
       <c r="E371">
         <v>0.3294768477174828</v>
@@ -25899,7 +25899,7 @@
         <v>0.8786593913424608</v>
       </c>
       <c r="D372">
-        <v>0.1713733506024181</v>
+        <v>0.4893962322770432</v>
       </c>
       <c r="E372">
         <v>0.3251933286676815</v>
@@ -25925,7 +25925,7 @@
         <v>0.8829153534659622</v>
       </c>
       <c r="D373">
-        <v>0.1737417045611112</v>
+        <v>0.4858411284758498</v>
       </c>
       <c r="E373">
         <v>0.3194394265329227</v>
@@ -25951,7 +25951,7 @@
         <v>0.8812308415270012</v>
       </c>
       <c r="D374">
-        <v>0.2417670694304815</v>
+        <v>0.5254436428238254</v>
       </c>
       <c r="E374">
         <v>0.3217291285367987</v>
@@ -25977,7 +25977,7 @@
         <v>0.8815966669393419</v>
       </c>
       <c r="D375">
-        <v>0.3045183874948778</v>
+        <v>0.5564225939306473</v>
       </c>
       <c r="E375">
         <v>0.3212332613310943</v>
@@ -26003,7 +26003,7 @@
         <v>0.8861087261787118</v>
       </c>
       <c r="D376">
-        <v>0.3588686135113623</v>
+        <v>0.576799779752448</v>
       </c>
       <c r="E376">
         <v>0.3150531078731398</v>
@@ -26029,7 +26029,7 @@
         <v>0.8889236749994446</v>
       </c>
       <c r="D377">
-        <v>0.318192632224525</v>
+        <v>0.574541971138311</v>
       </c>
       <c r="E377">
         <v>0.3111353051666298</v>
@@ -26055,7 +26055,7 @@
         <v>0.8957092967828771</v>
       </c>
       <c r="D378">
-        <v>0.2884914343927192</v>
+        <v>0.5602606901566693</v>
       </c>
       <c r="E378">
         <v>0.3014819675024034</v>
@@ -26081,7 +26081,7 @@
         <v>0.8994818091829294</v>
       </c>
       <c r="D379">
-        <v>0.2960112787402663</v>
+        <v>0.5557744976781869</v>
       </c>
       <c r="E379">
         <v>0.2959789836827467</v>
@@ -26107,7 +26107,7 @@
         <v>0.903737338891541</v>
       </c>
       <c r="D380">
-        <v>0.2689005930644832</v>
+        <v>0.5433733038871436</v>
       </c>
       <c r="E380">
         <v>0.2896459594981021</v>
@@ -26133,7 +26133,7 @@
         <v>0.9023964853253907</v>
       </c>
       <c r="D381">
-        <v>0.2633229005390806</v>
+        <v>0.5331277221520854</v>
       </c>
       <c r="E381">
         <v>0.291656239126636</v>
@@ -26159,7 +26159,7 @@
         <v>0.7826699299578571</v>
       </c>
       <c r="D382">
-        <v>-0.1030244690036894</v>
+        <v>0.2137403440136213</v>
       </c>
       <c r="E382">
         <v>0.4352095862792603</v>
@@ -26185,7 +26185,7 @@
         <v>0.8117336104808219</v>
       </c>
       <c r="D383">
-        <v>0.08511210458460916</v>
+        <v>0.4372469336013783</v>
       </c>
       <c r="E383">
         <v>0.4050652058713876</v>
@@ -26211,7 +26211,7 @@
         <v>0.8318886261891667</v>
       </c>
       <c r="D384">
-        <v>-0.3953243726490578</v>
+        <v>0.4477877502733357</v>
       </c>
       <c r="E384">
         <v>0.382769294381547</v>
@@ -26237,7 +26237,7 @@
         <v>0.8269510936938812</v>
       </c>
       <c r="D385">
-        <v>-0.2587993903833388</v>
+        <v>0.432965635359123</v>
       </c>
       <c r="E385">
         <v>0.3883496985269049</v>
@@ -26263,7 +26263,7 @@
         <v>0.840311888179975</v>
       </c>
       <c r="D386">
-        <v>-0.124173158037719</v>
+        <v>0.4574749207870833</v>
       </c>
       <c r="E386">
         <v>0.3730566927826003</v>
@@ -26289,7 +26289,7 @@
         <v>0.8458308172337887</v>
       </c>
       <c r="D387">
-        <v>-0.1746149588839176</v>
+        <v>0.4680301809929033</v>
       </c>
       <c r="E387">
         <v>0.3665534640322369</v>
@@ -26315,7 +26315,7 @@
         <v>0.8654160780642136</v>
       </c>
       <c r="D388">
-        <v>0.0101595044183268</v>
+        <v>0.4907165667329531</v>
       </c>
       <c r="E388">
         <v>0.342479935423801</v>
@@ -26341,7 +26341,7 @@
         <v>0.8566034476434494</v>
       </c>
       <c r="D389">
-        <v>-0.1108441640550395</v>
+        <v>0.4664010639616765</v>
       </c>
       <c r="E389">
         <v>0.3535150421422572</v>
@@ -26367,7 +26367,7 @@
         <v>0.8708932215042163</v>
       </c>
       <c r="D390">
-        <v>-0.02323703285627876</v>
+        <v>0.4850738003877615</v>
       </c>
       <c r="E390">
         <v>0.3354386219673682</v>
@@ -26393,7 +26393,7 @@
         <v>0.875008708874685</v>
       </c>
       <c r="D391">
-        <v>0.002936101548582704</v>
+        <v>0.4718291976467418</v>
       </c>
       <c r="E391">
         <v>0.3300489990912746</v>
@@ -26419,7 +26419,7 @@
         <v>0.8782054977952446</v>
       </c>
       <c r="D392">
-        <v>0.01869914036143228</v>
+        <v>0.4612599051724461</v>
       </c>
       <c r="E392">
         <v>0.3258009792287746</v>
@@ -26445,7 +26445,7 @@
         <v>0.8811218290757252</v>
       </c>
       <c r="D393">
-        <v>0.1014756075076884</v>
+        <v>0.4743333102748141</v>
       </c>
       <c r="E393">
         <v>0.3218767444551833</v>
@@ -26471,7 +26471,7 @@
         <v>0.8910448201411522</v>
       </c>
       <c r="D394">
-        <v>0.08565717238836179</v>
+        <v>0.4719157879261847</v>
       </c>
       <c r="E394">
         <v>0.3081502212643917</v>
@@ -26497,7 +26497,7 @@
         <v>0.8961203337337378</v>
       </c>
       <c r="D395">
-        <v>0.131873539514348</v>
+        <v>0.4925825327928911</v>
       </c>
       <c r="E395">
         <v>0.3008872712995955</v>
@@ -26523,7 +26523,7 @@
         <v>0.8952487477222342</v>
       </c>
       <c r="D396">
-        <v>0.06883781611923367</v>
+        <v>0.4824106964211267</v>
       </c>
       <c r="E396">
         <v>0.3021469082996049</v>
@@ -26549,7 +26549,7 @@
         <v>0.8991271333730004</v>
       </c>
       <c r="D397">
-        <v>0.07969520737070324</v>
+        <v>0.4990072424216034</v>
       </c>
       <c r="E397">
         <v>0.2965007009268305</v>
@@ -26575,7 +26575,7 @@
         <v>0.9017296415954588</v>
       </c>
       <c r="D398">
-        <v>0.1245006319187287</v>
+        <v>0.5039087555932182</v>
       </c>
       <c r="E398">
         <v>0.2926508655461882</v>
@@ -26601,7 +26601,7 @@
         <v>0.9069405864578477</v>
       </c>
       <c r="D399">
-        <v>0.1586543661443106</v>
+        <v>0.5074277595677192</v>
       </c>
       <c r="E399">
         <v>0.284786041236991</v>
@@ -26627,7 +26627,7 @@
         <v>0.9067759349649152</v>
       </c>
       <c r="D400">
-        <v>0.1963762814978102</v>
+        <v>0.524081664619315</v>
       </c>
       <c r="E400">
         <v>0.2850378681204733</v>
@@ -26686,7 +26686,7 @@
         <v>0.3655781795349764</v>
       </c>
       <c r="D2">
-        <v>-2.05808541567923</v>
+        <v>0.4035491023748085</v>
       </c>
       <c r="E2">
         <v>0.7435798266508071</v>
@@ -26709,7 +26709,7 @@
         <v>0.5765943501692785</v>
       </c>
       <c r="D3">
-        <v>0.3188862649921218</v>
+        <v>0.6787504926844723</v>
       </c>
       <c r="E3">
         <v>0.607458855213633</v>
@@ -26732,7 +26732,7 @@
         <v>0.5795775569948518</v>
       </c>
       <c r="D4">
-        <v>0.3315651663399234</v>
+        <v>0.6837965029913136</v>
       </c>
       <c r="E4">
         <v>0.6053150733242554</v>
@@ -26755,7 +26755,7 @@
         <v>0.579087426611263</v>
       </c>
       <c r="D5">
-        <v>0.3315651663399234</v>
+        <v>0.6837965029913136</v>
       </c>
       <c r="E5">
         <v>0.6056678100723711</v>
@@ -26778,7 +26778,7 @@
         <v>0.5869113424752631</v>
       </c>
       <c r="D6">
-        <v>0.3227758198611993</v>
+        <v>0.6757840371376391</v>
       </c>
       <c r="E6">
         <v>0.6000123342695733</v>
@@ -26801,7 +26801,7 @@
         <v>0.6563574722252083</v>
       </c>
       <c r="D7">
-        <v>0.6576644063303537</v>
+        <v>0.725957152867063</v>
       </c>
       <c r="E7">
         <v>0.547257844339243</v>
@@ -26824,7 +26824,7 @@
         <v>0.6703130950844469</v>
       </c>
       <c r="D8">
-        <v>0.5315024779931892</v>
+        <v>0.6563805904342794</v>
       </c>
       <c r="E8">
         <v>0.5360303642292839</v>
@@ -26847,7 +26847,7 @@
         <v>0.6573522778771947</v>
       </c>
       <c r="D9">
-        <v>0.1391512550578187</v>
+        <v>0.4001211521449315</v>
       </c>
       <c r="E9">
         <v>0.5464651459261981</v>
@@ -26870,7 +26870,7 @@
         <v>0.6573522778771947</v>
       </c>
       <c r="D10">
-        <v>0.1391512550578187</v>
+        <v>0.4001211521449315</v>
       </c>
       <c r="E10">
         <v>0.5464651459261981</v>
@@ -26893,7 +26893,7 @@
         <v>0.6439869278886765</v>
       </c>
       <c r="D11">
-        <v>0.1277839717638808</v>
+        <v>0.4381479181437073</v>
       </c>
       <c r="E11">
         <v>0.5570209315969853</v>
@@ -26916,7 +26916,7 @@
         <v>0.6669879296088557</v>
       </c>
       <c r="D12">
-        <v>0.002085358953679339</v>
+        <v>0.3713492796706279</v>
       </c>
       <c r="E12">
         <v>0.5387267375726352</v>
@@ -26939,7 +26939,7 @@
         <v>0.6605076820042615</v>
       </c>
       <c r="D13">
-        <v>0.005630263695904802</v>
+        <v>0.3708287863183158</v>
       </c>
       <c r="E13">
         <v>0.5439431584550428</v>
@@ -26962,7 +26962,7 @@
         <v>0.6605076820042615</v>
       </c>
       <c r="D14">
-        <v>0.005630263695904802</v>
+        <v>0.3708287863183158</v>
       </c>
       <c r="E14">
         <v>0.5439431584550428</v>
@@ -26985,7 +26985,7 @@
         <v>0.5317704910159504</v>
       </c>
       <c r="D15">
-        <v>0.7283002235311808</v>
+        <v>0.7989065985449104</v>
       </c>
       <c r="E15">
         <v>0.6388044505438911</v>
@@ -27008,7 +27008,7 @@
         <v>0.5235149586876782</v>
       </c>
       <c r="D16">
-        <v>0.7054795257439186</v>
+        <v>0.7951075277227894</v>
       </c>
       <c r="E16">
         <v>0.6444113461619209</v>
@@ -27031,7 +27031,7 @@
         <v>0.5819621881074415</v>
       </c>
       <c r="D17">
-        <v>0.7681305928059177</v>
+        <v>0.8307821665232054</v>
       </c>
       <c r="E17">
         <v>0.6035959622033769</v>
@@ -27054,7 +27054,7 @@
         <v>0.570531147935739</v>
       </c>
       <c r="D18">
-        <v>0.7020725941725541</v>
+        <v>0.7404971991500151</v>
       </c>
       <c r="E18">
         <v>0.6117928239835436</v>
@@ -27077,7 +27077,7 @@
         <v>0.5920842564446827</v>
       </c>
       <c r="D19">
-        <v>0.6939926862585812</v>
+        <v>0.7385820073958993</v>
       </c>
       <c r="E19">
         <v>0.5962436633769816</v>
@@ -27100,7 +27100,7 @@
         <v>0.5920842564446827</v>
       </c>
       <c r="D20">
-        <v>0.6939926862585812</v>
+        <v>0.7385820073958993</v>
       </c>
       <c r="E20">
         <v>0.5962436633769816</v>
@@ -27123,7 +27123,7 @@
         <v>0.563022745668565</v>
       </c>
       <c r="D21">
-        <v>0.5292207925174151</v>
+        <v>0.6484503334781045</v>
       </c>
       <c r="E21">
         <v>0.617117637183018</v>
@@ -27146,7 +27146,7 @@
         <v>0.5539357250098326</v>
       </c>
       <c r="D22">
-        <v>0.5587893728311677</v>
+        <v>0.6540961656306747</v>
       </c>
       <c r="E22">
         <v>0.6235011575014837</v>
@@ -27202,7 +27202,7 @@
         <v>0.7579128535370316</v>
       </c>
       <c r="D2">
-        <v>0.7291724413521726</v>
+        <v>0.7435916686138182</v>
       </c>
       <c r="E2">
         <v>0.4593295741787614</v>
@@ -27225,7 +27225,7 @@
         <v>0.7020540060527809</v>
       </c>
       <c r="D3">
-        <v>0.5458748239612929</v>
+        <v>0.667642709565224</v>
       </c>
       <c r="E3">
         <v>0.5095740672149229</v>
@@ -27248,7 +27248,7 @@
         <v>0.6986080240435242</v>
       </c>
       <c r="D4">
-        <v>0.4989529092455246</v>
+        <v>0.6478283954786388</v>
       </c>
       <c r="E4">
         <v>0.5125124099349148</v>
@@ -27271,7 +27271,7 @@
         <v>0.6509430125494386</v>
       </c>
       <c r="D5">
-        <v>0.371367113308808</v>
+        <v>0.5560019486439384</v>
       </c>
       <c r="E5">
         <v>0.5515523140477044</v>
@@ -27294,7 +27294,7 @@
         <v>0.6460263228889975</v>
       </c>
       <c r="D6">
-        <v>0.06564769959192696</v>
+        <v>0.4647202651588004</v>
       </c>
       <c r="E6">
         <v>0.5554232132526726</v>
@@ -27317,7 +27317,7 @@
         <v>0.6059825817366555</v>
       </c>
       <c r="D7">
-        <v>0.03027949555201004</v>
+        <v>0.6075209334759388</v>
       </c>
       <c r="E7">
         <v>0.5859981614703993</v>
@@ -27340,7 +27340,7 @@
         <v>0.5824669929312503</v>
       </c>
       <c r="D8">
-        <v>0.1070583513145591</v>
+        <v>0.5899886869216088</v>
       </c>
       <c r="E8">
         <v>0.6032314136082257</v>
@@ -27363,7 +27363,7 @@
         <v>0.5551296668333308</v>
       </c>
       <c r="D9">
-        <v>0.04414948468249247</v>
+        <v>0.5730212095932663</v>
       </c>
       <c r="E9">
         <v>0.6226661624655065</v>
@@ -27386,7 +27386,7 @@
         <v>0.5442071197607843</v>
       </c>
       <c r="D10">
-        <v>-0.04124448372348399</v>
+        <v>0.5606284211198274</v>
       </c>
       <c r="E10">
         <v>0.6302637242780997</v>
@@ -27409,7 +27409,7 @@
         <v>0.5337390432339031</v>
       </c>
       <c r="D11">
-        <v>-0.1345470949208301</v>
+        <v>0.5454399752240493</v>
       </c>
       <c r="E11">
         <v>0.6374601905063918</v>
@@ -27432,7 +27432,7 @@
         <v>0.5391547427464647</v>
       </c>
       <c r="D12">
-        <v>0.2006683322287213</v>
+        <v>0.5863831511573204</v>
       </c>
       <c r="E12">
         <v>0.6337472737598316</v>
@@ -27455,7 +27455,7 @@
         <v>0.5303971460485807</v>
       </c>
       <c r="D13">
-        <v>0.1929856033310131</v>
+        <v>0.5963394230382193</v>
       </c>
       <c r="E13">
         <v>0.6397405903105193</v>
@@ -27478,7 +27478,7 @@
         <v>0.5303971460485807</v>
       </c>
       <c r="D14">
-        <v>0.1929856033310131</v>
+        <v>0.5963394230382193</v>
       </c>
       <c r="E14">
         <v>0.6397405903105193</v>
@@ -27501,7 +27501,7 @@
         <v>0.5260202282754599</v>
       </c>
       <c r="D15">
-        <v>0.1848042585852793</v>
+        <v>0.5858762931135926</v>
       </c>
       <c r="E15">
         <v>0.6427150160676621</v>
@@ -27524,7 +27524,7 @@
         <v>0.5144803747601249</v>
       </c>
       <c r="D16">
-        <v>0.1644436812081462</v>
+        <v>0.5875138898414278</v>
       </c>
       <c r="E16">
         <v>0.6504919666792426</v>
@@ -27547,7 +27547,7 @@
         <v>0.4773234131364412</v>
       </c>
       <c r="D17">
-        <v>-0.1457764668921266</v>
+        <v>0.4637408845103375</v>
       </c>
       <c r="E17">
         <v>0.6749243021422818</v>
@@ -27570,7 +27570,7 @@
         <v>0.4274880292605088</v>
       </c>
       <c r="D18">
-        <v>-0.2277909819676975</v>
+        <v>0.5380318248342799</v>
       </c>
       <c r="E18">
         <v>0.7063676947381002</v>
@@ -27593,7 +27593,7 @@
         <v>0.4153462878154097</v>
       </c>
       <c r="D19">
-        <v>0.01590445985252209</v>
+        <v>0.5885571370707737</v>
       </c>
       <c r="E19">
         <v>0.7138186632786595</v>
@@ -27616,7 +27616,7 @@
         <v>0.4153462878154097</v>
       </c>
       <c r="D20">
-        <v>0.01590445985252209</v>
+        <v>0.5885571370707737</v>
       </c>
       <c r="E20">
         <v>0.7138186632786595</v>
@@ -27639,7 +27639,7 @@
         <v>0.4248732384212179</v>
       </c>
       <c r="D21">
-        <v>-0.2472334673272552</v>
+        <v>0.5192404635323675</v>
       </c>
       <c r="E21">
         <v>0.7079789271258733</v>
@@ -27662,7 +27662,7 @@
         <v>0.4003340635309963</v>
       </c>
       <c r="D22">
-        <v>0.03112154380934917</v>
+        <v>0.5381014272667919</v>
       </c>
       <c r="E22">
         <v>0.722924981970601</v>
